--- a/exp_retrain/res/retrain.xlsx
+++ b/exp_retrain/res/retrain.xlsx
@@ -21,81 +21,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="22">
   <si>
-    <t>random_random</t>
+    <t>NAC(0)-CAM</t>
   </si>
   <si>
-    <t>nac_t_0_cam</t>
+    <t>NAC(0)-CTM</t>
   </si>
   <si>
-    <t>nac_t_0_ctm</t>
+    <t>NAC(0.75)-CAM</t>
   </si>
   <si>
-    <t>nac_t_0.75_cam</t>
+    <t>NAC(0.75)-CTM</t>
   </si>
   <si>
-    <t>nac_t_0.75_ctm</t>
+    <t>NBC(0)-CAM</t>
   </si>
   <si>
-    <t>nbc_std_0_cam</t>
+    <t>NBC(0)-CTM</t>
   </si>
   <si>
-    <t>nbc_std_0_ctm</t>
+    <t>NBC(0.5)-CAM</t>
   </si>
   <si>
-    <t>nbc_std_0.5_cam</t>
+    <t>NBC(0.5)-CTM</t>
   </si>
   <si>
-    <t>nbc_std_0.5_ctm</t>
+    <t>NBC(1)-CAM</t>
   </si>
   <si>
-    <t>nbc_std_1_cam</t>
+    <t>NBC(1)-CTM</t>
   </si>
   <si>
-    <t>nbc_std_1_ctm</t>
+    <t>SNAC(0)-CAM</t>
   </si>
   <si>
-    <t>snac_std_0_cam</t>
+    <t>SNAC(0)-CTM</t>
   </si>
   <si>
-    <t>snac_std_0_ctm</t>
+    <t>SNAC(0.5)-CAM</t>
   </si>
   <si>
-    <t>snac_std_0.5_cam</t>
+    <t>SNAC(0.5)-CTM</t>
   </si>
   <si>
-    <t>snac_std_0.5_ctm</t>
+    <t>SNAC(1)-CAM</t>
   </si>
   <si>
-    <t>snac_std_1_cam</t>
+    <t>SNAC(1)-CTM</t>
   </si>
   <si>
-    <t>snac_std_1_ctm</t>
+    <t>TKNC(1)-CAM</t>
   </si>
   <si>
-    <t>tknc_k_1_cam</t>
+    <t>TKNC(2)-CAM</t>
   </si>
   <si>
-    <t>tknc_k_2_cam</t>
+    <t>TKNC(3)-CAM</t>
   </si>
   <si>
-    <t>tknc_k_3_cam</t>
+    <t>LSC(1000,100)-CAM</t>
   </si>
   <si>
-    <t>lsc_index_-1_cam</t>
+    <t>DSC(1000,2)-CAM</t>
   </si>
   <si>
-    <t>lsc_index_-1_ctm</t>
-  </si>
-  <si>
-    <t>dsc_cam</t>
-  </si>
-  <si>
-    <t>dsc_ctm</t>
-  </si>
-  <si>
-    <t>deepgini_cam</t>
+    <t>DeepGini</t>
   </si>
 </sst>
 </file>
@@ -453,7 +444,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -502,34 +493,34 @@
         <v>0.000699999975040555</v>
       </c>
       <c r="C2">
-        <v>0.8880500197410583</v>
+        <v>0.8860250115394592</v>
       </c>
       <c r="D2">
-        <v>0.8922749757766724</v>
+        <v>0.8888499736785889</v>
       </c>
       <c r="E2">
-        <v>0.8977000117301941</v>
+        <v>0.8907750248908997</v>
       </c>
       <c r="F2">
-        <v>0.9022499918937684</v>
+        <v>0.8975499868392944</v>
       </c>
       <c r="G2">
-        <v>0.906125009059906</v>
+        <v>0.9006749987602234</v>
       </c>
       <c r="H2">
-        <v>0.9107499718666076</v>
+        <v>0.9041500091552734</v>
       </c>
       <c r="I2">
-        <v>0.91525000333786</v>
+        <v>0.90829998254776</v>
       </c>
       <c r="J2">
-        <v>0.9199749827384948</v>
+        <v>0.9121500253677368</v>
       </c>
       <c r="K2">
-        <v>0.9227499961853028</v>
+        <v>0.9139500260353088</v>
       </c>
       <c r="L2">
-        <v>0.9255250096321106</v>
+        <v>0.9169999957084656</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -540,34 +531,34 @@
         <v>0.000699999975040555</v>
       </c>
       <c r="C3">
-        <v>0.8860250115394592</v>
+        <v>0.8900750279426575</v>
       </c>
       <c r="D3">
-        <v>0.8888499736785889</v>
+        <v>0.8965250253677368</v>
       </c>
       <c r="E3">
-        <v>0.8907750248908997</v>
+        <v>0.9027249813079834</v>
       </c>
       <c r="F3">
-        <v>0.8975499868392944</v>
+        <v>0.9088749885559082</v>
       </c>
       <c r="G3">
-        <v>0.9006749987602234</v>
+        <v>0.9122499823570251</v>
       </c>
       <c r="H3">
-        <v>0.9041500091552734</v>
+        <v>0.917074978351593</v>
       </c>
       <c r="I3">
-        <v>0.90829998254776</v>
+        <v>0.9226750135421752</v>
       </c>
       <c r="J3">
-        <v>0.9121500253677368</v>
+        <v>0.9270750284194946</v>
       </c>
       <c r="K3">
-        <v>0.9139500260353088</v>
+        <v>0.930050015449524</v>
       </c>
       <c r="L3">
-        <v>0.9169999957084656</v>
+        <v>0.9343500137329102</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -578,34 +569,34 @@
         <v>0.000699999975040555</v>
       </c>
       <c r="C4">
-        <v>0.8900750279426575</v>
+        <v>0.8851000070571899</v>
       </c>
       <c r="D4">
-        <v>0.8965250253677368</v>
+        <v>0.8881000280380249</v>
       </c>
       <c r="E4">
-        <v>0.9027249813079834</v>
+        <v>0.8909249901771545</v>
       </c>
       <c r="F4">
-        <v>0.9088749885559082</v>
+        <v>0.8964750170707703</v>
       </c>
       <c r="G4">
-        <v>0.9122499823570251</v>
+        <v>0.9009249806404114</v>
       </c>
       <c r="H4">
-        <v>0.917074978351593</v>
+        <v>0.904449999332428</v>
       </c>
       <c r="I4">
-        <v>0.9226750135421752</v>
+        <v>0.9081000089645386</v>
       </c>
       <c r="J4">
-        <v>0.9270750284194946</v>
+        <v>0.9123499989509584</v>
       </c>
       <c r="K4">
-        <v>0.930050015449524</v>
+        <v>0.9141250252723694</v>
       </c>
       <c r="L4">
-        <v>0.9343500137329102</v>
+        <v>0.916800022125244</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -616,34 +607,34 @@
         <v>0.000699999975040555</v>
       </c>
       <c r="C5">
-        <v>0.8851000070571899</v>
+        <v>0.8880000114440918</v>
       </c>
       <c r="D5">
-        <v>0.8881000280380249</v>
+        <v>0.8911499977111816</v>
       </c>
       <c r="E5">
-        <v>0.8909249901771545</v>
+        <v>0.8914250135421753</v>
       </c>
       <c r="F5">
-        <v>0.8964750170707703</v>
+        <v>0.8922749757766724</v>
       </c>
       <c r="G5">
-        <v>0.9009249806404114</v>
+        <v>0.893625020980835</v>
       </c>
       <c r="H5">
-        <v>0.904449999332428</v>
+        <v>0.8947499990463257</v>
       </c>
       <c r="I5">
-        <v>0.9081000089645386</v>
+        <v>0.8963000178337097</v>
       </c>
       <c r="J5">
-        <v>0.9123499989509584</v>
+        <v>0.8983500003814697</v>
       </c>
       <c r="K5">
-        <v>0.9141250252723694</v>
+        <v>0.8994749784469604</v>
       </c>
       <c r="L5">
-        <v>0.916800022125244</v>
+        <v>0.8992999792098999</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -654,34 +645,34 @@
         <v>0.000699999975040555</v>
       </c>
       <c r="C6">
-        <v>0.8880000114440918</v>
+        <v>0.8854249715805054</v>
       </c>
       <c r="D6">
-        <v>0.8911499977111816</v>
+        <v>0.8892999887466431</v>
       </c>
       <c r="E6">
-        <v>0.8914250135421753</v>
+        <v>0.8916500210762024</v>
       </c>
       <c r="F6">
-        <v>0.8922749757766724</v>
+        <v>0.8962249755859375</v>
       </c>
       <c r="G6">
-        <v>0.893625020980835</v>
+        <v>0.900849997997284</v>
       </c>
       <c r="H6">
-        <v>0.8947499990463257</v>
+        <v>0.9050750136375428</v>
       </c>
       <c r="I6">
-        <v>0.8963000178337097</v>
+        <v>0.9086499810218812</v>
       </c>
       <c r="J6">
-        <v>0.8983500003814697</v>
+        <v>0.9139000177383424</v>
       </c>
       <c r="K6">
-        <v>0.8994749784469604</v>
+        <v>0.9149249792099</v>
       </c>
       <c r="L6">
-        <v>0.8992999792098999</v>
+        <v>0.9173499941825868</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -692,34 +683,34 @@
         <v>0.000699999975040555</v>
       </c>
       <c r="C7">
-        <v>0.8854249715805054</v>
+        <v>0.8880500197410583</v>
       </c>
       <c r="D7">
-        <v>0.8892999887466431</v>
+        <v>0.8931999802589417</v>
       </c>
       <c r="E7">
-        <v>0.8916500210762024</v>
+        <v>0.8983749747276306</v>
       </c>
       <c r="F7">
-        <v>0.8962249755859375</v>
+        <v>0.9049000144004822</v>
       </c>
       <c r="G7">
-        <v>0.900849997997284</v>
+        <v>0.9118250012397766</v>
       </c>
       <c r="H7">
-        <v>0.9050750136375428</v>
+        <v>0.9185000061988832</v>
       </c>
       <c r="I7">
-        <v>0.9086499810218812</v>
+        <v>0.9222999811172484</v>
       </c>
       <c r="J7">
-        <v>0.9139000177383424</v>
+        <v>0.9279000163078308</v>
       </c>
       <c r="K7">
-        <v>0.9149249792099</v>
+        <v>0.9301249980926514</v>
       </c>
       <c r="L7">
-        <v>0.9173499941825868</v>
+        <v>0.9333000183105468</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -730,34 +721,34 @@
         <v>0.000699999975040555</v>
       </c>
       <c r="C8">
-        <v>0.8880500197410583</v>
+        <v>0.8846250176429749</v>
       </c>
       <c r="D8">
-        <v>0.8931999802589417</v>
+        <v>0.8888499736785889</v>
       </c>
       <c r="E8">
-        <v>0.8983749747276306</v>
+        <v>0.8912749886512756</v>
       </c>
       <c r="F8">
-        <v>0.9049000144004822</v>
+        <v>0.8967249989509583</v>
       </c>
       <c r="G8">
-        <v>0.9118250012397766</v>
+        <v>0.9010499715805054</v>
       </c>
       <c r="H8">
-        <v>0.9185000061988832</v>
+        <v>0.9054250121116638</v>
       </c>
       <c r="I8">
-        <v>0.9222999811172484</v>
+        <v>0.9088249802589417</v>
       </c>
       <c r="J8">
-        <v>0.9279000163078308</v>
+        <v>0.9127249717712402</v>
       </c>
       <c r="K8">
-        <v>0.9301249980926514</v>
+        <v>0.9143499732017516</v>
       </c>
       <c r="L8">
-        <v>0.9333000183105468</v>
+        <v>0.9164000153541564</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -768,34 +759,34 @@
         <v>0.000699999975040555</v>
       </c>
       <c r="C9">
-        <v>0.8846250176429749</v>
+        <v>0.8891249895095825</v>
       </c>
       <c r="D9">
-        <v>0.8888499736785889</v>
+        <v>0.8966749906539917</v>
       </c>
       <c r="E9">
-        <v>0.8912749886512756</v>
+        <v>0.9009749889373779</v>
       </c>
       <c r="F9">
-        <v>0.8967249989509583</v>
+        <v>0.906374990940094</v>
       </c>
       <c r="G9">
-        <v>0.9010499715805054</v>
+        <v>0.9114750027656556</v>
       </c>
       <c r="H9">
-        <v>0.9054250121116638</v>
+        <v>0.9162499904632568</v>
       </c>
       <c r="I9">
-        <v>0.9088249802589417</v>
+        <v>0.9218249917030334</v>
       </c>
       <c r="J9">
-        <v>0.9127249717712402</v>
+        <v>0.9258249998092652</v>
       </c>
       <c r="K9">
-        <v>0.9143499732017516</v>
+        <v>0.9314500093460084</v>
       </c>
       <c r="L9">
-        <v>0.9164000153541564</v>
+        <v>0.9338250160217284</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -806,34 +797,34 @@
         <v>0.000699999975040555</v>
       </c>
       <c r="C10">
-        <v>0.8891249895095825</v>
+        <v>0.8848999738693237</v>
       </c>
       <c r="D10">
-        <v>0.8966749906539917</v>
+        <v>0.8889750242233276</v>
       </c>
       <c r="E10">
-        <v>0.9009749889373779</v>
+        <v>0.8909749984741211</v>
       </c>
       <c r="F10">
-        <v>0.906374990940094</v>
+        <v>0.8971250057220459</v>
       </c>
       <c r="G10">
-        <v>0.9114750027656556</v>
+        <v>0.9012249708175659</v>
       </c>
       <c r="H10">
-        <v>0.9162499904632568</v>
+        <v>0.90482497215271</v>
       </c>
       <c r="I10">
-        <v>0.9218249917030334</v>
+        <v>0.90829998254776</v>
       </c>
       <c r="J10">
-        <v>0.9258249998092652</v>
+        <v>0.9130749702453612</v>
       </c>
       <c r="K10">
-        <v>0.9314500093460084</v>
+        <v>0.9135000109672546</v>
       </c>
       <c r="L10">
-        <v>0.9338250160217284</v>
+        <v>0.9168499708175659</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -844,34 +835,34 @@
         <v>0.000699999975040555</v>
       </c>
       <c r="C11">
-        <v>0.8848999738693237</v>
+        <v>0.8901000022888184</v>
       </c>
       <c r="D11">
-        <v>0.8889750242233276</v>
+        <v>0.8974499702453613</v>
       </c>
       <c r="E11">
-        <v>0.8909749984741211</v>
+        <v>0.9019500017166138</v>
       </c>
       <c r="F11">
-        <v>0.8971250057220459</v>
+        <v>0.9077249765396118</v>
       </c>
       <c r="G11">
-        <v>0.9012249708175659</v>
+        <v>0.9108499884605408</v>
       </c>
       <c r="H11">
-        <v>0.90482497215271</v>
+        <v>0.9169750213623048</v>
       </c>
       <c r="I11">
-        <v>0.90829998254776</v>
+        <v>0.9218999743461608</v>
       </c>
       <c r="J11">
-        <v>0.9130749702453612</v>
+        <v>0.9269750118255616</v>
       </c>
       <c r="K11">
-        <v>0.9135000109672546</v>
+        <v>0.9309250116348268</v>
       </c>
       <c r="L11">
-        <v>0.9168499708175659</v>
+        <v>0.9348000288009644</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -882,34 +873,34 @@
         <v>0.000699999975040555</v>
       </c>
       <c r="C12">
-        <v>0.8901000022888184</v>
+        <v>0.8849499821662903</v>
       </c>
       <c r="D12">
-        <v>0.8974499702453613</v>
+        <v>0.8881499767303467</v>
       </c>
       <c r="E12">
-        <v>0.9019500017166138</v>
+        <v>0.8910999894142151</v>
       </c>
       <c r="F12">
-        <v>0.9077249765396118</v>
+        <v>0.8966749906539917</v>
       </c>
       <c r="G12">
-        <v>0.9108499884605408</v>
+        <v>0.9006999731063843</v>
       </c>
       <c r="H12">
-        <v>0.9169750213623048</v>
+        <v>0.904699981212616</v>
       </c>
       <c r="I12">
-        <v>0.9218999743461608</v>
+        <v>0.9082249999046326</v>
       </c>
       <c r="J12">
-        <v>0.9269750118255616</v>
+        <v>0.9128249883651732</v>
       </c>
       <c r="K12">
-        <v>0.9309250116348268</v>
+        <v>0.9139999747276306</v>
       </c>
       <c r="L12">
-        <v>0.9348000288009644</v>
+        <v>0.9169999957084656</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -920,34 +911,34 @@
         <v>0.000699999975040555</v>
       </c>
       <c r="C13">
-        <v>0.8849499821662903</v>
+        <v>0.8896499872207642</v>
       </c>
       <c r="D13">
-        <v>0.8881499767303467</v>
+        <v>0.8949249982833862</v>
       </c>
       <c r="E13">
-        <v>0.8910999894142151</v>
+        <v>0.9007750153541564</v>
       </c>
       <c r="F13">
-        <v>0.8966749906539917</v>
+        <v>0.9067500233650208</v>
       </c>
       <c r="G13">
-        <v>0.9006999731063843</v>
+        <v>0.9108499884605408</v>
       </c>
       <c r="H13">
-        <v>0.904699981212616</v>
+        <v>0.9168750047683716</v>
       </c>
       <c r="I13">
-        <v>0.9082249999046326</v>
+        <v>0.9203000068664552</v>
       </c>
       <c r="J13">
-        <v>0.9128249883651732</v>
+        <v>0.9259250164031982</v>
       </c>
       <c r="K13">
-        <v>0.9139999747276306</v>
+        <v>0.930774986743927</v>
       </c>
       <c r="L13">
-        <v>0.9169999957084656</v>
+        <v>0.9336000084877014</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -958,34 +949,34 @@
         <v>0.000699999975040555</v>
       </c>
       <c r="C14">
-        <v>0.8896499872207642</v>
+        <v>0.8858749866485596</v>
       </c>
       <c r="D14">
-        <v>0.8949249982833862</v>
+        <v>0.8885250091552734</v>
       </c>
       <c r="E14">
-        <v>0.9007750153541564</v>
+        <v>0.8913499712944031</v>
       </c>
       <c r="F14">
-        <v>0.9067500233650208</v>
+        <v>0.8968250155448914</v>
       </c>
       <c r="G14">
-        <v>0.9108499884605408</v>
+        <v>0.9007999897003174</v>
       </c>
       <c r="H14">
-        <v>0.9168750047683716</v>
+        <v>0.9043750166893004</v>
       </c>
       <c r="I14">
-        <v>0.9203000068664552</v>
+        <v>0.9082750082015992</v>
       </c>
       <c r="J14">
-        <v>0.9259250164031982</v>
+        <v>0.9129250049591064</v>
       </c>
       <c r="K14">
-        <v>0.930774986743927</v>
+        <v>0.9142749905586244</v>
       </c>
       <c r="L14">
-        <v>0.9336000084877014</v>
+        <v>0.9162750244140624</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -996,34 +987,34 @@
         <v>0.000699999975040555</v>
       </c>
       <c r="C15">
-        <v>0.8858749866485596</v>
+        <v>0.8888750076293945</v>
       </c>
       <c r="D15">
-        <v>0.8885250091552734</v>
+        <v>0.8978499770164491</v>
       </c>
       <c r="E15">
-        <v>0.8913499712944031</v>
+        <v>0.9028249979019164</v>
       </c>
       <c r="F15">
-        <v>0.8968250155448914</v>
+        <v>0.9068750143051147</v>
       </c>
       <c r="G15">
-        <v>0.9007999897003174</v>
+        <v>0.9109500050544742</v>
       </c>
       <c r="H15">
-        <v>0.9043750166893004</v>
+        <v>0.9164999723434448</v>
       </c>
       <c r="I15">
-        <v>0.9082750082015992</v>
+        <v>0.922249972820282</v>
       </c>
       <c r="J15">
-        <v>0.9129250049591064</v>
+        <v>0.9265249967575072</v>
       </c>
       <c r="K15">
-        <v>0.9142749905586244</v>
+        <v>0.9309499859809875</v>
       </c>
       <c r="L15">
-        <v>0.9162750244140624</v>
+        <v>0.9345750212669371</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1034,34 +1025,34 @@
         <v>0.000699999975040555</v>
       </c>
       <c r="C16">
-        <v>0.8888750076293945</v>
+        <v>0.8853750228881836</v>
       </c>
       <c r="D16">
-        <v>0.8978499770164491</v>
+        <v>0.8886749744415283</v>
       </c>
       <c r="E16">
-        <v>0.9028249979019164</v>
+        <v>0.8910250067710876</v>
       </c>
       <c r="F16">
-        <v>0.9068750143051147</v>
+        <v>0.8968499898910522</v>
       </c>
       <c r="G16">
-        <v>0.9109500050544742</v>
+        <v>0.900950014591217</v>
       </c>
       <c r="H16">
-        <v>0.9164999723434448</v>
+        <v>0.9039499759674072</v>
       </c>
       <c r="I16">
-        <v>0.922249972820282</v>
+        <v>0.908424973487854</v>
       </c>
       <c r="J16">
-        <v>0.9265249967575072</v>
+        <v>0.9135749936103821</v>
       </c>
       <c r="K16">
-        <v>0.9309499859809875</v>
+        <v>0.9142749905586244</v>
       </c>
       <c r="L16">
-        <v>0.9345750212669371</v>
+        <v>0.9165499806404114</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1072,34 +1063,34 @@
         <v>0.000699999975040555</v>
       </c>
       <c r="C17">
-        <v>0.8853750228881836</v>
+        <v>0.8898249864578247</v>
       </c>
       <c r="D17">
-        <v>0.8886749744415283</v>
+        <v>0.8981000185012817</v>
       </c>
       <c r="E17">
-        <v>0.8910250067710876</v>
+        <v>0.9023500084877014</v>
       </c>
       <c r="F17">
-        <v>0.8968499898910522</v>
+        <v>0.9078500270843506</v>
       </c>
       <c r="G17">
-        <v>0.900950014591217</v>
+        <v>0.9114249944686892</v>
       </c>
       <c r="H17">
-        <v>0.9039499759674072</v>
+        <v>0.9166749715805054</v>
       </c>
       <c r="I17">
-        <v>0.908424973487854</v>
+        <v>0.9220499992370604</v>
       </c>
       <c r="J17">
-        <v>0.9135749936103821</v>
+        <v>0.9262499809265136</v>
       </c>
       <c r="K17">
-        <v>0.9142749905586244</v>
+        <v>0.9309750199317932</v>
       </c>
       <c r="L17">
-        <v>0.9165499806404114</v>
+        <v>0.9343500137329102</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1110,34 +1101,34 @@
         <v>0.000699999975040555</v>
       </c>
       <c r="C18">
-        <v>0.8898249864578247</v>
+        <v>0.8847249746322632</v>
       </c>
       <c r="D18">
-        <v>0.8981000185012817</v>
+        <v>0.8888000249862671</v>
       </c>
       <c r="E18">
-        <v>0.9023500084877014</v>
+        <v>0.8904500007629395</v>
       </c>
       <c r="F18">
-        <v>0.9078500270843506</v>
+        <v>0.8971250057220459</v>
       </c>
       <c r="G18">
-        <v>0.9114249944686892</v>
+        <v>0.8999000191688538</v>
       </c>
       <c r="H18">
-        <v>0.9166749715805054</v>
+        <v>0.9049249887466432</v>
       </c>
       <c r="I18">
-        <v>0.9220499992370604</v>
+        <v>0.9081500172615052</v>
       </c>
       <c r="J18">
-        <v>0.9262499809265136</v>
+        <v>0.9127749800682068</v>
       </c>
       <c r="K18">
-        <v>0.9309750199317932</v>
+        <v>0.9154250025749208</v>
       </c>
       <c r="L18">
-        <v>0.9343500137329102</v>
+        <v>0.916575014591217</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1148,34 +1139,34 @@
         <v>0.000699999975040555</v>
       </c>
       <c r="C19">
-        <v>0.8847249746322632</v>
+        <v>0.8852999806404114</v>
       </c>
       <c r="D19">
-        <v>0.8888000249862671</v>
+        <v>0.8888499736785889</v>
       </c>
       <c r="E19">
-        <v>0.8904500007629395</v>
+        <v>0.890874981880188</v>
       </c>
       <c r="F19">
-        <v>0.8971250057220459</v>
+        <v>0.8965250253677368</v>
       </c>
       <c r="G19">
-        <v>0.8999000191688538</v>
+        <v>0.9010750055313108</v>
       </c>
       <c r="H19">
-        <v>0.9049249887466432</v>
+        <v>0.9051749706268308</v>
       </c>
       <c r="I19">
         <v>0.9081500172615052</v>
       </c>
       <c r="J19">
-        <v>0.9127749800682068</v>
+        <v>0.9127500057220459</v>
       </c>
       <c r="K19">
-        <v>0.9154250025749208</v>
+        <v>0.9139249920845032</v>
       </c>
       <c r="L19">
-        <v>0.916575014591217</v>
+        <v>0.9163500070571899</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1186,34 +1177,34 @@
         <v>0.000699999975040555</v>
       </c>
       <c r="C20">
-        <v>0.8852999806404114</v>
+        <v>0.8849250078201294</v>
       </c>
       <c r="D20">
-        <v>0.8888499736785889</v>
+        <v>0.8891500234603882</v>
       </c>
       <c r="E20">
-        <v>0.890874981880188</v>
+        <v>0.8900499939918518</v>
       </c>
       <c r="F20">
-        <v>0.8965250253677368</v>
+        <v>0.8965499997138977</v>
       </c>
       <c r="G20">
-        <v>0.9010750055313108</v>
+        <v>0.9007499814033508</v>
       </c>
       <c r="H20">
-        <v>0.9051749706268308</v>
+        <v>0.9049749970436096</v>
       </c>
       <c r="I20">
-        <v>0.9081500172615052</v>
+        <v>0.9087499976158142</v>
       </c>
       <c r="J20">
-        <v>0.9127500057220459</v>
+        <v>0.9118750095367432</v>
       </c>
       <c r="K20">
-        <v>0.9139249920845032</v>
+        <v>0.9139999747276306</v>
       </c>
       <c r="L20">
-        <v>0.9163500070571899</v>
+        <v>0.9163249731063844</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1224,34 +1215,34 @@
         <v>0.000699999975040555</v>
       </c>
       <c r="C21">
-        <v>0.8849250078201294</v>
+        <v>0.8867499828338623</v>
       </c>
       <c r="D21">
-        <v>0.8891500234603882</v>
+        <v>0.8895249962806702</v>
       </c>
       <c r="E21">
-        <v>0.8900499939918518</v>
+        <v>0.8915500044822693</v>
       </c>
       <c r="F21">
-        <v>0.8965499997138977</v>
+        <v>0.8973000049591064</v>
       </c>
       <c r="G21">
-        <v>0.9007499814033508</v>
+        <v>0.9012749791145324</v>
       </c>
       <c r="H21">
-        <v>0.9049749970436096</v>
+        <v>0.9046249985694884</v>
       </c>
       <c r="I21">
-        <v>0.9087499976158142</v>
+        <v>0.9097999930381776</v>
       </c>
       <c r="J21">
-        <v>0.9118750095367432</v>
+        <v>0.9125750064849854</v>
       </c>
       <c r="K21">
-        <v>0.9139999747276306</v>
+        <v>0.9141499996185304</v>
       </c>
       <c r="L21">
-        <v>0.9163249731063844</v>
+        <v>0.9172000288963318</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1262,34 +1253,34 @@
         <v>0.000699999975040555</v>
       </c>
       <c r="C22">
-        <v>0.8867499828338623</v>
+        <v>0.8845750093460083</v>
       </c>
       <c r="D22">
-        <v>0.8895249962806702</v>
+        <v>0.8900250196456909</v>
       </c>
       <c r="E22">
-        <v>0.8915500044822693</v>
+        <v>0.8912749886512756</v>
       </c>
       <c r="F22">
-        <v>0.8973000049591064</v>
+        <v>0.8955000042915344</v>
       </c>
       <c r="G22">
-        <v>0.9012749791145324</v>
+        <v>0.9003499746322632</v>
       </c>
       <c r="H22">
-        <v>0.9046249985694884</v>
+        <v>0.9045000076293944</v>
       </c>
       <c r="I22">
-        <v>0.9097999930381776</v>
+        <v>0.9103999733924866</v>
       </c>
       <c r="J22">
-        <v>0.9125750064849854</v>
+        <v>0.9128000140190125</v>
       </c>
       <c r="K22">
-        <v>0.9141499996185304</v>
+        <v>0.9153249859809875</v>
       </c>
       <c r="L22">
-        <v>0.9172000288963318</v>
+        <v>0.9176999926567078</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1300,147 +1291,33 @@
         <v>0.000699999975040555</v>
       </c>
       <c r="C23">
-        <v>0.8857499957084656</v>
+        <v>0.8876500129699707</v>
       </c>
       <c r="D23">
-        <v>0.9000499844551086</v>
+        <v>0.903249979019165</v>
       </c>
       <c r="E23">
-        <v>0.9180499911308287</v>
+        <v>0.9221000075340272</v>
       </c>
       <c r="F23">
-        <v>0.9320250153541564</v>
+        <v>0.940400004386902</v>
       </c>
       <c r="G23">
-        <v>0.9466249942779541</v>
+        <v>0.9546999931335448</v>
       </c>
       <c r="H23">
-        <v>0.9586250185966492</v>
+        <v>0.963800013065338</v>
       </c>
       <c r="I23">
-        <v>0.9656249880790708</v>
+        <v>0.9691749811172484</v>
       </c>
       <c r="J23">
-        <v>0.9706249833106996</v>
+        <v>0.9732499718666076</v>
       </c>
       <c r="K23">
-        <v>0.974150002002716</v>
+        <v>0.9762499928474426</v>
       </c>
       <c r="L23">
-        <v>0.9766749739646912</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>0.000699999975040555</v>
-      </c>
-      <c r="C24">
-        <v>0.8845750093460083</v>
-      </c>
-      <c r="D24">
-        <v>0.8900250196456909</v>
-      </c>
-      <c r="E24">
-        <v>0.8912749886512756</v>
-      </c>
-      <c r="F24">
-        <v>0.8955000042915344</v>
-      </c>
-      <c r="G24">
-        <v>0.9003499746322632</v>
-      </c>
-      <c r="H24">
-        <v>0.9045000076293944</v>
-      </c>
-      <c r="I24">
-        <v>0.9103999733924866</v>
-      </c>
-      <c r="J24">
-        <v>0.9128000140190125</v>
-      </c>
-      <c r="K24">
-        <v>0.9153249859809875</v>
-      </c>
-      <c r="L24">
-        <v>0.9176999926567078</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>0.000699999975040555</v>
-      </c>
-      <c r="C25">
-        <v>0.8871250152587891</v>
-      </c>
-      <c r="D25">
-        <v>0.8970500230789185</v>
-      </c>
-      <c r="E25">
-        <v>0.9035750031471252</v>
-      </c>
-      <c r="F25">
-        <v>0.9099249839782716</v>
-      </c>
-      <c r="G25">
-        <v>0.9164999723434448</v>
-      </c>
-      <c r="H25">
-        <v>0.9232249855995178</v>
-      </c>
-      <c r="I25">
-        <v>0.9288750290870668</v>
-      </c>
-      <c r="J25">
-        <v>0.9351249933242798</v>
-      </c>
-      <c r="K25">
-        <v>0.9412500262260436</v>
-      </c>
-      <c r="L25">
-        <v>0.9456250071525574</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>0.000699999975040555</v>
-      </c>
-      <c r="C26">
-        <v>0.8876500129699707</v>
-      </c>
-      <c r="D26">
-        <v>0.903249979019165</v>
-      </c>
-      <c r="E26">
-        <v>0.9221000075340272</v>
-      </c>
-      <c r="F26">
-        <v>0.940400004386902</v>
-      </c>
-      <c r="G26">
-        <v>0.9546999931335448</v>
-      </c>
-      <c r="H26">
-        <v>0.963800013065338</v>
-      </c>
-      <c r="I26">
-        <v>0.9691749811172484</v>
-      </c>
-      <c r="J26">
-        <v>0.9732499718666076</v>
-      </c>
-      <c r="K26">
-        <v>0.9762499928474426</v>
-      </c>
-      <c r="L26">
         <v>0.9782500267028807</v>
       </c>
     </row>
@@ -1451,7 +1328,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1497,37 +1374,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.002624999964609742</v>
+        <v>0.001874999958090484</v>
       </c>
       <c r="C2">
-        <v>0.5737500190734863</v>
+        <v>0.5644999742507935</v>
       </c>
       <c r="D2">
-        <v>0.6315000057220459</v>
+        <v>0.5914999842643738</v>
       </c>
       <c r="E2">
-        <v>0.6625000238418579</v>
+        <v>0.6414999961853027</v>
       </c>
       <c r="F2">
-        <v>0.674875020980835</v>
+        <v>0.6498749852180481</v>
       </c>
       <c r="G2">
-        <v>0.7052500247955322</v>
+        <v>0.687874972820282</v>
       </c>
       <c r="H2">
-        <v>0.71875</v>
+        <v>0.7066249847412109</v>
       </c>
       <c r="I2">
-        <v>0.7351250052452087</v>
+        <v>0.7164999842643738</v>
       </c>
       <c r="J2">
-        <v>0.7524999976158142</v>
+        <v>0.7360000014305115</v>
       </c>
       <c r="K2">
+        <v>0.7375000119209291</v>
+      </c>
+      <c r="L2">
         <v>0.7580000162124634</v>
-      </c>
-      <c r="L2">
-        <v>0.778249979019165</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1538,34 +1415,34 @@
         <v>0.001874999958090484</v>
       </c>
       <c r="C3">
-        <v>0.5644999742507935</v>
+        <v>0.5487499833106995</v>
       </c>
       <c r="D3">
-        <v>0.5914999842643738</v>
+        <v>0.625249981880188</v>
       </c>
       <c r="E3">
-        <v>0.6414999961853027</v>
+        <v>0.6446250081062317</v>
       </c>
       <c r="F3">
-        <v>0.6498749852180481</v>
+        <v>0.6723750233650208</v>
       </c>
       <c r="G3">
-        <v>0.687874972820282</v>
+        <v>0.6916249990463257</v>
       </c>
       <c r="H3">
-        <v>0.7066249847412109</v>
+        <v>0.7116249799728394</v>
       </c>
       <c r="I3">
-        <v>0.7164999842643738</v>
+        <v>0.7383750081062317</v>
       </c>
       <c r="J3">
-        <v>0.7360000014305115</v>
+        <v>0.7603750228881836</v>
       </c>
       <c r="K3">
-        <v>0.7375000119209291</v>
+        <v>0.7723749876022339</v>
       </c>
       <c r="L3">
-        <v>0.7580000162124634</v>
+        <v>0.7876250147819519</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1573,37 +1450,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.001874999958090484</v>
+        <v>0.002624999964609742</v>
       </c>
       <c r="C4">
-        <v>0.5487499833106995</v>
+        <v>0.5801249742507935</v>
       </c>
       <c r="D4">
-        <v>0.625249981880188</v>
+        <v>0.6075000166893005</v>
       </c>
       <c r="E4">
-        <v>0.6446250081062317</v>
+        <v>0.6313750147819519</v>
       </c>
       <c r="F4">
-        <v>0.6723750233650208</v>
+        <v>0.643750011920929</v>
       </c>
       <c r="G4">
-        <v>0.6916249990463257</v>
+        <v>0.6639999747276306</v>
       </c>
       <c r="H4">
-        <v>0.7116249799728394</v>
+        <v>0.6907500028610229</v>
       </c>
       <c r="I4">
-        <v>0.7383750081062317</v>
+        <v>0.7042499780654907</v>
       </c>
       <c r="J4">
-        <v>0.7603750228881836</v>
+        <v>0.7319999933242798</v>
       </c>
       <c r="K4">
-        <v>0.7723749876022339</v>
+        <v>0.7577499747276306</v>
       </c>
       <c r="L4">
-        <v>0.7876250147819519</v>
+        <v>0.7820000052452087</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1614,34 +1491,34 @@
         <v>0.002624999964609742</v>
       </c>
       <c r="C5">
-        <v>0.5801249742507935</v>
+        <v>0.5572500228881836</v>
       </c>
       <c r="D5">
-        <v>0.6075000166893005</v>
+        <v>0.5978749990463257</v>
       </c>
       <c r="E5">
-        <v>0.6313750147819519</v>
+        <v>0.6146249771118164</v>
       </c>
       <c r="F5">
-        <v>0.643750011920929</v>
+        <v>0.6242499947547913</v>
       </c>
       <c r="G5">
-        <v>0.6639999747276306</v>
+        <v>0.6395000219345093</v>
       </c>
       <c r="H5">
-        <v>0.6907500028610229</v>
+        <v>0.6556249856948853</v>
       </c>
       <c r="I5">
-        <v>0.7042499780654907</v>
+        <v>0.656125009059906</v>
       </c>
       <c r="J5">
-        <v>0.7319999933242798</v>
+        <v>0.6855000257492065</v>
       </c>
       <c r="K5">
-        <v>0.7577499747276306</v>
+        <v>0.7007499933242798</v>
       </c>
       <c r="L5">
-        <v>0.7820000052452087</v>
+        <v>0.7009999752044678</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1652,34 +1529,34 @@
         <v>0.002624999964609742</v>
       </c>
       <c r="C6">
-        <v>0.5572500228881836</v>
+        <v>0.5608749985694885</v>
       </c>
       <c r="D6">
-        <v>0.5978749990463257</v>
+        <v>0.5964999794960022</v>
       </c>
       <c r="E6">
-        <v>0.6146249771118164</v>
+        <v>0.6171249747276306</v>
       </c>
       <c r="F6">
-        <v>0.6242499947547913</v>
+        <v>0.6355000138282776</v>
       </c>
       <c r="G6">
-        <v>0.6395000219345093</v>
+        <v>0.6567500233650208</v>
       </c>
       <c r="H6">
-        <v>0.6556249856948853</v>
+        <v>0.6866250038146973</v>
       </c>
       <c r="I6">
-        <v>0.656125009059906</v>
+        <v>0.7118750214576721</v>
       </c>
       <c r="J6">
-        <v>0.6855000257492065</v>
+        <v>0.7440000176429749</v>
       </c>
       <c r="K6">
-        <v>0.7007499933242798</v>
+        <v>0.7521250247955322</v>
       </c>
       <c r="L6">
-        <v>0.7009999752044678</v>
+        <v>0.781624972820282</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1690,34 +1567,34 @@
         <v>0.002624999964609742</v>
       </c>
       <c r="C7">
-        <v>0.5608749985694885</v>
+        <v>0.5370000004768372</v>
       </c>
       <c r="D7">
-        <v>0.5964999794960022</v>
+        <v>0.5872499942779541</v>
       </c>
       <c r="E7">
-        <v>0.6171249747276306</v>
+        <v>0.6157500147819519</v>
       </c>
       <c r="F7">
-        <v>0.6355000138282776</v>
+        <v>0.6387500166893005</v>
       </c>
       <c r="G7">
-        <v>0.6567500233650208</v>
+        <v>0.6621249914169312</v>
       </c>
       <c r="H7">
-        <v>0.6866250038146973</v>
+        <v>0.6653749942779541</v>
       </c>
       <c r="I7">
-        <v>0.7118750214576721</v>
+        <v>0.6933749914169312</v>
       </c>
       <c r="J7">
-        <v>0.7440000176429749</v>
+        <v>0.7133749723434448</v>
       </c>
       <c r="K7">
-        <v>0.7521250247955322</v>
+        <v>0.7413750290870667</v>
       </c>
       <c r="L7">
-        <v>0.781624972820282</v>
+        <v>0.7506250143051147</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1728,34 +1605,34 @@
         <v>0.002624999964609742</v>
       </c>
       <c r="C8">
-        <v>0.5370000004768372</v>
+        <v>0.5496249794960022</v>
       </c>
       <c r="D8">
-        <v>0.5872499942779541</v>
+        <v>0.5991250276565552</v>
       </c>
       <c r="E8">
-        <v>0.6157500147819519</v>
+        <v>0.624875009059906</v>
       </c>
       <c r="F8">
-        <v>0.6387500166893005</v>
+        <v>0.6332499980926514</v>
       </c>
       <c r="G8">
-        <v>0.6621249914169312</v>
+        <v>0.6642500162124634</v>
       </c>
       <c r="H8">
-        <v>0.6653749942779541</v>
+        <v>0.6908749938011169</v>
       </c>
       <c r="I8">
-        <v>0.6933749914169312</v>
+        <v>0.7174999713897705</v>
       </c>
       <c r="J8">
-        <v>0.7133749723434448</v>
+        <v>0.7484999895095825</v>
       </c>
       <c r="K8">
-        <v>0.7413750290870667</v>
+        <v>0.7536249756813049</v>
       </c>
       <c r="L8">
-        <v>0.7506250143051147</v>
+        <v>0.7697499990463257</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1766,34 +1643,34 @@
         <v>0.002624999964609742</v>
       </c>
       <c r="C9">
-        <v>0.5496249794960022</v>
+        <v>0.5452499985694885</v>
       </c>
       <c r="D9">
-        <v>0.5991250276565552</v>
+        <v>0.5883749723434448</v>
       </c>
       <c r="E9">
-        <v>0.624875009059906</v>
+        <v>0.6198750138282776</v>
       </c>
       <c r="F9">
-        <v>0.6332499980926514</v>
+        <v>0.6418750286102295</v>
       </c>
       <c r="G9">
-        <v>0.6642500162124634</v>
+        <v>0.6816250085830688</v>
       </c>
       <c r="H9">
-        <v>0.6908749938011169</v>
+        <v>0.7041249871253967</v>
       </c>
       <c r="I9">
-        <v>0.7174999713897705</v>
+        <v>0.7248749732971191</v>
       </c>
       <c r="J9">
-        <v>0.7484999895095825</v>
+        <v>0.7453749775886536</v>
       </c>
       <c r="K9">
-        <v>0.7536249756813049</v>
+        <v>0.7681249976158142</v>
       </c>
       <c r="L9">
-        <v>0.7697499990463257</v>
+        <v>0.7853749990463257</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1804,34 +1681,34 @@
         <v>0.002624999964609742</v>
       </c>
       <c r="C10">
-        <v>0.5452499985694885</v>
+        <v>0.5817499756813049</v>
       </c>
       <c r="D10">
-        <v>0.5883749723434448</v>
+        <v>0.6268749833106995</v>
       </c>
       <c r="E10">
-        <v>0.6198750138282776</v>
+        <v>0.6449999809265137</v>
       </c>
       <c r="F10">
-        <v>0.6418750286102295</v>
+        <v>0.6661249995231628</v>
       </c>
       <c r="G10">
-        <v>0.6816250085830688</v>
+        <v>0.6736249923706055</v>
       </c>
       <c r="H10">
-        <v>0.7041249871253967</v>
+        <v>0.6949999928474426</v>
       </c>
       <c r="I10">
-        <v>0.7248749732971191</v>
+        <v>0.7171249985694885</v>
       </c>
       <c r="J10">
-        <v>0.7453749775886536</v>
+        <v>0.7455000281333923</v>
       </c>
       <c r="K10">
-        <v>0.7681249976158142</v>
+        <v>0.7446249723434448</v>
       </c>
       <c r="L10">
-        <v>0.7853749990463257</v>
+        <v>0.7615000009536743</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1842,34 +1719,34 @@
         <v>0.002624999964609742</v>
       </c>
       <c r="C11">
-        <v>0.5817499756813049</v>
+        <v>0.5762500166893005</v>
       </c>
       <c r="D11">
-        <v>0.6268749833106995</v>
+        <v>0.5903750061988831</v>
       </c>
       <c r="E11">
-        <v>0.6449999809265137</v>
+        <v>0.6348749995231628</v>
       </c>
       <c r="F11">
-        <v>0.6661249995231628</v>
+        <v>0.6031249761581421</v>
       </c>
       <c r="G11">
-        <v>0.6736249923706055</v>
+        <v>0.7072499990463257</v>
       </c>
       <c r="H11">
-        <v>0.6949999928474426</v>
+        <v>0.7138749957084656</v>
       </c>
       <c r="I11">
-        <v>0.7171249985694885</v>
+        <v>0.7509999871253967</v>
       </c>
       <c r="J11">
-        <v>0.7455000281333923</v>
+        <v>0.7727500200271606</v>
       </c>
       <c r="K11">
-        <v>0.7446249723434448</v>
+        <v>0.7766249775886536</v>
       </c>
       <c r="L11">
-        <v>0.7615000009536743</v>
+        <v>0.7896249890327454</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1880,34 +1757,34 @@
         <v>0.002624999964609742</v>
       </c>
       <c r="C12">
-        <v>0.5762500166893005</v>
+        <v>0.6039999723434448</v>
       </c>
       <c r="D12">
-        <v>0.5903750061988831</v>
+        <v>0.6272500157356262</v>
       </c>
       <c r="E12">
-        <v>0.6348749995231628</v>
+        <v>0.6496250033378601</v>
       </c>
       <c r="F12">
-        <v>0.6031249761581421</v>
+        <v>0.6696249842643738</v>
       </c>
       <c r="G12">
-        <v>0.7072499990463257</v>
+        <v>0.6841250061988831</v>
       </c>
       <c r="H12">
-        <v>0.7138749957084656</v>
+        <v>0.7011250257492065</v>
       </c>
       <c r="I12">
-        <v>0.7509999871253967</v>
+        <v>0.7267500162124634</v>
       </c>
       <c r="J12">
-        <v>0.7727500200271606</v>
+        <v>0.7461249828338623</v>
       </c>
       <c r="K12">
-        <v>0.7766249775886536</v>
+        <v>0.7563750147819519</v>
       </c>
       <c r="L12">
-        <v>0.7896249890327454</v>
+        <v>0.7802500128746033</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1918,34 +1795,34 @@
         <v>0.002624999964609742</v>
       </c>
       <c r="C13">
-        <v>0.6039999723434448</v>
+        <v>0.581125020980835</v>
       </c>
       <c r="D13">
-        <v>0.6272500157356262</v>
+        <v>0.6085000038146973</v>
       </c>
       <c r="E13">
-        <v>0.6496250033378601</v>
+        <v>0.6194999814033508</v>
       </c>
       <c r="F13">
-        <v>0.6696249842643738</v>
+        <v>0.6337500214576721</v>
       </c>
       <c r="G13">
-        <v>0.6841250061988831</v>
+        <v>0.6528750061988831</v>
       </c>
       <c r="H13">
-        <v>0.7011250257492065</v>
+        <v>0.6726250052452087</v>
       </c>
       <c r="I13">
-        <v>0.7267500162124634</v>
+        <v>0.7181249856948853</v>
       </c>
       <c r="J13">
-        <v>0.7461249828338623</v>
+        <v>0.7429999709129333</v>
       </c>
       <c r="K13">
-        <v>0.7563750147819519</v>
+        <v>0.7538750171661377</v>
       </c>
       <c r="L13">
-        <v>0.7802500128746033</v>
+        <v>0.7673749923706055</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1956,34 +1833,34 @@
         <v>0.002624999964609742</v>
       </c>
       <c r="C14">
-        <v>0.581125020980835</v>
+        <v>0.5668749809265137</v>
       </c>
       <c r="D14">
-        <v>0.6085000038146973</v>
+        <v>0.6083750128746033</v>
       </c>
       <c r="E14">
-        <v>0.6194999814033508</v>
+        <v>0.6193749904632568</v>
       </c>
       <c r="F14">
-        <v>0.6337500214576721</v>
+        <v>0.6636250019073486</v>
       </c>
       <c r="G14">
-        <v>0.6528750061988831</v>
+        <v>0.6834999918937683</v>
       </c>
       <c r="H14">
-        <v>0.6726250052452087</v>
+        <v>0.6908749938011169</v>
       </c>
       <c r="I14">
-        <v>0.7181249856948853</v>
+        <v>0.7168750166893005</v>
       </c>
       <c r="J14">
-        <v>0.7429999709129333</v>
+        <v>0.7371249794960022</v>
       </c>
       <c r="K14">
-        <v>0.7538750171661377</v>
+        <v>0.7536249756813049</v>
       </c>
       <c r="L14">
-        <v>0.7673749923706055</v>
+        <v>0.7703750133514404</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1994,34 +1871,34 @@
         <v>0.002624999964609742</v>
       </c>
       <c r="C15">
-        <v>0.5668749809265137</v>
+        <v>0.5791249871253967</v>
       </c>
       <c r="D15">
-        <v>0.6083750128746033</v>
+        <v>0.5978749990463257</v>
       </c>
       <c r="E15">
-        <v>0.6193749904632568</v>
+        <v>0.6158750057220459</v>
       </c>
       <c r="F15">
-        <v>0.6636250019073486</v>
+        <v>0.6686249971389771</v>
       </c>
       <c r="G15">
-        <v>0.6834999918937683</v>
+        <v>0.7227500081062317</v>
       </c>
       <c r="H15">
-        <v>0.6908749938011169</v>
+        <v>0.7342500090599059</v>
       </c>
       <c r="I15">
-        <v>0.7168750166893005</v>
+        <v>0.7475000023841858</v>
       </c>
       <c r="J15">
-        <v>0.7371249794960022</v>
+        <v>0.7631250023841858</v>
       </c>
       <c r="K15">
-        <v>0.7536249756813049</v>
+        <v>0.7826250195503235</v>
       </c>
       <c r="L15">
-        <v>0.7703750133514404</v>
+        <v>0.7929999828338623</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2032,34 +1909,34 @@
         <v>0.002624999964609742</v>
       </c>
       <c r="C16">
-        <v>0.5791249871253967</v>
+        <v>0.1000000014901161</v>
       </c>
       <c r="D16">
-        <v>0.5978749990463257</v>
+        <v>0.1000000014901161</v>
       </c>
       <c r="E16">
-        <v>0.6158750057220459</v>
+        <v>0.1000000014901161</v>
       </c>
       <c r="F16">
-        <v>0.6686249971389771</v>
+        <v>0.1000000014901161</v>
       </c>
       <c r="G16">
-        <v>0.7227500081062317</v>
+        <v>0.1000000014901161</v>
       </c>
       <c r="H16">
-        <v>0.7342500090599059</v>
+        <v>0.1000000014901161</v>
       </c>
       <c r="I16">
-        <v>0.7475000023841858</v>
+        <v>0.1000000014901161</v>
       </c>
       <c r="J16">
-        <v>0.7631250023841858</v>
+        <v>0.1000000014901161</v>
       </c>
       <c r="K16">
-        <v>0.7826250195503235</v>
+        <v>0.1000000014901161</v>
       </c>
       <c r="L16">
-        <v>0.7929999828338623</v>
+        <v>0.1000000014901161</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2070,34 +1947,34 @@
         <v>0.002624999964609742</v>
       </c>
       <c r="C17">
-        <v>0.1000000014901161</v>
+        <v>0.547124981880188</v>
       </c>
       <c r="D17">
-        <v>0.1000000014901161</v>
+        <v>0.6087499856948853</v>
       </c>
       <c r="E17">
-        <v>0.1000000014901161</v>
+        <v>0.6481249928474426</v>
       </c>
       <c r="F17">
-        <v>0.1000000014901161</v>
+        <v>0.6702499985694885</v>
       </c>
       <c r="G17">
-        <v>0.1000000014901161</v>
+        <v>0.6946250200271606</v>
       </c>
       <c r="H17">
-        <v>0.1000000014901161</v>
+        <v>0.7247499823570251</v>
       </c>
       <c r="I17">
-        <v>0.1000000014901161</v>
+        <v>0.7322499752044678</v>
       </c>
       <c r="J17">
-        <v>0.1000000014901161</v>
+        <v>0.7467499971389771</v>
       </c>
       <c r="K17">
-        <v>0.1000000014901161</v>
+        <v>0.7649999856948853</v>
       </c>
       <c r="L17">
-        <v>0.1000000014901161</v>
+        <v>0.7908750176429749</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2108,34 +1985,34 @@
         <v>0.002624999964609742</v>
       </c>
       <c r="C18">
-        <v>0.547124981880188</v>
+        <v>0.5943750143051147</v>
       </c>
       <c r="D18">
-        <v>0.6087499856948853</v>
+        <v>0.6297500133514404</v>
       </c>
       <c r="E18">
-        <v>0.6481249928474426</v>
+        <v>0.6518750190734863</v>
       </c>
       <c r="F18">
-        <v>0.6702499985694885</v>
+        <v>0.6725000143051147</v>
       </c>
       <c r="G18">
-        <v>0.6946250200271606</v>
+        <v>0.6977499723434448</v>
       </c>
       <c r="H18">
-        <v>0.7247499823570251</v>
+        <v>0.7092499732971191</v>
       </c>
       <c r="I18">
-        <v>0.7322499752044678</v>
+        <v>0.7307500243186951</v>
       </c>
       <c r="J18">
-        <v>0.7467499971389771</v>
+        <v>0.7523750066757202</v>
       </c>
       <c r="K18">
-        <v>0.7649999856948853</v>
+        <v>0.7802500128746033</v>
       </c>
       <c r="L18">
-        <v>0.7908750176429749</v>
+        <v>0.796500027179718</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2146,34 +2023,34 @@
         <v>0.002624999964609742</v>
       </c>
       <c r="C19">
-        <v>0.5943750143051147</v>
+        <v>0.5674999952316284</v>
       </c>
       <c r="D19">
-        <v>0.6297500133514404</v>
+        <v>0.621999979019165</v>
       </c>
       <c r="E19">
-        <v>0.6518750190734863</v>
+        <v>0.6449999809265137</v>
       </c>
       <c r="F19">
-        <v>0.6725000143051147</v>
+        <v>0.6735000014305115</v>
       </c>
       <c r="G19">
-        <v>0.6977499723434448</v>
+        <v>0.6926249861717224</v>
       </c>
       <c r="H19">
-        <v>0.7092499732971191</v>
+        <v>0.7139999866485596</v>
       </c>
       <c r="I19">
-        <v>0.7307500243186951</v>
+        <v>0.7344999909400941</v>
       </c>
       <c r="J19">
         <v>0.7523750066757202</v>
       </c>
       <c r="K19">
-        <v>0.7802500128746033</v>
+        <v>0.7723749876022339</v>
       </c>
       <c r="L19">
-        <v>0.796500027179718</v>
+        <v>0.7831249833106995</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2184,34 +2061,34 @@
         <v>0.002624999964609742</v>
       </c>
       <c r="C20">
-        <v>0.5674999952316284</v>
+        <v>0.5722500085830688</v>
       </c>
       <c r="D20">
-        <v>0.621999979019165</v>
+        <v>0.5962499976158142</v>
       </c>
       <c r="E20">
-        <v>0.6449999809265137</v>
+        <v>0.6228749752044678</v>
       </c>
       <c r="F20">
-        <v>0.6735000014305115</v>
+        <v>0.6553750038146973</v>
       </c>
       <c r="G20">
-        <v>0.6926249861717224</v>
+        <v>0.6890000104904175</v>
       </c>
       <c r="H20">
-        <v>0.7139999866485596</v>
+        <v>0.7067499756813049</v>
       </c>
       <c r="I20">
-        <v>0.7344999909400941</v>
+        <v>0.7308750152587891</v>
       </c>
       <c r="J20">
-        <v>0.7523750066757202</v>
+        <v>0.7462499737739563</v>
       </c>
       <c r="K20">
-        <v>0.7723749876022339</v>
+        <v>0.7684999704360962</v>
       </c>
       <c r="L20">
-        <v>0.7831249833106995</v>
+        <v>0.7906249761581421</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2222,147 +2099,71 @@
         <v>0.002624999964609742</v>
       </c>
       <c r="C21">
-        <v>0.5722500085830688</v>
+        <v>0.5486249923706055</v>
       </c>
       <c r="D21">
-        <v>0.5962499976158142</v>
+        <v>0.5950000286102295</v>
       </c>
       <c r="E21">
-        <v>0.6228749752044678</v>
+        <v>0.6176249980926514</v>
       </c>
       <c r="F21">
-        <v>0.6553750038146973</v>
+        <v>0.6600000262260437</v>
       </c>
       <c r="G21">
-        <v>0.6890000104904175</v>
+        <v>0.6830000281333923</v>
       </c>
       <c r="H21">
-        <v>0.7067499756813049</v>
+        <v>0.703000009059906</v>
       </c>
       <c r="I21">
-        <v>0.7308750152587891</v>
+        <v>0.7608749866485596</v>
       </c>
       <c r="J21">
-        <v>0.7462499737739563</v>
+        <v>0.7927500009536743</v>
       </c>
       <c r="K21">
-        <v>0.7684999704360962</v>
+        <v>0.7996249794960022</v>
       </c>
       <c r="L21">
-        <v>0.7906249761581421</v>
+        <v>0.8102499842643738</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>0.002624999964609742</v>
+        <v>0.001874999958090484</v>
       </c>
       <c r="C22">
-        <v>0.5486249923706055</v>
+        <v>0.5856249928474426</v>
       </c>
       <c r="D22">
-        <v>0.5950000286102295</v>
+        <v>0.6317499876022339</v>
       </c>
       <c r="E22">
-        <v>0.6176249980926514</v>
+        <v>0.6611250042915344</v>
       </c>
       <c r="F22">
-        <v>0.6600000262260437</v>
+        <v>0.7206249833106995</v>
       </c>
       <c r="G22">
-        <v>0.6830000281333923</v>
+        <v>0.7749999761581421</v>
       </c>
       <c r="H22">
-        <v>0.703000009059906</v>
+        <v>0.8108749985694885</v>
       </c>
       <c r="I22">
-        <v>0.7608749866485596</v>
+        <v>0.8543750047683716</v>
       </c>
       <c r="J22">
-        <v>0.7927500009536743</v>
+        <v>0.8837500214576721</v>
       </c>
       <c r="K22">
-        <v>0.7996249794960022</v>
+        <v>0.9104999899864196</v>
       </c>
       <c r="L22">
-        <v>0.8102499842643738</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>0.002624999964609742</v>
-      </c>
-      <c r="C23">
-        <v>0.5649999976158142</v>
-      </c>
-      <c r="D23">
-        <v>0.5891249775886536</v>
-      </c>
-      <c r="E23">
-        <v>0.6332499980926514</v>
-      </c>
-      <c r="F23">
-        <v>0.6807500123977661</v>
-      </c>
-      <c r="G23">
-        <v>0.7391250133514404</v>
-      </c>
-      <c r="H23">
-        <v>0.7852500081062317</v>
-      </c>
-      <c r="I23">
-        <v>0.8308749794960022</v>
-      </c>
-      <c r="J23">
-        <v>0.8679999709129333</v>
-      </c>
-      <c r="K23">
-        <v>0.9093750119209292</v>
-      </c>
-      <c r="L23">
-        <v>0.9327499866485596</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24">
-        <v>0.001874999958090484</v>
-      </c>
-      <c r="C24">
-        <v>0.5856249928474426</v>
-      </c>
-      <c r="D24">
-        <v>0.6317499876022339</v>
-      </c>
-      <c r="E24">
-        <v>0.6611250042915344</v>
-      </c>
-      <c r="F24">
-        <v>0.7206249833106995</v>
-      </c>
-      <c r="G24">
-        <v>0.7749999761581421</v>
-      </c>
-      <c r="H24">
-        <v>0.8108749985694885</v>
-      </c>
-      <c r="I24">
-        <v>0.8543750047683716</v>
-      </c>
-      <c r="J24">
-        <v>0.8837500214576721</v>
-      </c>
-      <c r="K24">
-        <v>0.9104999899864196</v>
-      </c>
-      <c r="L24">
         <v>0.9283750057220459</v>
       </c>
     </row>
@@ -2373,7 +2174,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2422,34 +2223,34 @@
         <v>0.00210042018443346</v>
       </c>
       <c r="C2">
-        <v>0.6909632086753845</v>
+        <v>0.5584366917610168</v>
       </c>
       <c r="D2">
-        <v>0.7439988255500793</v>
+        <v>0.5910181999206543</v>
       </c>
       <c r="E2">
-        <v>0.782181441783905</v>
+        <v>0.6079216003417969</v>
       </c>
       <c r="F2">
-        <v>0.7959591746330261</v>
+        <v>0.6643078327178955</v>
       </c>
       <c r="G2">
-        <v>0.8107621669769287</v>
+        <v>0.6941388249397278</v>
       </c>
       <c r="H2">
-        <v>0.8234646916389465</v>
+        <v>0.7297209501266479</v>
       </c>
       <c r="I2">
-        <v>0.8399429917335509</v>
+        <v>0.7482496500015259</v>
       </c>
       <c r="J2">
-        <v>0.844793975353241</v>
+        <v>0.775580108165741</v>
       </c>
       <c r="K2">
-        <v>0.8480195999145508</v>
+        <v>0.7958841919898987</v>
       </c>
       <c r="L2">
-        <v>0.8622474670410156</v>
+        <v>0.7739548087120056</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2460,34 +2261,34 @@
         <v>0.00210042018443346</v>
       </c>
       <c r="C3">
-        <v>0.5584366917610168</v>
+        <v>0.6946889162063599</v>
       </c>
       <c r="D3">
-        <v>0.5910181999206543</v>
+        <v>0.6329516172409058</v>
       </c>
       <c r="E3">
-        <v>0.6079216003417969</v>
+        <v>0.670859158039093</v>
       </c>
       <c r="F3">
-        <v>0.6643078327178955</v>
+        <v>0.6794359087944031</v>
       </c>
       <c r="G3">
-        <v>0.6941388249397278</v>
+        <v>0.7003650665283203</v>
       </c>
       <c r="H3">
-        <v>0.7297209501266479</v>
+        <v>0.728620707988739</v>
       </c>
       <c r="I3">
-        <v>0.7482496500015259</v>
+        <v>0.7501750588417053</v>
       </c>
       <c r="J3">
-        <v>0.775580108165741</v>
+        <v>0.7936587333679199</v>
       </c>
       <c r="K3">
-        <v>0.7958841919898987</v>
+        <v>0.8032606244087219</v>
       </c>
       <c r="L3">
-        <v>0.7739548087120056</v>
+        <v>0.8188387751579285</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2498,34 +2299,34 @@
         <v>0.00210042018443346</v>
       </c>
       <c r="C4">
-        <v>0.6946889162063599</v>
+        <v>0.5288057327270508</v>
       </c>
       <c r="D4">
-        <v>0.6329516172409058</v>
+        <v>0.5828165411949158</v>
       </c>
       <c r="E4">
-        <v>0.670859158039093</v>
+        <v>0.6418033838272095</v>
       </c>
       <c r="F4">
-        <v>0.6794359087944031</v>
+        <v>0.6506301164627075</v>
       </c>
       <c r="G4">
-        <v>0.7003650665283203</v>
+        <v>0.6964142918586731</v>
       </c>
       <c r="H4">
-        <v>0.728620707988739</v>
+        <v>0.6859371662139893</v>
       </c>
       <c r="I4">
-        <v>0.7501750588417053</v>
+        <v>0.7515503168106079</v>
       </c>
       <c r="J4">
-        <v>0.7936587333679199</v>
+        <v>0.7736797332763672</v>
       </c>
       <c r="K4">
-        <v>0.8032606244087219</v>
+        <v>0.7595518827438354</v>
       </c>
       <c r="L4">
-        <v>0.8188387751579285</v>
+        <v>0.775580108165741</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2536,34 +2337,34 @@
         <v>0.00210042018443346</v>
       </c>
       <c r="C5">
-        <v>0.5288057327270508</v>
+        <v>0.6155731081962585</v>
       </c>
       <c r="D5">
-        <v>0.5828165411949158</v>
+        <v>0.6546809077262878</v>
       </c>
       <c r="E5">
-        <v>0.6418033838272095</v>
+        <v>0.7145929336547852</v>
       </c>
       <c r="F5">
-        <v>0.6506301164627075</v>
+        <v>0.6881126165390015</v>
       </c>
       <c r="G5">
-        <v>0.6964142918586731</v>
+        <v>0.7142928838729858</v>
       </c>
       <c r="H5">
-        <v>0.6859371662139893</v>
+        <v>0.7466743588447571</v>
       </c>
       <c r="I5">
-        <v>0.7515503168106079</v>
+        <v>0.74724942445755</v>
       </c>
       <c r="J5">
-        <v>0.7736797332763672</v>
+        <v>0.7747799754142761</v>
       </c>
       <c r="K5">
-        <v>0.7595518827438354</v>
+        <v>0.7973344922065735</v>
       </c>
       <c r="L5">
-        <v>0.775580108165741</v>
+        <v>0.8074114918708801</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2574,34 +2375,34 @@
         <v>0.00210042018443346</v>
       </c>
       <c r="C6">
-        <v>0.6155731081962585</v>
+        <v>0.5065013170242311</v>
       </c>
       <c r="D6">
-        <v>0.6546809077262878</v>
+        <v>0.5951940417289734</v>
       </c>
       <c r="E6">
-        <v>0.7145929336547852</v>
+        <v>0.6520053744316101</v>
       </c>
       <c r="F6">
-        <v>0.6881126165390015</v>
+        <v>0.645729124546051</v>
       </c>
       <c r="G6">
-        <v>0.7142928838729858</v>
+        <v>0.7115923166275024</v>
       </c>
       <c r="H6">
-        <v>0.7466743588447571</v>
+        <v>0.6937887668609619</v>
       </c>
       <c r="I6">
-        <v>0.74724942445755</v>
+        <v>0.7526004910469055</v>
       </c>
       <c r="J6">
-        <v>0.7747799754142761</v>
+        <v>0.7618523836135864</v>
       </c>
       <c r="K6">
-        <v>0.7973344922065735</v>
+        <v>0.7724545001983643</v>
       </c>
       <c r="L6">
-        <v>0.8074114918708801</v>
+        <v>0.773154616355896</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2612,34 +2413,34 @@
         <v>0.00210042018443346</v>
       </c>
       <c r="C7">
-        <v>0.5065013170242311</v>
+        <v>0.6625325083732605</v>
       </c>
       <c r="D7">
-        <v>0.5951940417289734</v>
+        <v>0.6516303420066833</v>
       </c>
       <c r="E7">
-        <v>0.6520053744316101</v>
+        <v>0.6428785920143127</v>
       </c>
       <c r="F7">
-        <v>0.645729124546051</v>
+        <v>0.6589818000793457</v>
       </c>
       <c r="G7">
-        <v>0.7115923166275024</v>
+        <v>0.7082916498184204</v>
       </c>
       <c r="H7">
-        <v>0.6937887668609619</v>
+        <v>0.7171184420585632</v>
       </c>
       <c r="I7">
-        <v>0.7526004910469055</v>
+        <v>0.7582516670227051</v>
       </c>
       <c r="J7">
-        <v>0.7618523836135864</v>
+        <v>0.7888827919960022</v>
       </c>
       <c r="K7">
-        <v>0.7724545001983643</v>
+        <v>0.7982346415519714</v>
       </c>
       <c r="L7">
-        <v>0.773154616355896</v>
+        <v>0.8123124837875366</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2650,34 +2451,34 @@
         <v>0.00210042018443346</v>
       </c>
       <c r="C8">
-        <v>0.6625325083732605</v>
+        <v>0.5769153833389282</v>
       </c>
       <c r="D8">
-        <v>0.6516303420066833</v>
+        <v>0.5816913247108461</v>
       </c>
       <c r="E8">
-        <v>0.6428785920143127</v>
+        <v>0.6159982085227966</v>
       </c>
       <c r="F8">
-        <v>0.6589818000793457</v>
+        <v>0.6672084331512451</v>
       </c>
       <c r="G8">
-        <v>0.7082916498184204</v>
+        <v>0.695989191532135</v>
       </c>
       <c r="H8">
-        <v>0.7171184420585632</v>
+        <v>0.7234447002410889</v>
       </c>
       <c r="I8">
-        <v>0.7582516670227051</v>
+        <v>0.7525755167007446</v>
       </c>
       <c r="J8">
-        <v>0.7888827919960022</v>
+        <v>0.7803810834884644</v>
       </c>
       <c r="K8">
-        <v>0.7982346415519714</v>
+        <v>0.7833316922187805</v>
       </c>
       <c r="L8">
-        <v>0.8123124837875366</v>
+        <v>0.7995849251747131</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2688,34 +2489,34 @@
         <v>0.00210042018443346</v>
       </c>
       <c r="C9">
-        <v>0.5769153833389282</v>
+        <v>0.58409184217453</v>
       </c>
       <c r="D9">
-        <v>0.5816913247108461</v>
+        <v>0.6534556746482849</v>
       </c>
       <c r="E9">
-        <v>0.6159982085227966</v>
+        <v>0.6648829579353333</v>
       </c>
       <c r="F9">
-        <v>0.6672084331512451</v>
+        <v>0.6820114254951477</v>
       </c>
       <c r="G9">
-        <v>0.695989191532135</v>
+        <v>0.7007151246070862</v>
       </c>
       <c r="H9">
-        <v>0.7234447002410889</v>
+        <v>0.6868123412132263</v>
       </c>
       <c r="I9">
-        <v>0.7525755167007446</v>
+        <v>0.7364472746849059</v>
       </c>
       <c r="J9">
-        <v>0.7803810834884644</v>
+        <v>0.7849820256233215</v>
       </c>
       <c r="K9">
-        <v>0.7833316922187805</v>
+        <v>0.8041108250617981</v>
       </c>
       <c r="L9">
-        <v>0.7995849251747131</v>
+        <v>0.8113372921943665</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2726,34 +2527,34 @@
         <v>0.00210042018443346</v>
       </c>
       <c r="C10">
-        <v>0.58409184217453</v>
+        <v>0.5661382079124451</v>
       </c>
       <c r="D10">
-        <v>0.6534556746482849</v>
+        <v>0.5845919251441956</v>
       </c>
       <c r="E10">
-        <v>0.6648829579353333</v>
+        <v>0.6249749660491943</v>
       </c>
       <c r="F10">
-        <v>0.6820114254951477</v>
+        <v>0.6739597916603088</v>
       </c>
       <c r="G10">
-        <v>0.7007151246070862</v>
+        <v>0.7118423581123352</v>
       </c>
       <c r="H10">
-        <v>0.6868123412132263</v>
+        <v>0.6924384832382202</v>
       </c>
       <c r="I10">
-        <v>0.7364472746849059</v>
+        <v>0.7589768171310425</v>
       </c>
       <c r="J10">
-        <v>0.7849820256233215</v>
+        <v>0.7518003582954407</v>
       </c>
       <c r="K10">
-        <v>0.8041108250617981</v>
+        <v>0.7724545001983643</v>
       </c>
       <c r="L10">
-        <v>0.8113372921943665</v>
+        <v>0.7807061672210693</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2764,34 +2565,34 @@
         <v>0.00210042018443346</v>
       </c>
       <c r="C11">
-        <v>0.5661382079124451</v>
+        <v>0.6702090501785278</v>
       </c>
       <c r="D11">
-        <v>0.5845919251441956</v>
+        <v>0.6247499585151672</v>
       </c>
       <c r="E11">
-        <v>0.6249749660491943</v>
+        <v>0.6549059748649597</v>
       </c>
       <c r="F11">
-        <v>0.6739597916603088</v>
+        <v>0.6798609495162964</v>
       </c>
       <c r="G11">
-        <v>0.7118423581123352</v>
+        <v>0.6936637163162231</v>
       </c>
       <c r="H11">
-        <v>0.6924384832382202</v>
+        <v>0.7208191752433777</v>
       </c>
       <c r="I11">
-        <v>0.7589768171310425</v>
+        <v>0.7561011910438538</v>
       </c>
       <c r="J11">
-        <v>0.7518003582954407</v>
+        <v>0.7905831336975098</v>
       </c>
       <c r="K11">
-        <v>0.7724545001983643</v>
+        <v>0.8101370334625244</v>
       </c>
       <c r="L11">
-        <v>0.7807061672210693</v>
+        <v>0.8205640912055969</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2802,34 +2603,34 @@
         <v>0.00210042018443346</v>
       </c>
       <c r="C12">
-        <v>0.6702090501785278</v>
+        <v>0.640978217124939</v>
       </c>
       <c r="D12">
-        <v>0.6247499585151672</v>
+        <v>0.6300010085105896</v>
       </c>
       <c r="E12">
-        <v>0.6549059748649597</v>
+        <v>0.5916933417320251</v>
       </c>
       <c r="F12">
-        <v>0.6798609495162964</v>
+        <v>0.6613572835922241</v>
       </c>
       <c r="G12">
-        <v>0.6936637163162231</v>
+        <v>0.7131926417350769</v>
       </c>
       <c r="H12">
-        <v>0.7208191752433777</v>
+        <v>0.7135177254676819</v>
       </c>
       <c r="I12">
-        <v>0.7561011910438538</v>
+        <v>0.7390727996826172</v>
       </c>
       <c r="J12">
-        <v>0.7905831336975098</v>
+        <v>0.7777055501937866</v>
       </c>
       <c r="K12">
-        <v>0.8101370334625244</v>
+        <v>0.7771804332733154</v>
       </c>
       <c r="L12">
-        <v>0.8205640912055969</v>
+        <v>0.7889328002929688</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2840,34 +2641,34 @@
         <v>0.00210042018443346</v>
       </c>
       <c r="C13">
-        <v>0.640978217124939</v>
+        <v>0.6320264339447021</v>
       </c>
       <c r="D13">
-        <v>0.6300010085105896</v>
+        <v>0.6363022327423096</v>
       </c>
       <c r="E13">
-        <v>0.5916933417320251</v>
+        <v>0.6473544836044312</v>
       </c>
       <c r="F13">
-        <v>0.6613572835922241</v>
+        <v>0.6647079586982727</v>
       </c>
       <c r="G13">
-        <v>0.7131926417350769</v>
+        <v>0.692563533782959</v>
       </c>
       <c r="H13">
-        <v>0.7135177254676819</v>
+        <v>0.7127425670623779</v>
       </c>
       <c r="I13">
-        <v>0.7390727996826172</v>
+        <v>0.7412982583045959</v>
       </c>
       <c r="J13">
-        <v>0.7777055501937866</v>
+        <v>0.7839317917823792</v>
       </c>
       <c r="K13">
-        <v>0.7771804332733154</v>
+        <v>0.7946589589118958</v>
       </c>
       <c r="L13">
-        <v>0.7889328002929688</v>
+        <v>0.8293908834457397</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2878,34 +2679,34 @@
         <v>0.00210042018443346</v>
       </c>
       <c r="C14">
-        <v>0.6320264339447021</v>
+        <v>0.5835916996002197</v>
       </c>
       <c r="D14">
-        <v>0.6363022327423096</v>
+        <v>0.6200489997863771</v>
       </c>
       <c r="E14">
-        <v>0.6473544836044312</v>
+        <v>0.655981183052063</v>
       </c>
       <c r="F14">
-        <v>0.6647079586982727</v>
+        <v>0.6686837077140808</v>
       </c>
       <c r="G14">
-        <v>0.692563533782959</v>
+        <v>0.6963642835617065</v>
       </c>
       <c r="H14">
-        <v>0.7127425670623779</v>
+        <v>0.6826615333557129</v>
       </c>
       <c r="I14">
-        <v>0.7412982583045959</v>
+        <v>0.7396729588508606</v>
       </c>
       <c r="J14">
-        <v>0.7839317917823792</v>
+        <v>0.7514503002166748</v>
       </c>
       <c r="K14">
-        <v>0.7946589589118958</v>
+        <v>0.7638777494430542</v>
       </c>
       <c r="L14">
-        <v>0.8293908834457397</v>
+        <v>0.7828565835952759</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2916,34 +2717,34 @@
         <v>0.00210042018443346</v>
       </c>
       <c r="C15">
-        <v>0.5835916996002197</v>
+        <v>0.6000950336456299</v>
       </c>
       <c r="D15">
-        <v>0.6200489997863771</v>
+        <v>0.6080465912818909</v>
       </c>
       <c r="E15">
-        <v>0.655981183052063</v>
+        <v>0.5943188667297363</v>
       </c>
       <c r="F15">
-        <v>0.6686837077140808</v>
+        <v>0.6344518661499023</v>
       </c>
       <c r="G15">
-        <v>0.6963642835617065</v>
+        <v>0.6836367249488831</v>
       </c>
       <c r="H15">
-        <v>0.6826615333557129</v>
+        <v>0.6834616661071777</v>
       </c>
       <c r="I15">
-        <v>0.7396729588508606</v>
+        <v>0.740198016166687</v>
       </c>
       <c r="J15">
-        <v>0.7514503002166748</v>
+        <v>0.7878325581550598</v>
       </c>
       <c r="K15">
-        <v>0.7638777494430542</v>
+        <v>0.8044608831405641</v>
       </c>
       <c r="L15">
-        <v>0.7828565835952759</v>
+        <v>0.8074114918708801</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2954,34 +2755,34 @@
         <v>0.00210042018443346</v>
       </c>
       <c r="C16">
-        <v>0.6000950336456299</v>
+        <v>0.5374825000762941</v>
       </c>
       <c r="D16">
-        <v>0.6080465912818909</v>
+        <v>0.5675135254859924</v>
       </c>
       <c r="E16">
-        <v>0.5943188667297363</v>
+        <v>0.6373274922370911</v>
       </c>
       <c r="F16">
-        <v>0.6344518661499023</v>
+        <v>0.658406674861908</v>
       </c>
       <c r="G16">
-        <v>0.6836367249488831</v>
+        <v>0.707116425037384</v>
       </c>
       <c r="H16">
-        <v>0.6834616661071777</v>
+        <v>0.7147179245948792</v>
       </c>
       <c r="I16">
-        <v>0.740198016166687</v>
+        <v>0.7512752413749695</v>
       </c>
       <c r="J16">
-        <v>0.7878325581550598</v>
+        <v>0.7747049331665039</v>
       </c>
       <c r="K16">
-        <v>0.8044608831405641</v>
+        <v>0.7766553163528442</v>
       </c>
       <c r="L16">
-        <v>0.8074114918708801</v>
+        <v>0.7848819494247437</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2992,34 +2793,34 @@
         <v>0.00210042018443346</v>
       </c>
       <c r="C17">
-        <v>0.5374825000762941</v>
+        <v>0.6115723252296448</v>
       </c>
       <c r="D17">
-        <v>0.5675135254859924</v>
+        <v>0.6770853996276855</v>
       </c>
       <c r="E17">
-        <v>0.6373274922370911</v>
+        <v>0.6424034833908081</v>
       </c>
       <c r="F17">
-        <v>0.658406674861908</v>
+        <v>0.6789608001708984</v>
       </c>
       <c r="G17">
-        <v>0.707116425037384</v>
+        <v>0.7089418172836304</v>
       </c>
       <c r="H17">
-        <v>0.7147179245948792</v>
+        <v>0.6937637329101562</v>
       </c>
       <c r="I17">
-        <v>0.7512752413749695</v>
+        <v>0.7470744252204895</v>
       </c>
       <c r="J17">
-        <v>0.7747049331665039</v>
+        <v>0.7902080416679382</v>
       </c>
       <c r="K17">
-        <v>0.7766553163528442</v>
+        <v>0.8000100255012512</v>
       </c>
       <c r="L17">
-        <v>0.7848819494247437</v>
+        <v>0.8217143416404724</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -3030,34 +2831,34 @@
         <v>0.00210042018443346</v>
       </c>
       <c r="C18">
-        <v>0.6115723252296448</v>
+        <v>0.5734897255897522</v>
       </c>
       <c r="D18">
-        <v>0.6770853996276855</v>
+        <v>0.5964943170547485</v>
       </c>
       <c r="E18">
-        <v>0.6424034833908081</v>
+        <v>0.6807111501693726</v>
       </c>
       <c r="F18">
-        <v>0.6789608001708984</v>
+        <v>0.6886627078056335</v>
       </c>
       <c r="G18">
-        <v>0.7089418172836304</v>
+        <v>0.6854621171951294</v>
       </c>
       <c r="H18">
-        <v>0.6937637329101562</v>
+        <v>0.7139427661895752</v>
       </c>
       <c r="I18">
-        <v>0.7470744252204895</v>
+        <v>0.7453490495681763</v>
       </c>
       <c r="J18">
-        <v>0.7902080416679382</v>
+        <v>0.7664783000946045</v>
       </c>
       <c r="K18">
-        <v>0.8000100255012512</v>
+        <v>0.7730796337127686</v>
       </c>
       <c r="L18">
-        <v>0.8217143416404724</v>
+        <v>0.7807061672210693</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -3068,34 +2869,34 @@
         <v>0.00210042018443346</v>
       </c>
       <c r="C19">
-        <v>0.5734897255897522</v>
+        <v>0.6081716418266296</v>
       </c>
       <c r="D19">
-        <v>0.5964943170547485</v>
+        <v>0.5670884251594543</v>
       </c>
       <c r="E19">
-        <v>0.6807111501693726</v>
+        <v>0.6680836081504822</v>
       </c>
       <c r="F19">
-        <v>0.6886627078056335</v>
+        <v>0.6734346747398376</v>
       </c>
       <c r="G19">
-        <v>0.6854621171951294</v>
+        <v>0.6983896493911743</v>
       </c>
       <c r="H19">
-        <v>0.7139427661895752</v>
+        <v>0.6829366087913513</v>
       </c>
       <c r="I19">
-        <v>0.7453490495681763</v>
+        <v>0.7110671997070312</v>
       </c>
       <c r="J19">
-        <v>0.7664783000946045</v>
+        <v>0.7422734498977661</v>
       </c>
       <c r="K19">
-        <v>0.7730796337127686</v>
+        <v>0.7815563082695007</v>
       </c>
       <c r="L19">
-        <v>0.7807061672210693</v>
+        <v>0.7707541584968567</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -3106,34 +2907,34 @@
         <v>0.00210042018443346</v>
       </c>
       <c r="C20">
-        <v>0.6081716418266296</v>
+        <v>0.5935937166213989</v>
       </c>
       <c r="D20">
-        <v>0.5670884251594543</v>
+        <v>0.5744898915290833</v>
       </c>
       <c r="E20">
-        <v>0.6680836081504822</v>
+        <v>0.6152480244636536</v>
       </c>
       <c r="F20">
-        <v>0.6734346747398376</v>
+        <v>0.6756101250648499</v>
       </c>
       <c r="G20">
-        <v>0.6983896493911743</v>
+        <v>0.698739767074585</v>
       </c>
       <c r="H20">
-        <v>0.6829366087913513</v>
+        <v>0.7274705171585083</v>
       </c>
       <c r="I20">
-        <v>0.7110671997070312</v>
+        <v>0.7562512755393982</v>
       </c>
       <c r="J20">
-        <v>0.7422734498977661</v>
+        <v>0.774679958820343</v>
       </c>
       <c r="K20">
-        <v>0.7815563082695007</v>
+        <v>0.7882076501846313</v>
       </c>
       <c r="L20">
-        <v>0.7707541584968567</v>
+        <v>0.796309232711792</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -3144,34 +2945,34 @@
         <v>0.00210042018443346</v>
       </c>
       <c r="C21">
-        <v>0.5935937166213989</v>
+        <v>0.5364573001861572</v>
       </c>
       <c r="D21">
-        <v>0.5744898915290833</v>
+        <v>0.6227745413780212</v>
       </c>
       <c r="E21">
-        <v>0.6152480244636536</v>
+        <v>0.5856420993804932</v>
       </c>
       <c r="F21">
-        <v>0.6756101250648499</v>
+        <v>0.6536807417869568</v>
       </c>
       <c r="G21">
-        <v>0.698739767074585</v>
+        <v>0.7290458083152771</v>
       </c>
       <c r="H21">
-        <v>0.7274705171585083</v>
+        <v>0.6911382079124451</v>
       </c>
       <c r="I21">
-        <v>0.7562512755393982</v>
+        <v>0.73932284116745</v>
       </c>
       <c r="J21">
-        <v>0.774679958820343</v>
+        <v>0.7667783498764038</v>
       </c>
       <c r="K21">
-        <v>0.7882076501846313</v>
+        <v>0.7810062170028687</v>
       </c>
       <c r="L21">
-        <v>0.796309232711792</v>
+        <v>0.800710141658783</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -3182,34 +2983,34 @@
         <v>0.00210042018443346</v>
       </c>
       <c r="C22">
-        <v>0.5364573001861572</v>
+        <v>0.569338858127594</v>
       </c>
       <c r="D22">
-        <v>0.6227745413780212</v>
+        <v>0.6214993000030518</v>
       </c>
       <c r="E22">
-        <v>0.5856420993804932</v>
+        <v>0.5940937995910645</v>
       </c>
       <c r="F22">
-        <v>0.6536807417869568</v>
+        <v>0.6633076667785645</v>
       </c>
       <c r="G22">
-        <v>0.7290458083152771</v>
+        <v>0.6940388083457947</v>
       </c>
       <c r="H22">
-        <v>0.6911382079124451</v>
+        <v>0.7257451415061951</v>
       </c>
       <c r="I22">
-        <v>0.73932284116745</v>
+        <v>0.7413982748985291</v>
       </c>
       <c r="J22">
-        <v>0.7667783498764038</v>
+        <v>0.7805560827255249</v>
       </c>
       <c r="K22">
-        <v>0.7810062170028687</v>
+        <v>0.7802560329437256</v>
       </c>
       <c r="L22">
-        <v>0.800710141658783</v>
+        <v>0.8080615997314453</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -3220,147 +3021,33 @@
         <v>0.00210042018443346</v>
       </c>
       <c r="C23">
-        <v>0.6208491921424866</v>
+        <v>0.6265752911567688</v>
       </c>
       <c r="D23">
-        <v>0.6554560661315918</v>
+        <v>0.6923635005950928</v>
       </c>
       <c r="E23">
-        <v>0.6712592244148254</v>
+        <v>0.7221694588661194</v>
       </c>
       <c r="F23">
-        <v>0.7258701920509338</v>
+        <v>0.7893579006195068</v>
       </c>
       <c r="G23">
-        <v>0.7525255084037781</v>
+        <v>0.7918083667755127</v>
       </c>
       <c r="H23">
-        <v>0.7941588163375854</v>
+        <v>0.8247149586677551</v>
       </c>
       <c r="I23">
-        <v>0.7806061506271362</v>
+        <v>0.8404181003570557</v>
       </c>
       <c r="J23">
-        <v>0.8286657333374023</v>
+        <v>0.8601470589637756</v>
       </c>
       <c r="K23">
-        <v>0.8357671499252319</v>
+        <v>0.8656981587409973</v>
       </c>
       <c r="L23">
-        <v>0.8573464751243591</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>0.00210042018443346</v>
-      </c>
-      <c r="C24">
-        <v>0.569338858127594</v>
-      </c>
-      <c r="D24">
-        <v>0.6214993000030518</v>
-      </c>
-      <c r="E24">
-        <v>0.5940937995910645</v>
-      </c>
-      <c r="F24">
-        <v>0.6633076667785645</v>
-      </c>
-      <c r="G24">
-        <v>0.6940388083457947</v>
-      </c>
-      <c r="H24">
-        <v>0.7257451415061951</v>
-      </c>
-      <c r="I24">
-        <v>0.7413982748985291</v>
-      </c>
-      <c r="J24">
-        <v>0.7805560827255249</v>
-      </c>
-      <c r="K24">
-        <v>0.7802560329437256</v>
-      </c>
-      <c r="L24">
-        <v>0.8080615997314453</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>0.00210042018443346</v>
-      </c>
-      <c r="C25">
-        <v>0.6432036161422729</v>
-      </c>
-      <c r="D25">
-        <v>0.7175934910774231</v>
-      </c>
-      <c r="E25">
-        <v>0.7602270245552063</v>
-      </c>
-      <c r="F25">
-        <v>0.8073614835739136</v>
-      </c>
-      <c r="G25">
-        <v>0.8207891583442688</v>
-      </c>
-      <c r="H25">
-        <v>0.8425934910774231</v>
-      </c>
-      <c r="I25">
-        <v>0.8633976578712463</v>
-      </c>
-      <c r="J25">
-        <v>0.8703240752220154</v>
-      </c>
-      <c r="K25">
-        <v>0.8786007165908813</v>
-      </c>
-      <c r="L25">
-        <v>0.8971544504165649</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>0.00210042018443346</v>
-      </c>
-      <c r="C26">
-        <v>0.6265752911567688</v>
-      </c>
-      <c r="D26">
-        <v>0.6923635005950928</v>
-      </c>
-      <c r="E26">
-        <v>0.7221694588661194</v>
-      </c>
-      <c r="F26">
-        <v>0.7893579006195068</v>
-      </c>
-      <c r="G26">
-        <v>0.7918083667755127</v>
-      </c>
-      <c r="H26">
-        <v>0.8247149586677551</v>
-      </c>
-      <c r="I26">
-        <v>0.8404181003570557</v>
-      </c>
-      <c r="J26">
-        <v>0.8601470589637756</v>
-      </c>
-      <c r="K26">
-        <v>0.8656981587409973</v>
-      </c>
-      <c r="L26">
         <v>0.8902530670166016</v>
       </c>
     </row>
@@ -3371,7 +3058,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3417,37 +3104,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0003508332301862538</v>
+        <v>0.0003758927341550589</v>
       </c>
       <c r="C2">
-        <v>0.8942738771438599</v>
+        <v>0.8991855382919312</v>
       </c>
       <c r="D2">
-        <v>0.9035710096359252</v>
+        <v>0.9117904901504515</v>
       </c>
       <c r="E2">
-        <v>0.9089086651802064</v>
+        <v>0.9145971536636353</v>
       </c>
       <c r="F2">
-        <v>0.9147224426269532</v>
+        <v>0.9178047776222228</v>
       </c>
       <c r="G2">
-        <v>0.9188071489334106</v>
+        <v>0.9185315370559692</v>
       </c>
       <c r="H2">
-        <v>0.9214133620262146</v>
+        <v>0.925573229789734</v>
       </c>
       <c r="I2">
-        <v>0.9277283549308776</v>
+        <v>0.9270016551017758</v>
       </c>
       <c r="J2">
-        <v>0.9306352734565736</v>
+        <v>0.9315624833106996</v>
       </c>
       <c r="K2">
-        <v>0.9348452687263488</v>
+        <v>0.9315123558044434</v>
       </c>
       <c r="L2">
-        <v>0.9363738894462584</v>
+        <v>0.9340433478355408</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3458,34 +3145,34 @@
         <v>0.0003758927341550589</v>
       </c>
       <c r="C3">
-        <v>0.8991855382919312</v>
+        <v>0.8940734267234802</v>
       </c>
       <c r="D3">
-        <v>0.9117904901504515</v>
+        <v>0.9004385471343994</v>
       </c>
       <c r="E3">
-        <v>0.9145971536636353</v>
+        <v>0.9067535400390624</v>
       </c>
       <c r="F3">
-        <v>0.9178047776222228</v>
+        <v>0.915424108505249</v>
       </c>
       <c r="G3">
-        <v>0.9185315370559692</v>
+        <v>0.9242200255393982</v>
       </c>
       <c r="H3">
-        <v>0.925573229789734</v>
+        <v>0.9277283549308776</v>
       </c>
       <c r="I3">
-        <v>0.9270016551017758</v>
+        <v>0.9340934753417968</v>
       </c>
       <c r="J3">
-        <v>0.9315624833106996</v>
+        <v>0.9378774762153624</v>
       </c>
       <c r="K3">
-        <v>0.9315123558044434</v>
+        <v>0.9426888823509216</v>
       </c>
       <c r="L3">
-        <v>0.9340433478355408</v>
+        <v>0.949505090713501</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3496,34 +3183,34 @@
         <v>0.0003758927341550589</v>
       </c>
       <c r="C4">
-        <v>0.8940734267234802</v>
+        <v>0.9000877141952515</v>
       </c>
       <c r="D4">
-        <v>0.9004385471343994</v>
+        <v>0.9101114869117736</v>
       </c>
       <c r="E4">
-        <v>0.9067535400390624</v>
+        <v>0.9159754514694214</v>
       </c>
       <c r="F4">
-        <v>0.915424108505249</v>
+        <v>0.9207367300987244</v>
       </c>
       <c r="G4">
-        <v>0.9242200255393982</v>
+        <v>0.9203107357025146</v>
       </c>
       <c r="H4">
-        <v>0.9277283549308776</v>
+        <v>0.9242450594902042</v>
       </c>
       <c r="I4">
-        <v>0.9340934753417968</v>
+        <v>0.9261245727539062</v>
       </c>
       <c r="J4">
-        <v>0.9378774762153624</v>
+        <v>0.9305350184440612</v>
       </c>
       <c r="K4">
-        <v>0.9426888823509216</v>
+        <v>0.9313369393348694</v>
       </c>
       <c r="L4">
-        <v>0.949505090713501</v>
+        <v>0.9379276037216188</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3534,34 +3221,34 @@
         <v>0.0003758927341550589</v>
       </c>
       <c r="C5">
-        <v>0.9000877141952515</v>
+        <v>0.8957774639129639</v>
       </c>
       <c r="D5">
-        <v>0.9101114869117736</v>
+        <v>0.8961784243583679</v>
       </c>
       <c r="E5">
-        <v>0.9159754514694214</v>
+        <v>0.8994110822677612</v>
       </c>
       <c r="F5">
-        <v>0.9207367300987244</v>
+        <v>0.9009397029876708</v>
       </c>
       <c r="G5">
-        <v>0.9203107357025146</v>
+        <v>0.9046986699104308</v>
       </c>
       <c r="H5">
-        <v>0.9242450594902042</v>
+        <v>0.9058514237403872</v>
       </c>
       <c r="I5">
-        <v>0.9261245727539062</v>
+        <v>0.9057010412216188</v>
       </c>
       <c r="J5">
-        <v>0.9305350184440612</v>
+        <v>0.9074802398681641</v>
       </c>
       <c r="K5">
-        <v>0.9313369393348694</v>
+        <v>0.9095351696014404</v>
       </c>
       <c r="L5">
-        <v>0.9379276037216188</v>
+        <v>0.912341833114624</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -3572,34 +3259,34 @@
         <v>0.0003758927341550589</v>
       </c>
       <c r="C6">
-        <v>0.8957774639129639</v>
+        <v>0.9024432897567748</v>
       </c>
       <c r="D6">
-        <v>0.8961784243583679</v>
+        <v>0.9112642407417296</v>
       </c>
       <c r="E6">
-        <v>0.8994110822677612</v>
+        <v>0.9161007404327391</v>
       </c>
       <c r="F6">
-        <v>0.9009397029876708</v>
+        <v>0.9171282052993774</v>
       </c>
       <c r="G6">
-        <v>0.9046986699104308</v>
+        <v>0.9187319874763488</v>
       </c>
       <c r="H6">
-        <v>0.9058514237403872</v>
+        <v>0.9243202805519104</v>
       </c>
       <c r="I6">
-        <v>0.9057010412216188</v>
+        <v>0.9295075535774232</v>
       </c>
       <c r="J6">
-        <v>0.9074802398681641</v>
+        <v>0.9337426424026488</v>
       </c>
       <c r="K6">
-        <v>0.9095351696014404</v>
+        <v>0.9308608174324036</v>
       </c>
       <c r="L6">
-        <v>0.912341833114624</v>
+        <v>0.9362736344337464</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -3610,34 +3297,34 @@
         <v>0.0003758927341550589</v>
       </c>
       <c r="C7">
-        <v>0.9024432897567748</v>
+        <v>0.8975817561149597</v>
       </c>
       <c r="D7">
-        <v>0.9112642407417296</v>
+        <v>0.9032201766967772</v>
       </c>
       <c r="E7">
-        <v>0.9161007404327391</v>
+        <v>0.90973562002182</v>
       </c>
       <c r="F7">
-        <v>0.9171282052993774</v>
+        <v>0.9168775677680968</v>
       </c>
       <c r="G7">
-        <v>0.9187319874763488</v>
+        <v>0.9267510175704956</v>
       </c>
       <c r="H7">
-        <v>0.9243202805519104</v>
+        <v>0.9304848909378052</v>
       </c>
       <c r="I7">
-        <v>0.9295075535774232</v>
+        <v>0.9326901435852052</v>
       </c>
       <c r="J7">
-        <v>0.9337426424026488</v>
+        <v>0.9363989233970642</v>
       </c>
       <c r="K7">
-        <v>0.9308608174324036</v>
+        <v>0.9451196789741516</v>
       </c>
       <c r="L7">
-        <v>0.9362736344337464</v>
+        <v>0.9477258324623108</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -3648,34 +3335,34 @@
         <v>0.0003758927341550589</v>
       </c>
       <c r="C8">
-        <v>0.8975817561149597</v>
+        <v>0.8998371362686157</v>
       </c>
       <c r="D8">
-        <v>0.9032201766967772</v>
+        <v>0.9097857475280762</v>
       </c>
       <c r="E8">
-        <v>0.90973562002182</v>
+        <v>0.9131186604499816</v>
       </c>
       <c r="F8">
-        <v>0.9168775677680968</v>
+        <v>0.9151484966278076</v>
       </c>
       <c r="G8">
-        <v>0.9267510175704956</v>
+        <v>0.922440767288208</v>
       </c>
       <c r="H8">
-        <v>0.9304848909378052</v>
+        <v>0.9226412773132324</v>
       </c>
       <c r="I8">
-        <v>0.9326901435852052</v>
+        <v>0.92429518699646</v>
       </c>
       <c r="J8">
-        <v>0.9363989233970642</v>
+        <v>0.9398070573806764</v>
       </c>
       <c r="K8">
-        <v>0.9451196789741516</v>
+        <v>0.9336173534393308</v>
       </c>
       <c r="L8">
-        <v>0.9477258324623108</v>
+        <v>0.939882218837738</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -3686,34 +3373,34 @@
         <v>0.0003758927341550589</v>
       </c>
       <c r="C9">
-        <v>0.8998371362686157</v>
+        <v>0.8971807956695557</v>
       </c>
       <c r="D9">
-        <v>0.9097857475280762</v>
+        <v>0.9048740863800048</v>
       </c>
       <c r="E9">
-        <v>0.9131186604499816</v>
+        <v>0.9108883738517758</v>
       </c>
       <c r="F9">
-        <v>0.9151484966278076</v>
+        <v>0.9197594523429872</v>
       </c>
       <c r="G9">
-        <v>0.922440767288208</v>
+        <v>0.9276280999183656</v>
       </c>
       <c r="H9">
-        <v>0.9226412773132324</v>
+        <v>0.9314121007919312</v>
       </c>
       <c r="I9">
-        <v>0.92429518699646</v>
+        <v>0.9373010993003844</v>
       </c>
       <c r="J9">
-        <v>0.9398070573806764</v>
+        <v>0.940233051776886</v>
       </c>
       <c r="K9">
-        <v>0.9336173534393308</v>
+        <v>0.9452700018882751</v>
       </c>
       <c r="L9">
-        <v>0.939882218837738</v>
+        <v>0.9513344168663024</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -3724,34 +3411,34 @@
         <v>0.0003758927341550589</v>
       </c>
       <c r="C10">
-        <v>0.8971807956695557</v>
+        <v>0.9007893800735474</v>
       </c>
       <c r="D10">
-        <v>0.9048740863800048</v>
+        <v>0.911189079284668</v>
       </c>
       <c r="E10">
-        <v>0.9108883738517758</v>
+        <v>0.9172284007072448</v>
       </c>
       <c r="F10">
-        <v>0.9197594523429872</v>
+        <v>0.9148728251457214</v>
       </c>
       <c r="G10">
-        <v>0.9276280999183656</v>
+        <v>0.9190326929092408</v>
       </c>
       <c r="H10">
-        <v>0.9314121007919312</v>
+        <v>0.9249216914176941</v>
       </c>
       <c r="I10">
-        <v>0.9373010993003844</v>
+        <v>0.9272772669792176</v>
       </c>
       <c r="J10">
-        <v>0.940233051776886</v>
+        <v>0.9320386052131652</v>
       </c>
       <c r="K10">
-        <v>0.9452700018882751</v>
+        <v>0.933216392993927</v>
       </c>
       <c r="L10">
-        <v>0.9513344168663024</v>
+        <v>0.9419370889663696</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -3762,34 +3449,34 @@
         <v>0.0003758927341550589</v>
       </c>
       <c r="C11">
-        <v>0.9007893800735474</v>
+        <v>0.8949254751205444</v>
       </c>
       <c r="D11">
-        <v>0.911189079284668</v>
+        <v>0.903997004032135</v>
       </c>
       <c r="E11">
-        <v>0.9172284007072448</v>
+        <v>0.9081318378448486</v>
       </c>
       <c r="F11">
-        <v>0.9148728251457214</v>
+        <v>0.9177045226097108</v>
       </c>
       <c r="G11">
-        <v>0.9190326929092408</v>
+        <v>0.9245708584785458</v>
       </c>
       <c r="H11">
-        <v>0.9249216914176941</v>
+        <v>0.9287808537483216</v>
       </c>
       <c r="I11">
-        <v>0.9272772669792176</v>
+        <v>0.9362486004829408</v>
       </c>
       <c r="J11">
-        <v>0.9320386052131652</v>
+        <v>0.9397068023681641</v>
       </c>
       <c r="K11">
-        <v>0.933216392993927</v>
+        <v>0.9458213448524476</v>
       </c>
       <c r="L11">
-        <v>0.9419370889663696</v>
+        <v>0.9505826234817504</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -3797,37 +3484,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.0003758927341550589</v>
+        <v>0.0003508332301862538</v>
       </c>
       <c r="C12">
-        <v>0.8949254751205444</v>
+        <v>0.9010149240493774</v>
       </c>
       <c r="D12">
-        <v>0.903997004032135</v>
+        <v>0.9114396572113036</v>
       </c>
       <c r="E12">
-        <v>0.9081318378448486</v>
+        <v>0.9146472811698914</v>
       </c>
       <c r="F12">
-        <v>0.9177045226097108</v>
+        <v>0.9181305766105652</v>
       </c>
       <c r="G12">
-        <v>0.9245708584785458</v>
+        <v>0.9190076589584352</v>
       </c>
       <c r="H12">
-        <v>0.9287808537483216</v>
+        <v>0.9230923652648926</v>
       </c>
       <c r="I12">
-        <v>0.9362486004829408</v>
+        <v>0.926901400089264</v>
       </c>
       <c r="J12">
-        <v>0.9397068023681641</v>
+        <v>0.9304598569869996</v>
       </c>
       <c r="K12">
-        <v>0.9458213448524476</v>
+        <v>0.9326650500297546</v>
       </c>
       <c r="L12">
-        <v>0.9505826234817504</v>
+        <v>0.9361483454704284</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -3838,34 +3525,34 @@
         <v>0.0003508332301862538</v>
       </c>
       <c r="C13">
-        <v>0.9010149240493774</v>
+        <v>0.8977822065353394</v>
       </c>
       <c r="D13">
-        <v>0.9114396572113036</v>
+        <v>0.9070292115211488</v>
       </c>
       <c r="E13">
-        <v>0.9146472811698914</v>
+        <v>0.9113895297050476</v>
       </c>
       <c r="F13">
-        <v>0.9181305766105652</v>
+        <v>0.9177296161651612</v>
       </c>
       <c r="G13">
-        <v>0.9190076589584352</v>
+        <v>0.926024317741394</v>
       </c>
       <c r="H13">
-        <v>0.9230923652648926</v>
+        <v>0.9316376447677612</v>
       </c>
       <c r="I13">
-        <v>0.926901400089264</v>
+        <v>0.9349705576896667</v>
       </c>
       <c r="J13">
-        <v>0.9304598569869996</v>
+        <v>0.9386292695999146</v>
       </c>
       <c r="K13">
-        <v>0.9326650500297546</v>
+        <v>0.9443678855895996</v>
       </c>
       <c r="L13">
-        <v>0.9361483454704284</v>
+        <v>0.9495301246643066</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -3876,34 +3563,34 @@
         <v>0.0003508332301862538</v>
       </c>
       <c r="C14">
-        <v>0.8977822065353394</v>
+        <v>0.9015913009643556</v>
       </c>
       <c r="D14">
-        <v>0.9070292115211488</v>
+        <v>0.9098107814788818</v>
       </c>
       <c r="E14">
-        <v>0.9113895297050476</v>
+        <v>0.911991000175476</v>
       </c>
       <c r="F14">
-        <v>0.9177296161651612</v>
+        <v>0.9105876684188844</v>
       </c>
       <c r="G14">
+        <v>0.917103111743927</v>
+      </c>
+      <c r="H14">
+        <v>0.9276531934738159</v>
+      </c>
+      <c r="I14">
         <v>0.926024317741394</v>
       </c>
-      <c r="H14">
-        <v>0.9316376447677612</v>
-      </c>
-      <c r="I14">
-        <v>0.9349705576896667</v>
-      </c>
       <c r="J14">
-        <v>0.9386292695999146</v>
+        <v>0.9295827746391296</v>
       </c>
       <c r="K14">
-        <v>0.9443678855895996</v>
+        <v>0.9327903985977172</v>
       </c>
       <c r="L14">
-        <v>0.9495301246643066</v>
+        <v>0.9331412315368652</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -3914,34 +3601,34 @@
         <v>0.0003508332301862538</v>
       </c>
       <c r="C15">
-        <v>0.9015913009643556</v>
+        <v>0.8976569175720215</v>
       </c>
       <c r="D15">
+        <v>0.9039218425750732</v>
+      </c>
+      <c r="E15">
         <v>0.9098107814788818</v>
       </c>
-      <c r="E15">
-        <v>0.911991000175476</v>
-      </c>
       <c r="F15">
-        <v>0.9105876684188844</v>
+        <v>0.9186317324638368</v>
       </c>
       <c r="G15">
-        <v>0.917103111743927</v>
+        <v>0.9260493516921996</v>
       </c>
       <c r="H15">
-        <v>0.9276531934738159</v>
+        <v>0.9296078085899352</v>
       </c>
       <c r="I15">
-        <v>0.926024317741394</v>
+        <v>0.9344443082809448</v>
       </c>
       <c r="J15">
-        <v>0.9295827746391296</v>
+        <v>0.9407091736793518</v>
       </c>
       <c r="K15">
-        <v>0.9327903985977172</v>
+        <v>0.9460969567298888</v>
       </c>
       <c r="L15">
-        <v>0.9331412315368652</v>
+        <v>0.9509084224700928</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -3952,34 +3639,34 @@
         <v>0.0003508332301862538</v>
       </c>
       <c r="C16">
-        <v>0.8976569175720215</v>
+        <v>0.8999122977256775</v>
       </c>
       <c r="D16">
-        <v>0.9039218425750732</v>
+        <v>0.9108632802963256</v>
       </c>
       <c r="E16">
-        <v>0.9098107814788818</v>
+        <v>0.9150232076644896</v>
       </c>
       <c r="F16">
-        <v>0.9186317324638368</v>
+        <v>0.9178047776222228</v>
       </c>
       <c r="G16">
-        <v>0.9260493516921996</v>
+        <v>0.9199599027633668</v>
       </c>
       <c r="H16">
-        <v>0.9296078085899352</v>
+        <v>0.9238942265510559</v>
       </c>
       <c r="I16">
-        <v>0.9344443082809448</v>
+        <v>0.9302593469619752</v>
       </c>
       <c r="J16">
-        <v>0.9407091736793518</v>
+        <v>0.9314121007919312</v>
       </c>
       <c r="K16">
-        <v>0.9460969567298888</v>
+        <v>0.9357975125312804</v>
       </c>
       <c r="L16">
-        <v>0.9509084224700928</v>
+        <v>0.9340684413909912</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -3990,34 +3677,34 @@
         <v>0.0003508332301862538</v>
       </c>
       <c r="C17">
-        <v>0.8999122977256775</v>
+        <v>0.8983585834503174</v>
       </c>
       <c r="D17">
-        <v>0.9108632802963256</v>
+        <v>0.9024683833122252</v>
       </c>
       <c r="E17">
-        <v>0.9150232076644896</v>
+        <v>0.910036325454712</v>
       </c>
       <c r="F17">
-        <v>0.9178047776222228</v>
+        <v>0.9185565710067748</v>
       </c>
       <c r="G17">
-        <v>0.9199599027633668</v>
+        <v>0.92341810464859</v>
       </c>
       <c r="H17">
-        <v>0.9238942265510559</v>
+        <v>0.9296579360961914</v>
       </c>
       <c r="I17">
-        <v>0.9302593469619752</v>
+        <v>0.9332915544509888</v>
       </c>
       <c r="J17">
-        <v>0.9314121007919312</v>
+        <v>0.9409597516059875</v>
       </c>
       <c r="K17">
-        <v>0.9357975125312804</v>
+        <v>0.9430647492408752</v>
       </c>
       <c r="L17">
-        <v>0.9340684413909912</v>
+        <v>0.9498308300971984</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -4025,37 +3712,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.0003508332301862538</v>
+        <v>0.0003758927341550589</v>
       </c>
       <c r="C18">
-        <v>0.8983585834503174</v>
+        <v>0.900238037109375</v>
       </c>
       <c r="D18">
-        <v>0.9024683833122252</v>
+        <v>0.9115148186683656</v>
       </c>
       <c r="E18">
-        <v>0.910036325454712</v>
+        <v>0.9144217371940612</v>
       </c>
       <c r="F18">
-        <v>0.9185565710067748</v>
+        <v>0.9147976636886596</v>
       </c>
       <c r="G18">
-        <v>0.92341810464859</v>
+        <v>0.9181556105613708</v>
       </c>
       <c r="H18">
-        <v>0.9296579360961914</v>
+        <v>0.923718810081482</v>
       </c>
       <c r="I18">
-        <v>0.9332915544509888</v>
+        <v>0.928755819797516</v>
       </c>
       <c r="J18">
-        <v>0.9409597516059875</v>
+        <v>0.9321638941764832</v>
       </c>
       <c r="K18">
-        <v>0.9430647492408752</v>
+        <v>0.9344192743301392</v>
       </c>
       <c r="L18">
-        <v>0.9498308300971984</v>
+        <v>0.9364240169525146</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -4066,34 +3753,34 @@
         <v>0.0003758927341550589</v>
       </c>
       <c r="C19">
-        <v>0.900238037109375</v>
+        <v>0.8990602493286133</v>
       </c>
       <c r="D19">
-        <v>0.9115148186683656</v>
+        <v>0.9105124473571776</v>
       </c>
       <c r="E19">
-        <v>0.9144217371940612</v>
+        <v>0.9160757064819336</v>
       </c>
       <c r="F19">
-        <v>0.9147976636886596</v>
+        <v>0.9183561205863952</v>
       </c>
       <c r="G19">
-        <v>0.9181556105613708</v>
+        <v>0.9196842312812804</v>
       </c>
       <c r="H19">
-        <v>0.923718810081482</v>
+        <v>0.9209622740745544</v>
       </c>
       <c r="I19">
-        <v>0.928755819797516</v>
+        <v>0.9229670763015748</v>
       </c>
       <c r="J19">
-        <v>0.9321638941764832</v>
+        <v>0.9285553097724916</v>
       </c>
       <c r="K19">
-        <v>0.9344192743301392</v>
+        <v>0.9307104349136353</v>
       </c>
       <c r="L19">
-        <v>0.9364240169525146</v>
+        <v>0.931712806224823</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -4104,34 +3791,34 @@
         <v>0.0003758927341550589</v>
       </c>
       <c r="C20">
-        <v>0.8990602493286133</v>
+        <v>0.9005888700485229</v>
       </c>
       <c r="D20">
-        <v>0.9105124473571776</v>
+        <v>0.911765456199646</v>
       </c>
       <c r="E20">
-        <v>0.9160757064819336</v>
+        <v>0.9163011908531188</v>
       </c>
       <c r="F20">
-        <v>0.9183561205863952</v>
+        <v>0.9160506129264832</v>
       </c>
       <c r="G20">
-        <v>0.9196842312812804</v>
+        <v>0.9209622740745544</v>
       </c>
       <c r="H20">
-        <v>0.9209622740745544</v>
+        <v>0.92429518699646</v>
       </c>
       <c r="I20">
-        <v>0.9229670763015748</v>
+        <v>0.927302360534668</v>
       </c>
       <c r="J20">
-        <v>0.9285553097724916</v>
+        <v>0.9301591515541076</v>
       </c>
       <c r="K20">
-        <v>0.9307104349136353</v>
+        <v>0.9300087690353394</v>
       </c>
       <c r="L20">
-        <v>0.931712806224823</v>
+        <v>0.9311865568161012</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -4139,150 +3826,74 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.0003758927341550589</v>
+        <v>0.0003508332301862538</v>
       </c>
       <c r="C21">
-        <v>0.9005888700485229</v>
+        <v>0.9034957885742188</v>
       </c>
       <c r="D21">
-        <v>0.911765456199646</v>
+        <v>0.9118907451629642</v>
       </c>
       <c r="E21">
-        <v>0.9163011908531188</v>
+        <v>0.9159503579139709</v>
       </c>
       <c r="F21">
-        <v>0.9160506129264832</v>
+        <v>0.9184563159942628</v>
       </c>
       <c r="G21">
-        <v>0.9209622740745544</v>
+        <v>0.9224908947944641</v>
       </c>
       <c r="H21">
-        <v>0.92429518699646</v>
+        <v>0.9273273944854736</v>
       </c>
       <c r="I21">
-        <v>0.927302360534668</v>
+        <v>0.9304097294807434</v>
       </c>
       <c r="J21">
-        <v>0.9301591515541076</v>
+        <v>0.9335170984268188</v>
       </c>
       <c r="K21">
-        <v>0.9300087690353394</v>
+        <v>0.9351209402084352</v>
       </c>
       <c r="L21">
-        <v>0.9311865568161012</v>
+        <v>0.935471773147583</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>0.0003508332301862538</v>
+        <v>0.0003758927341550589</v>
       </c>
       <c r="C22">
-        <v>0.9034957885742188</v>
+        <v>0.8940734267234802</v>
       </c>
       <c r="D22">
-        <v>0.9118907451629642</v>
+        <v>0.9136449098587036</v>
       </c>
       <c r="E22">
-        <v>0.9159503579139709</v>
+        <v>0.9322140216827391</v>
       </c>
       <c r="F22">
-        <v>0.9184563159942628</v>
+        <v>0.9514346718788148</v>
       </c>
       <c r="G22">
-        <v>0.9224908947944641</v>
+        <v>0.9641398191452026</v>
       </c>
       <c r="H22">
-        <v>0.9273273944854736</v>
+        <v>0.9721588492393494</v>
       </c>
       <c r="I22">
-        <v>0.9304097294807434</v>
+        <v>0.9763187766075134</v>
       </c>
       <c r="J22">
-        <v>0.9335170984268188</v>
+        <v>0.9796265959739684</v>
       </c>
       <c r="K22">
-        <v>0.9351209402084352</v>
+        <v>0.9818318486213684</v>
       </c>
       <c r="L22">
-        <v>0.935471773147583</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>0.0003508332301862538</v>
-      </c>
-      <c r="C23">
-        <v>0.8900889754295349</v>
-      </c>
-      <c r="D23">
-        <v>0.907831072807312</v>
-      </c>
-      <c r="E23">
-        <v>0.926550567150116</v>
-      </c>
-      <c r="F23">
-        <v>0.9453702569007874</v>
-      </c>
-      <c r="G23">
-        <v>0.9611327052116394</v>
-      </c>
-      <c r="H23">
-        <v>0.9705049395561218</v>
-      </c>
-      <c r="I23">
-        <v>0.9756171107292176</v>
-      </c>
-      <c r="J23">
-        <v>0.9792256355285645</v>
-      </c>
-      <c r="K23">
-        <v>0.9818568825721741</v>
-      </c>
-      <c r="L23">
-        <v>0.9846636056900024</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24">
-        <v>0.0003758927341550589</v>
-      </c>
-      <c r="C24">
-        <v>0.8940734267234802</v>
-      </c>
-      <c r="D24">
-        <v>0.9136449098587036</v>
-      </c>
-      <c r="E24">
-        <v>0.9322140216827391</v>
-      </c>
-      <c r="F24">
-        <v>0.9514346718788148</v>
-      </c>
-      <c r="G24">
-        <v>0.9641398191452026</v>
-      </c>
-      <c r="H24">
-        <v>0.9721588492393494</v>
-      </c>
-      <c r="I24">
-        <v>0.9763187766075134</v>
-      </c>
-      <c r="J24">
-        <v>0.9796265959739684</v>
-      </c>
-      <c r="K24">
-        <v>0.9818318486213684</v>
-      </c>
-      <c r="L24">
         <v>0.9827339649200439</v>
       </c>
     </row>
@@ -4293,7 +3904,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4342,34 +3953,34 @@
         <v>0.04865258187055588</v>
       </c>
       <c r="C2">
-        <v>0.8874391317367554</v>
+        <v>0.6709489822387695</v>
       </c>
       <c r="D2">
-        <v>0.9141616821289062</v>
+        <v>0.7420083284378052</v>
       </c>
       <c r="E2">
-        <v>0.9250765442848206</v>
+        <v>0.7308425903320312</v>
       </c>
       <c r="F2">
-        <v>0.9373212456703186</v>
+        <v>0.7672253847122192</v>
       </c>
       <c r="G2">
-        <v>0.9453003406524658</v>
+        <v>0.7426857948303223</v>
       </c>
       <c r="H2">
-        <v>0.9529281854629515</v>
+        <v>0.7619561553001404</v>
       </c>
       <c r="I2">
-        <v>0.957494854927063</v>
+        <v>0.7959552407264709</v>
       </c>
       <c r="J2">
-        <v>0.9575199484825134</v>
+        <v>0.7899332642555237</v>
       </c>
       <c r="K2">
-        <v>0.9589250683784484</v>
+        <v>0.8090530633926392</v>
       </c>
       <c r="L2">
-        <v>0.9656245112419128</v>
+        <v>0.8286746740341187</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -4380,34 +3991,34 @@
         <v>0.04865258187055588</v>
       </c>
       <c r="C3">
-        <v>0.6709489822387695</v>
+        <v>0.6482160091400146</v>
       </c>
       <c r="D3">
-        <v>0.7420083284378052</v>
+        <v>0.636724054813385</v>
       </c>
       <c r="E3">
-        <v>0.7308425903320312</v>
+        <v>0.6474883556365967</v>
       </c>
       <c r="F3">
-        <v>0.7672253847122192</v>
+        <v>0.6707231402397156</v>
       </c>
       <c r="G3">
-        <v>0.7426857948303223</v>
+        <v>0.6694685816764832</v>
       </c>
       <c r="H3">
-        <v>0.7619561553001404</v>
+        <v>0.6635469198226929</v>
       </c>
       <c r="I3">
-        <v>0.7959552407264709</v>
+        <v>0.6993024349212646</v>
       </c>
       <c r="J3">
-        <v>0.7899332642555237</v>
+        <v>0.799493134021759</v>
       </c>
       <c r="K3">
-        <v>0.8090530633926392</v>
+        <v>0.7847644090652466</v>
       </c>
       <c r="L3">
-        <v>0.8286746740341187</v>
+        <v>0.7931951880455017</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -4418,34 +4029,34 @@
         <v>0.04865258187055588</v>
       </c>
       <c r="C4">
-        <v>0.6482160091400146</v>
+        <v>0.6380037069320679</v>
       </c>
       <c r="D4">
-        <v>0.636724054813385</v>
+        <v>0.7028654813766479</v>
       </c>
       <c r="E4">
-        <v>0.6474883556365967</v>
+        <v>0.7091885209083557</v>
       </c>
       <c r="F4">
-        <v>0.6707231402397156</v>
+        <v>0.7627841830253601</v>
       </c>
       <c r="G4">
-        <v>0.6694685816764832</v>
+        <v>0.7525467872619629</v>
       </c>
       <c r="H4">
-        <v>0.6635469198226929</v>
+        <v>0.7764089107513428</v>
       </c>
       <c r="I4">
-        <v>0.6993024349212646</v>
+        <v>0.7990164160728455</v>
       </c>
       <c r="J4">
-        <v>0.799493134021759</v>
+        <v>0.8132433295249939</v>
       </c>
       <c r="K4">
-        <v>0.7847644090652466</v>
+        <v>0.8230290412902832</v>
       </c>
       <c r="L4">
-        <v>0.7931951880455017</v>
+        <v>0.8253123760223389</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -4456,34 +4067,34 @@
         <v>0.04865258187055588</v>
       </c>
       <c r="C5">
-        <v>0.6380037069320679</v>
+        <v>0.7211822867393494</v>
       </c>
       <c r="D5">
-        <v>0.7028654813766479</v>
+        <v>0.7863953709602356</v>
       </c>
       <c r="E5">
-        <v>0.7091885209083557</v>
+        <v>0.8439554572105408</v>
       </c>
       <c r="F5">
-        <v>0.7627841830253601</v>
+        <v>0.8478947877883911</v>
       </c>
       <c r="G5">
-        <v>0.7525467872619629</v>
+        <v>0.8496512174606323</v>
       </c>
       <c r="H5">
-        <v>0.7764089107513428</v>
+        <v>0.8652080297470093</v>
       </c>
       <c r="I5">
-        <v>0.7990164160728455</v>
+        <v>0.8759722709655762</v>
       </c>
       <c r="J5">
-        <v>0.8132433295249939</v>
+        <v>0.8841270804405212</v>
       </c>
       <c r="K5">
-        <v>0.8230290412902832</v>
+        <v>0.8819190263748169</v>
       </c>
       <c r="L5">
-        <v>0.8253123760223389</v>
+        <v>0.8893210291862488</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -4494,34 +4105,34 @@
         <v>0.04865258187055588</v>
       </c>
       <c r="C6">
-        <v>0.7211822867393494</v>
+        <v>0.6713253259658813</v>
       </c>
       <c r="D6">
-        <v>0.7863953709602356</v>
+        <v>0.7281828522682191</v>
       </c>
       <c r="E6">
-        <v>0.8439554572105408</v>
+        <v>0.7358357906341553</v>
       </c>
       <c r="F6">
-        <v>0.8478947877883911</v>
+        <v>0.7816279530525208</v>
       </c>
       <c r="G6">
-        <v>0.8496512174606323</v>
+        <v>0.7690821290016174</v>
       </c>
       <c r="H6">
-        <v>0.8652080297470093</v>
+        <v>0.7852913141250609</v>
       </c>
       <c r="I6">
-        <v>0.8759722709655762</v>
+        <v>0.8006473779678345</v>
       </c>
       <c r="J6">
-        <v>0.8841270804405212</v>
+        <v>0.816680908203125</v>
       </c>
       <c r="K6">
-        <v>0.8819190263748169</v>
+        <v>0.8068450093269348</v>
       </c>
       <c r="L6">
-        <v>0.8893210291862488</v>
+        <v>0.8387364149093628</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -4532,34 +4143,34 @@
         <v>0.04865258187055588</v>
       </c>
       <c r="C7">
-        <v>0.6713253259658813</v>
+        <v>0.7364881634712219</v>
       </c>
       <c r="D7">
-        <v>0.7281828522682191</v>
+        <v>0.7549304962158203</v>
       </c>
       <c r="E7">
-        <v>0.7358357906341553</v>
+        <v>0.794499933719635</v>
       </c>
       <c r="F7">
-        <v>0.7816279530525208</v>
+        <v>0.8570532202720642</v>
       </c>
       <c r="G7">
-        <v>0.7690821290016174</v>
+        <v>0.8737893104553223</v>
       </c>
       <c r="H7">
-        <v>0.7852913141250609</v>
+        <v>0.8675666451454163</v>
       </c>
       <c r="I7">
-        <v>0.8006473779678345</v>
+        <v>0.8831986784934998</v>
       </c>
       <c r="J7">
-        <v>0.816680908203125</v>
+        <v>0.883825957775116</v>
       </c>
       <c r="K7">
-        <v>0.8068450093269348</v>
+        <v>0.9015406370162964</v>
       </c>
       <c r="L7">
-        <v>0.8387364149093628</v>
+        <v>0.9068349599838256</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -4570,34 +4181,34 @@
         <v>0.04865258187055588</v>
       </c>
       <c r="C8">
-        <v>0.7364881634712219</v>
+        <v>0.6193355917930603</v>
       </c>
       <c r="D8">
-        <v>0.7549304962158203</v>
+        <v>0.7056004405021667</v>
       </c>
       <c r="E8">
-        <v>0.794499933719635</v>
+        <v>0.7072063088417053</v>
       </c>
       <c r="F8">
-        <v>0.8570532202720642</v>
+        <v>0.75322425365448</v>
       </c>
       <c r="G8">
-        <v>0.8737893104553223</v>
+        <v>0.7728458642959595</v>
       </c>
       <c r="H8">
-        <v>0.8675666451454163</v>
+        <v>0.7627590894699097</v>
       </c>
       <c r="I8">
-        <v>0.8831986784934998</v>
+        <v>0.7697595953941345</v>
       </c>
       <c r="J8">
-        <v>0.883825957775116</v>
+        <v>0.8203693628311157</v>
       </c>
       <c r="K8">
-        <v>0.9015406370162964</v>
+        <v>0.8217744827270508</v>
       </c>
       <c r="L8">
-        <v>0.9068349599838256</v>
+        <v>0.8289506435394287</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -4608,34 +4219,34 @@
         <v>0.04865258187055588</v>
       </c>
       <c r="C9">
-        <v>0.6193355917930603</v>
+        <v>0.6915742754936218</v>
       </c>
       <c r="D9">
-        <v>0.7056004405021667</v>
+        <v>0.7104180455207825</v>
       </c>
       <c r="E9">
-        <v>0.7072063088417053</v>
+        <v>0.7576152682304382</v>
       </c>
       <c r="F9">
-        <v>0.75322425365448</v>
+        <v>0.7531991600990295</v>
       </c>
       <c r="G9">
-        <v>0.7728458642959595</v>
+        <v>0.7692075967788696</v>
       </c>
       <c r="H9">
-        <v>0.7627590894699097</v>
+        <v>0.75126713514328</v>
       </c>
       <c r="I9">
-        <v>0.7697595953941345</v>
+        <v>0.7715160250663757</v>
       </c>
       <c r="J9">
-        <v>0.8203693628311157</v>
+        <v>0.7922667860984802</v>
       </c>
       <c r="K9">
-        <v>0.8217744827270508</v>
+        <v>0.7962061762809753</v>
       </c>
       <c r="L9">
-        <v>0.8289506435394287</v>
+        <v>0.8058664202690125</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -4646,34 +4257,34 @@
         <v>0.04865258187055588</v>
       </c>
       <c r="C10">
-        <v>0.6915742754936218</v>
+        <v>0.6139408946037292</v>
       </c>
       <c r="D10">
-        <v>0.7104180455207825</v>
+        <v>0.6826416254043579</v>
       </c>
       <c r="E10">
-        <v>0.7576152682304382</v>
+        <v>0.7036182284355164</v>
       </c>
       <c r="F10">
-        <v>0.7531991600990295</v>
+        <v>0.7555326819419861</v>
       </c>
       <c r="G10">
-        <v>0.7692075967788696</v>
+        <v>0.7418326735496521</v>
       </c>
       <c r="H10">
-        <v>0.75126713514328</v>
+        <v>0.7638128995895386</v>
       </c>
       <c r="I10">
-        <v>0.7715160250663757</v>
+        <v>0.7768605351448059</v>
       </c>
       <c r="J10">
-        <v>0.7922667860984802</v>
+        <v>0.8337180614471436</v>
       </c>
       <c r="K10">
-        <v>0.7962061762809753</v>
+        <v>0.8139960765838623</v>
       </c>
       <c r="L10">
-        <v>0.8058664202690125</v>
+        <v>0.8368545174598694</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -4684,34 +4295,34 @@
         <v>0.04865258187055588</v>
       </c>
       <c r="C11">
-        <v>0.6139408946037292</v>
+        <v>0.7071059346199036</v>
       </c>
       <c r="D11">
-        <v>0.6826416254043579</v>
+        <v>0.686079204082489</v>
       </c>
       <c r="E11">
-        <v>0.7036182284355164</v>
+        <v>0.7119737267494202</v>
       </c>
       <c r="F11">
-        <v>0.7555326819419861</v>
+        <v>0.7159883379936218</v>
       </c>
       <c r="G11">
-        <v>0.7418326735496521</v>
+        <v>0.6992020606994629</v>
       </c>
       <c r="H11">
-        <v>0.7638128995895386</v>
+        <v>0.7013348937034607</v>
       </c>
       <c r="I11">
-        <v>0.7768605351448059</v>
+        <v>0.6974456906318665</v>
       </c>
       <c r="J11">
-        <v>0.8337180614471436</v>
+        <v>0.8195915222167969</v>
       </c>
       <c r="K11">
-        <v>0.8139960765838623</v>
+        <v>0.7948009967803955</v>
       </c>
       <c r="L11">
-        <v>0.8368545174598694</v>
+        <v>0.8071711659431458</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -4722,34 +4333,34 @@
         <v>0.04865258187055588</v>
       </c>
       <c r="C12">
-        <v>0.7071059346199036</v>
+        <v>0.6906207799911499</v>
       </c>
       <c r="D12">
-        <v>0.686079204082489</v>
+        <v>0.7322978973388672</v>
       </c>
       <c r="E12">
-        <v>0.7119737267494202</v>
+        <v>0.7252220511436462</v>
       </c>
       <c r="F12">
-        <v>0.7159883379936218</v>
+        <v>0.7714658379554749</v>
       </c>
       <c r="G12">
-        <v>0.6992020606994629</v>
+        <v>0.7936217188835144</v>
       </c>
       <c r="H12">
-        <v>0.7013348937034607</v>
+        <v>0.8134942650794983</v>
       </c>
       <c r="I12">
-        <v>0.6974456906318665</v>
+        <v>0.7813268303871155</v>
       </c>
       <c r="J12">
-        <v>0.8195915222167969</v>
+        <v>0.8048627376556396</v>
       </c>
       <c r="K12">
-        <v>0.7948009967803955</v>
+        <v>0.8299794197082521</v>
       </c>
       <c r="L12">
-        <v>0.8071711659431458</v>
+        <v>0.8192151188850403</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -4760,34 +4371,34 @@
         <v>0.04865258187055588</v>
       </c>
       <c r="C13">
-        <v>0.6906207799911499</v>
+        <v>0.6896421909332275</v>
       </c>
       <c r="D13">
-        <v>0.7322978973388672</v>
+        <v>0.6609374284744263</v>
       </c>
       <c r="E13">
-        <v>0.7252220511436462</v>
+        <v>0.7235659956932068</v>
       </c>
       <c r="F13">
-        <v>0.7714658379554749</v>
+        <v>0.7472022771835327</v>
       </c>
       <c r="G13">
-        <v>0.7936217188835144</v>
+        <v>0.7707632780075073</v>
       </c>
       <c r="H13">
-        <v>0.8134942650794983</v>
+        <v>0.7720680236816406</v>
       </c>
       <c r="I13">
-        <v>0.7813268303871155</v>
+        <v>0.7669493556022644</v>
       </c>
       <c r="J13">
-        <v>0.8048627376556396</v>
+        <v>0.8480202555656433</v>
       </c>
       <c r="K13">
-        <v>0.8299794197082521</v>
+        <v>0.8413960933685303</v>
       </c>
       <c r="L13">
-        <v>0.8192151188850403</v>
+        <v>0.8369548916816711</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -4798,34 +4409,34 @@
         <v>0.04865258187055588</v>
       </c>
       <c r="C14">
-        <v>0.6896421909332275</v>
+        <v>0.6577005982398987</v>
       </c>
       <c r="D14">
-        <v>0.6609374284744263</v>
+        <v>0.7406283020973206</v>
       </c>
       <c r="E14">
-        <v>0.7235659956932068</v>
+        <v>0.7403773665428162</v>
       </c>
       <c r="F14">
-        <v>0.7472022771835327</v>
+        <v>0.8064936995506287</v>
       </c>
       <c r="G14">
-        <v>0.7707632780075073</v>
+        <v>0.8020023107528687</v>
       </c>
       <c r="H14">
-        <v>0.7720680236816406</v>
+        <v>0.8036834597587585</v>
       </c>
       <c r="I14">
-        <v>0.7669493556022644</v>
+        <v>0.7993425726890564</v>
       </c>
       <c r="J14">
-        <v>0.8480202555656433</v>
+        <v>0.8311587572097778</v>
       </c>
       <c r="K14">
-        <v>0.8413960933685303</v>
+        <v>0.7993927597999573</v>
       </c>
       <c r="L14">
-        <v>0.8369548916816711</v>
+        <v>0.8309580087661743</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -4836,34 +4447,34 @@
         <v>0.04865258187055588</v>
       </c>
       <c r="C15">
-        <v>0.6577005982398987</v>
+        <v>0.7091634273529053</v>
       </c>
       <c r="D15">
-        <v>0.7406283020973206</v>
+        <v>0.7274802923202515</v>
       </c>
       <c r="E15">
-        <v>0.7403773665428162</v>
+        <v>0.7354092597961426</v>
       </c>
       <c r="F15">
-        <v>0.8064936995506287</v>
+        <v>0.6877352595329285</v>
       </c>
       <c r="G15">
-        <v>0.8020023107528687</v>
+        <v>0.7291865348815918</v>
       </c>
       <c r="H15">
-        <v>0.8036834597587585</v>
+        <v>0.7022632360458374</v>
       </c>
       <c r="I15">
-        <v>0.7993425726890564</v>
+        <v>0.7310683727264404</v>
       </c>
       <c r="J15">
-        <v>0.8311587572097778</v>
+        <v>0.8220003247261047</v>
       </c>
       <c r="K15">
-        <v>0.7993927597999573</v>
+        <v>0.8064435124397278</v>
       </c>
       <c r="L15">
-        <v>0.8309580087661743</v>
+        <v>0.8202689886093141</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -4874,34 +4485,34 @@
         <v>0.04865258187055588</v>
       </c>
       <c r="C16">
-        <v>0.7091634273529053</v>
+        <v>0.6485421657562256</v>
       </c>
       <c r="D16">
-        <v>0.7274802923202515</v>
+        <v>0.7464746236801147</v>
       </c>
       <c r="E16">
-        <v>0.7354092597961426</v>
+        <v>0.7275555729866028</v>
       </c>
       <c r="F16">
-        <v>0.6877352595329285</v>
+        <v>0.7372910976409912</v>
       </c>
       <c r="G16">
-        <v>0.7291865348815918</v>
+        <v>0.7703618407249451</v>
       </c>
       <c r="H16">
-        <v>0.7022632360458374</v>
+        <v>0.7598484754562378</v>
       </c>
       <c r="I16">
-        <v>0.7310683727264404</v>
+        <v>0.7660209536552429</v>
       </c>
       <c r="J16">
-        <v>0.8220003247261047</v>
+        <v>0.8276960849761963</v>
       </c>
       <c r="K16">
-        <v>0.8064435124397278</v>
+        <v>0.8167060017585754</v>
       </c>
       <c r="L16">
-        <v>0.8202689886093141</v>
+        <v>0.8239574432373047</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -4912,34 +4523,34 @@
         <v>0.04865258187055588</v>
       </c>
       <c r="C17">
-        <v>0.6485421657562256</v>
+        <v>0.6602850556373596</v>
       </c>
       <c r="D17">
-        <v>0.7464746236801147</v>
+        <v>0.6319064497947693</v>
       </c>
       <c r="E17">
-        <v>0.7275555729866028</v>
+        <v>0.6670095920562744</v>
       </c>
       <c r="F17">
-        <v>0.7372910976409912</v>
+        <v>0.702639639377594</v>
       </c>
       <c r="G17">
-        <v>0.7703618407249451</v>
+        <v>0.7053996920585632</v>
       </c>
       <c r="H17">
-        <v>0.7598484754562378</v>
+        <v>0.7037938237190247</v>
       </c>
       <c r="I17">
-        <v>0.7660209536552429</v>
+        <v>0.7352837920188904</v>
       </c>
       <c r="J17">
-        <v>0.8276960849761963</v>
+        <v>0.816279411315918</v>
       </c>
       <c r="K17">
-        <v>0.8167060017585754</v>
+        <v>0.8031564950942993</v>
       </c>
       <c r="L17">
-        <v>0.8239574432373047</v>
+        <v>0.8056154847145081</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -4950,34 +4561,34 @@
         <v>0.04865258187055588</v>
       </c>
       <c r="C18">
-        <v>0.6602850556373596</v>
+        <v>0.6769458651542664</v>
       </c>
       <c r="D18">
-        <v>0.6319064497947693</v>
+        <v>0.7231143712997437</v>
       </c>
       <c r="E18">
-        <v>0.6670095920562744</v>
+        <v>0.7270286679267883</v>
       </c>
       <c r="F18">
-        <v>0.702639639377594</v>
+        <v>0.7665228247642517</v>
       </c>
       <c r="G18">
-        <v>0.7053996920585632</v>
+        <v>0.7810759544372559</v>
       </c>
       <c r="H18">
-        <v>0.7037938237190247</v>
+        <v>0.7731218934059143</v>
       </c>
       <c r="I18">
-        <v>0.7352837920188904</v>
+        <v>0.7781903743743896</v>
       </c>
       <c r="J18">
-        <v>0.816279411315918</v>
+        <v>0.8184874653816223</v>
       </c>
       <c r="K18">
-        <v>0.8031564950942993</v>
+        <v>0.8082752227783203</v>
       </c>
       <c r="L18">
-        <v>0.8056154847145081</v>
+        <v>0.8287750482559204</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -4988,34 +4599,34 @@
         <v>0.04865258187055588</v>
       </c>
       <c r="C19">
-        <v>0.6769458651542664</v>
+        <v>0.6391830444335938</v>
       </c>
       <c r="D19">
-        <v>0.7231143712997437</v>
+        <v>0.7484819889068604</v>
       </c>
       <c r="E19">
-        <v>0.7270286679267883</v>
+        <v>0.7749536037445068</v>
       </c>
       <c r="F19">
-        <v>0.7665228247642517</v>
+        <v>0.8003964424133301</v>
       </c>
       <c r="G19">
-        <v>0.7810759544372559</v>
+        <v>0.7779645919799805</v>
       </c>
       <c r="H19">
-        <v>0.7731218934059143</v>
+        <v>0.7939730286598206</v>
       </c>
       <c r="I19">
-        <v>0.7781903743743896</v>
+        <v>0.8127917051315308</v>
       </c>
       <c r="J19">
-        <v>0.8184874653816223</v>
+        <v>0.8255382180213928</v>
       </c>
       <c r="K19">
-        <v>0.8082752227783203</v>
+        <v>0.8722085356712341</v>
       </c>
       <c r="L19">
-        <v>0.8287750482559204</v>
+        <v>0.839363694190979</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -5026,34 +4637,34 @@
         <v>0.04865258187055588</v>
       </c>
       <c r="C20">
-        <v>0.6391830444335938</v>
+        <v>0.6403623223304749</v>
       </c>
       <c r="D20">
-        <v>0.7484819889068604</v>
+        <v>0.7344808578491211</v>
       </c>
       <c r="E20">
-        <v>0.7749536037445068</v>
+        <v>0.7774627208709717</v>
       </c>
       <c r="F20">
-        <v>0.8003964424133301</v>
+        <v>0.7721934914588928</v>
       </c>
       <c r="G20">
-        <v>0.7779645919799805</v>
+        <v>0.7810759544372559</v>
       </c>
       <c r="H20">
-        <v>0.7939730286598206</v>
+        <v>0.7943242788314819</v>
       </c>
       <c r="I20">
-        <v>0.8127917051315308</v>
+        <v>0.8001956939697266</v>
       </c>
       <c r="J20">
-        <v>0.8255382180213928</v>
+        <v>0.8219752311706543</v>
       </c>
       <c r="K20">
-        <v>0.8722085356712341</v>
+        <v>0.8342951536178589</v>
       </c>
       <c r="L20">
-        <v>0.839363694190979</v>
+        <v>0.8362272381782532</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -5064,34 +4675,34 @@
         <v>0.04865258187055588</v>
       </c>
       <c r="C21">
-        <v>0.6403623223304749</v>
+        <v>0.6081697940826416</v>
       </c>
       <c r="D21">
-        <v>0.7344808578491211</v>
+        <v>0.686806857585907</v>
       </c>
       <c r="E21">
-        <v>0.7774627208709717</v>
+        <v>0.7080594301223755</v>
       </c>
       <c r="F21">
-        <v>0.7721934914588928</v>
+        <v>0.7576654553413391</v>
       </c>
       <c r="G21">
-        <v>0.7810759544372559</v>
+        <v>0.7540020942687988</v>
       </c>
       <c r="H21">
-        <v>0.7943242788314819</v>
+        <v>0.7669493556022644</v>
       </c>
       <c r="I21">
-        <v>0.8001956939697266</v>
+        <v>0.7864204049110413</v>
       </c>
       <c r="J21">
-        <v>0.8219752311706543</v>
+        <v>0.8008731603622437</v>
       </c>
       <c r="K21">
-        <v>0.8342951536178589</v>
+        <v>0.8278215527534485</v>
       </c>
       <c r="L21">
-        <v>0.8362272381782532</v>
+        <v>0.8429768681526184</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -5102,34 +4713,34 @@
         <v>0.04865258187055588</v>
       </c>
       <c r="C22">
-        <v>0.6081697940826416</v>
+        <v>0.685351550579071</v>
       </c>
       <c r="D22">
-        <v>0.686806857585907</v>
+        <v>0.7261002659797668</v>
       </c>
       <c r="E22">
-        <v>0.7080594301223755</v>
+        <v>0.7136297225952148</v>
       </c>
       <c r="F22">
-        <v>0.7576654553413391</v>
+        <v>0.7571636438369751</v>
       </c>
       <c r="G22">
-        <v>0.7540020942687988</v>
+        <v>0.7793446183204651</v>
       </c>
       <c r="H22">
-        <v>0.7669493556022644</v>
+        <v>0.7675766348838806</v>
       </c>
       <c r="I22">
-        <v>0.7864204049110413</v>
+        <v>0.7936468124389648</v>
       </c>
       <c r="J22">
-        <v>0.8008731603622437</v>
+        <v>0.7908867597579956</v>
       </c>
       <c r="K22">
-        <v>0.8278215527534485</v>
+        <v>0.8271691799163818</v>
       </c>
       <c r="L22">
-        <v>0.8429768681526184</v>
+        <v>0.8357003331184387</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -5140,147 +4751,33 @@
         <v>0.04865258187055588</v>
       </c>
       <c r="C23">
-        <v>0.6878857612609863</v>
+        <v>0.8644803762435913</v>
       </c>
       <c r="D23">
-        <v>0.871255099773407</v>
+        <v>0.9339338541030884</v>
       </c>
       <c r="E23">
-        <v>0.9418628215789796</v>
+        <v>0.9460029006004332</v>
       </c>
       <c r="F23">
-        <v>0.9550860524177552</v>
+        <v>0.9727003574371338</v>
       </c>
       <c r="G23">
-        <v>0.9707432389259338</v>
+        <v>0.9829627871513368</v>
       </c>
       <c r="H23">
-        <v>0.971696674823761</v>
+        <v>0.9852461218833924</v>
       </c>
       <c r="I23">
-        <v>0.9853214025497437</v>
+        <v>0.9923470616340636</v>
       </c>
       <c r="J23">
-        <v>0.98848295211792</v>
+        <v>0.9958849549293518</v>
       </c>
       <c r="K23">
-        <v>0.99101722240448</v>
+        <v>0.9968384504318236</v>
       </c>
       <c r="L23">
-        <v>0.9925478100776672</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>0.04865258187055588</v>
-      </c>
-      <c r="C24">
-        <v>0.685351550579071</v>
-      </c>
-      <c r="D24">
-        <v>0.7261002659797668</v>
-      </c>
-      <c r="E24">
-        <v>0.7136297225952148</v>
-      </c>
-      <c r="F24">
-        <v>0.7571636438369751</v>
-      </c>
-      <c r="G24">
-        <v>0.7793446183204651</v>
-      </c>
-      <c r="H24">
-        <v>0.7675766348838806</v>
-      </c>
-      <c r="I24">
-        <v>0.7936468124389648</v>
-      </c>
-      <c r="J24">
-        <v>0.7908867597579956</v>
-      </c>
-      <c r="K24">
-        <v>0.8271691799163818</v>
-      </c>
-      <c r="L24">
-        <v>0.8357003331184387</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>0.04865258187055588</v>
-      </c>
-      <c r="C25">
-        <v>0.814824104309082</v>
-      </c>
-      <c r="D25">
-        <v>0.8532142043113708</v>
-      </c>
-      <c r="E25">
-        <v>0.9024439454078674</v>
-      </c>
-      <c r="F25">
-        <v>0.9089426398277284</v>
-      </c>
-      <c r="G25">
-        <v>0.9271340370178224</v>
-      </c>
-      <c r="H25">
-        <v>0.9462036490440368</v>
-      </c>
-      <c r="I25">
-        <v>0.9506699442863464</v>
-      </c>
-      <c r="J25">
-        <v>0.95621520280838</v>
-      </c>
-      <c r="K25">
-        <v>0.9587494134902954</v>
-      </c>
-      <c r="L25">
-        <v>0.9669795036315918</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>0.04865258187055588</v>
-      </c>
-      <c r="C26">
-        <v>0.8644803762435913</v>
-      </c>
-      <c r="D26">
-        <v>0.9339338541030884</v>
-      </c>
-      <c r="E26">
-        <v>0.9460029006004332</v>
-      </c>
-      <c r="F26">
-        <v>0.9727003574371338</v>
-      </c>
-      <c r="G26">
-        <v>0.9829627871513368</v>
-      </c>
-      <c r="H26">
-        <v>0.9852461218833924</v>
-      </c>
-      <c r="I26">
-        <v>0.9923470616340636</v>
-      </c>
-      <c r="J26">
-        <v>0.9958849549293518</v>
-      </c>
-      <c r="K26">
-        <v>0.9968384504318236</v>
-      </c>
-      <c r="L26">
         <v>0.9974908232688904</v>
       </c>
     </row>
@@ -5291,7 +4788,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5340,34 +4837,34 @@
         <v>0.003626747289672494</v>
       </c>
       <c r="C2">
-        <v>0.8704193234443665</v>
+        <v>0.7194811701774597</v>
       </c>
       <c r="D2">
-        <v>0.9222012162208556</v>
+        <v>0.7717164158821106</v>
       </c>
       <c r="E2">
-        <v>0.9406623840332032</v>
+        <v>0.7701548933982849</v>
       </c>
       <c r="F2">
-        <v>0.9494773745536804</v>
+        <v>0.786575973033905</v>
       </c>
       <c r="G2">
-        <v>0.9578138589859008</v>
+        <v>0.8247827887535095</v>
       </c>
       <c r="H2">
-        <v>0.962196171283722</v>
+        <v>0.8121898770332336</v>
       </c>
       <c r="I2">
-        <v>0.967460036277771</v>
+        <v>0.8087142705917358</v>
       </c>
       <c r="J2">
-        <v>0.9703815579414368</v>
+        <v>0.8562649488449097</v>
       </c>
       <c r="K2">
-        <v>0.9709608554840088</v>
+        <v>0.8524870872497559</v>
       </c>
       <c r="L2">
-        <v>0.97267347574234</v>
+        <v>0.8505730032920837</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -5378,34 +4875,34 @@
         <v>0.003626747289672494</v>
       </c>
       <c r="C3">
-        <v>0.7194811701774597</v>
+        <v>0.6631658673286438</v>
       </c>
       <c r="D3">
-        <v>0.7717164158821106</v>
+        <v>0.6775720715522766</v>
       </c>
       <c r="E3">
-        <v>0.7701548933982849</v>
+        <v>0.6837425827980042</v>
       </c>
       <c r="F3">
-        <v>0.786575973033905</v>
+        <v>0.7625488042831421</v>
       </c>
       <c r="G3">
-        <v>0.8247827887535095</v>
+        <v>0.7381690144538879</v>
       </c>
       <c r="H3">
-        <v>0.8121898770332336</v>
+        <v>0.73869788646698</v>
       </c>
       <c r="I3">
-        <v>0.8087142705917358</v>
+        <v>0.7380178570747375</v>
       </c>
       <c r="J3">
-        <v>0.8562649488449097</v>
+        <v>0.8096964955329895</v>
       </c>
       <c r="K3">
-        <v>0.8524870872497559</v>
+        <v>0.8115350604057312</v>
       </c>
       <c r="L3">
-        <v>0.8505730032920837</v>
+        <v>0.8181085586547852</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -5416,34 +4913,34 @@
         <v>0.003626747289672494</v>
       </c>
       <c r="C4">
-        <v>0.6631658673286438</v>
+        <v>0.7013978362083435</v>
       </c>
       <c r="D4">
-        <v>0.6775720715522766</v>
+        <v>0.7629014253616333</v>
       </c>
       <c r="E4">
-        <v>0.6837425827980042</v>
+        <v>0.7953910231590271</v>
       </c>
       <c r="F4">
-        <v>0.7625488042831421</v>
+        <v>0.7944591641426086</v>
       </c>
       <c r="G4">
-        <v>0.7381690144538879</v>
+        <v>0.8124165534973145</v>
       </c>
       <c r="H4">
-        <v>0.73869788646698</v>
+        <v>0.7981614470481873</v>
       </c>
       <c r="I4">
-        <v>0.7380178570747375</v>
+        <v>0.8204759955406189</v>
       </c>
       <c r="J4">
-        <v>0.8096964955329895</v>
+        <v>0.8410779237747192</v>
       </c>
       <c r="K4">
-        <v>0.8115350604057312</v>
+        <v>0.855559766292572</v>
       </c>
       <c r="L4">
-        <v>0.8181085586547852</v>
+        <v>0.8543004393577576</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -5454,34 +4951,34 @@
         <v>0.003626747289672494</v>
       </c>
       <c r="C5">
-        <v>0.7013978362083435</v>
+        <v>0.746354341506958</v>
       </c>
       <c r="D5">
-        <v>0.7629014253616333</v>
+        <v>0.8071275949478149</v>
       </c>
       <c r="E5">
-        <v>0.7953910231590271</v>
+        <v>0.8541241884231567</v>
       </c>
       <c r="F5">
-        <v>0.7944591641426086</v>
+        <v>0.8709734082221985</v>
       </c>
       <c r="G5">
-        <v>0.8124165534973145</v>
+        <v>0.8802165985107422</v>
       </c>
       <c r="H5">
-        <v>0.7981614470481873</v>
+        <v>0.9022289514541626</v>
       </c>
       <c r="I5">
-        <v>0.8204759955406189</v>
+        <v>0.9173403978347778</v>
       </c>
       <c r="J5">
-        <v>0.8410779237747192</v>
+        <v>0.9190782308578492</v>
       </c>
       <c r="K5">
-        <v>0.855559766292572</v>
+        <v>0.9237375855445862</v>
       </c>
       <c r="L5">
-        <v>0.8543004393577576</v>
+        <v>0.9311169981956482</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -5492,34 +4989,34 @@
         <v>0.003626747289672494</v>
       </c>
       <c r="C6">
-        <v>0.746354341506958</v>
+        <v>0.7022793292999268</v>
       </c>
       <c r="D6">
-        <v>0.8071275949478149</v>
+        <v>0.7869538068771362</v>
       </c>
       <c r="E6">
-        <v>0.8541241884231567</v>
+        <v>0.7883641719818115</v>
       </c>
       <c r="F6">
-        <v>0.8709734082221985</v>
+        <v>0.7918146252632141</v>
       </c>
       <c r="G6">
-        <v>0.8802165985107422</v>
+        <v>0.8183603882789612</v>
       </c>
       <c r="H6">
-        <v>0.9022289514541626</v>
+        <v>0.8168996572494507</v>
       </c>
       <c r="I6">
-        <v>0.9173403978347778</v>
+        <v>0.8364437818527222</v>
       </c>
       <c r="J6">
-        <v>0.9190782308578492</v>
+        <v>0.8470721840858459</v>
       </c>
       <c r="K6">
-        <v>0.9237375855445862</v>
+        <v>0.8487092256546021</v>
       </c>
       <c r="L6">
-        <v>0.9311169981956482</v>
+        <v>0.8770431876182556</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -5530,34 +5027,34 @@
         <v>0.003626747289672494</v>
       </c>
       <c r="C7">
-        <v>0.7022793292999268</v>
+        <v>0.7606850266456604</v>
       </c>
       <c r="D7">
-        <v>0.7869538068771362</v>
+        <v>0.7825462818145752</v>
       </c>
       <c r="E7">
-        <v>0.7883641719818115</v>
+        <v>0.7777861952781677</v>
       </c>
       <c r="F7">
-        <v>0.7918146252632141</v>
+        <v>0.8155648112297058</v>
       </c>
       <c r="G7">
-        <v>0.8183603882789612</v>
+        <v>0.804911196231842</v>
       </c>
       <c r="H7">
-        <v>0.8168996572494507</v>
+        <v>0.8324896097183228</v>
       </c>
       <c r="I7">
-        <v>0.8364437818527222</v>
+        <v>0.8163707256317139</v>
       </c>
       <c r="J7">
-        <v>0.8470721840858459</v>
+        <v>0.8437728285789491</v>
       </c>
       <c r="K7">
-        <v>0.8487092256546021</v>
+        <v>0.8472736477851868</v>
       </c>
       <c r="L7">
-        <v>0.8770431876182556</v>
+        <v>0.8548293709754944</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -5568,34 +5065,34 @@
         <v>0.003626747289672494</v>
       </c>
       <c r="C8">
-        <v>0.7606850266456604</v>
+        <v>0.7085002064704895</v>
       </c>
       <c r="D8">
-        <v>0.7825462818145752</v>
+        <v>0.7741342186927795</v>
       </c>
       <c r="E8">
-        <v>0.7777861952781677</v>
+        <v>0.807656466960907</v>
       </c>
       <c r="F8">
-        <v>0.8155648112297058</v>
+        <v>0.7905049920082092</v>
       </c>
       <c r="G8">
-        <v>0.804911196231842</v>
+        <v>0.7993199825286865</v>
       </c>
       <c r="H8">
-        <v>0.8324896097183228</v>
+        <v>0.8157159090042114</v>
       </c>
       <c r="I8">
-        <v>0.8163707256317139</v>
+        <v>0.8222138285636902</v>
       </c>
       <c r="J8">
-        <v>0.8437728285789491</v>
+        <v>0.8366956114768982</v>
       </c>
       <c r="K8">
-        <v>0.8472736477851868</v>
+        <v>0.8650799393653871</v>
       </c>
       <c r="L8">
-        <v>0.8548293709754944</v>
+        <v>0.8570960760116577</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -5606,34 +5103,34 @@
         <v>0.003626747289672494</v>
       </c>
       <c r="C9">
-        <v>0.7085002064704895</v>
+        <v>0.6782269477844238</v>
       </c>
       <c r="D9">
-        <v>0.7741342186927795</v>
+        <v>0.6999874114990234</v>
       </c>
       <c r="E9">
-        <v>0.807656466960907</v>
+        <v>0.7075179219245911</v>
       </c>
       <c r="F9">
-        <v>0.7905049920082092</v>
+        <v>0.7648407220840454</v>
       </c>
       <c r="G9">
-        <v>0.7993199825286865</v>
+        <v>0.7751920223236084</v>
       </c>
       <c r="H9">
-        <v>0.8157159090042114</v>
+        <v>0.7741090655326843</v>
       </c>
       <c r="I9">
-        <v>0.8222138285636902</v>
+        <v>0.7744868397712708</v>
       </c>
       <c r="J9">
-        <v>0.8366956114768982</v>
+        <v>0.8165218234062195</v>
       </c>
       <c r="K9">
-        <v>0.8650799393653871</v>
+        <v>0.8286613821983337</v>
       </c>
       <c r="L9">
-        <v>0.8570960760116577</v>
+        <v>0.8502959609031677</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -5644,34 +5141,34 @@
         <v>0.003626747289672494</v>
       </c>
       <c r="C10">
-        <v>0.6782269477844238</v>
+        <v>0.7043697237968445</v>
       </c>
       <c r="D10">
-        <v>0.6999874114990234</v>
+        <v>0.7719682455062866</v>
       </c>
       <c r="E10">
-        <v>0.7075179219245911</v>
+        <v>0.7971036434173584</v>
       </c>
       <c r="F10">
-        <v>0.7648407220840454</v>
+        <v>0.7922176122665405</v>
       </c>
       <c r="G10">
-        <v>0.7751920223236084</v>
+        <v>0.8220627307891846</v>
       </c>
       <c r="H10">
-        <v>0.7741090655326843</v>
+        <v>0.8114091157913208</v>
       </c>
       <c r="I10">
-        <v>0.7744868397712708</v>
+        <v>0.8210804462432861</v>
       </c>
       <c r="J10">
-        <v>0.8165218234062195</v>
+        <v>0.8517819046974182</v>
       </c>
       <c r="K10">
-        <v>0.8286613821983337</v>
+        <v>0.8463165760040283</v>
       </c>
       <c r="L10">
-        <v>0.8502959609031677</v>
+        <v>0.8515300154685974</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -5682,34 +5179,34 @@
         <v>0.003626747289672494</v>
       </c>
       <c r="C11">
-        <v>0.7043697237968445</v>
+        <v>0.7356000542640686</v>
       </c>
       <c r="D11">
-        <v>0.7719682455062866</v>
+        <v>0.7164337038993835</v>
       </c>
       <c r="E11">
-        <v>0.7971036434173584</v>
+        <v>0.7370859980583191</v>
       </c>
       <c r="F11">
-        <v>0.7922176122665405</v>
+        <v>0.7362297177314758</v>
       </c>
       <c r="G11">
-        <v>0.8220627307891846</v>
+        <v>0.7574360966682434</v>
       </c>
       <c r="H11">
-        <v>0.8114091157913208</v>
+        <v>0.775116503238678</v>
       </c>
       <c r="I11">
-        <v>0.8210804462432861</v>
+        <v>0.7607606053352356</v>
       </c>
       <c r="J11">
-        <v>0.8517819046974182</v>
+        <v>0.8088150024414062</v>
       </c>
       <c r="K11">
-        <v>0.8463165760040283</v>
+        <v>0.8206523060798645</v>
       </c>
       <c r="L11">
-        <v>0.8515300154685974</v>
+        <v>0.8647021651268005</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -5720,34 +5217,34 @@
         <v>0.003626747289672494</v>
       </c>
       <c r="C12">
-        <v>0.7356000542640686</v>
+        <v>0.7078957557678223</v>
       </c>
       <c r="D12">
-        <v>0.7164337038993835</v>
+        <v>0.7841078042984009</v>
       </c>
       <c r="E12">
-        <v>0.7370859980583191</v>
+        <v>0.8021156191825867</v>
       </c>
       <c r="F12">
-        <v>0.7362297177314758</v>
+        <v>0.7976577281951904</v>
       </c>
       <c r="G12">
-        <v>0.7574360966682434</v>
+        <v>0.8167484998703003</v>
       </c>
       <c r="H12">
-        <v>0.775116503238678</v>
+        <v>0.8109558224678041</v>
       </c>
       <c r="I12">
-        <v>0.7607606053352356</v>
+        <v>0.8245308995246887</v>
       </c>
       <c r="J12">
-        <v>0.8088150024414062</v>
+        <v>0.8615791201591492</v>
       </c>
       <c r="K12">
-        <v>0.8206523060798645</v>
+        <v>0.8541997075080872</v>
       </c>
       <c r="L12">
-        <v>0.8647021651268005</v>
+        <v>0.865356981754303</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -5758,34 +5255,34 @@
         <v>0.003626747289672494</v>
       </c>
       <c r="C13">
-        <v>0.7078957557678223</v>
+        <v>0.7162573933601379</v>
       </c>
       <c r="D13">
-        <v>0.7841078042984009</v>
+        <v>0.7206900715827942</v>
       </c>
       <c r="E13">
-        <v>0.8021156191825867</v>
+        <v>0.7349703907966614</v>
       </c>
       <c r="F13">
-        <v>0.7976577281951904</v>
+        <v>0.7638080716133118</v>
       </c>
       <c r="G13">
-        <v>0.8167484998703003</v>
+        <v>0.7759476304054259</v>
       </c>
       <c r="H13">
-        <v>0.8109558224678041</v>
+        <v>0.7674599885940552</v>
       </c>
       <c r="I13">
-        <v>0.8245308995246887</v>
+        <v>0.7816899418830872</v>
       </c>
       <c r="J13">
-        <v>0.8615791201591492</v>
+        <v>0.8328673839569092</v>
       </c>
       <c r="K13">
-        <v>0.8541997075080872</v>
+        <v>0.862913966178894</v>
       </c>
       <c r="L13">
-        <v>0.865356981754303</v>
+        <v>0.8438987731933594</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -5796,34 +5293,34 @@
         <v>0.003626747289672494</v>
       </c>
       <c r="C14">
-        <v>0.7162573933601379</v>
+        <v>0.7192041277885437</v>
       </c>
       <c r="D14">
-        <v>0.7206900715827942</v>
+        <v>0.789598286151886</v>
       </c>
       <c r="E14">
-        <v>0.7349703907966614</v>
+        <v>0.7977333068847656</v>
       </c>
       <c r="F14">
-        <v>0.7638080716133118</v>
+        <v>0.8081349730491638</v>
       </c>
       <c r="G14">
-        <v>0.7759476304054259</v>
+        <v>0.8209041953086853</v>
       </c>
       <c r="H14">
-        <v>0.7674599885940552</v>
+        <v>0.8161188960075378</v>
       </c>
       <c r="I14">
-        <v>0.7816899418830872</v>
+        <v>0.8211056590080261</v>
       </c>
       <c r="J14">
-        <v>0.8328673839569092</v>
+        <v>0.84818035364151</v>
       </c>
       <c r="K14">
-        <v>0.862913966178894</v>
+        <v>0.8569701313972473</v>
       </c>
       <c r="L14">
-        <v>0.8438987731933594</v>
+        <v>0.8598161339759827</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -5834,34 +5331,34 @@
         <v>0.003626747289672494</v>
       </c>
       <c r="C15">
-        <v>0.7192041277885437</v>
+        <v>0.7140410542488098</v>
       </c>
       <c r="D15">
-        <v>0.789598286151886</v>
+        <v>0.7178189158439636</v>
       </c>
       <c r="E15">
-        <v>0.7977333068847656</v>
+        <v>0.7151492238044739</v>
       </c>
       <c r="F15">
-        <v>0.8081349730491638</v>
+        <v>0.7802039980888367</v>
       </c>
       <c r="G15">
-        <v>0.8209041953086853</v>
+        <v>0.7785417437553406</v>
       </c>
       <c r="H15">
-        <v>0.8161188960075378</v>
+        <v>0.7884649038314819</v>
       </c>
       <c r="I15">
-        <v>0.8211056590080261</v>
+        <v>0.768517792224884</v>
       </c>
       <c r="J15">
-        <v>0.84818035364151</v>
+        <v>0.8253368735313416</v>
       </c>
       <c r="K15">
-        <v>0.8569701313972473</v>
+        <v>0.8337488770484924</v>
       </c>
       <c r="L15">
-        <v>0.8598161339759827</v>
+        <v>0.8753809332847595</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -5872,34 +5369,34 @@
         <v>0.003626747289672494</v>
       </c>
       <c r="C16">
-        <v>0.7140410542488098</v>
+        <v>0.6970154643058777</v>
       </c>
       <c r="D16">
-        <v>0.7178189158439636</v>
+        <v>0.7620450854301453</v>
       </c>
       <c r="E16">
-        <v>0.7151492238044739</v>
+        <v>0.7691223025321959</v>
       </c>
       <c r="F16">
-        <v>0.7802039980888367</v>
+        <v>0.8179826140403748</v>
       </c>
       <c r="G16">
-        <v>0.7785417437553406</v>
+        <v>0.8129706382751465</v>
       </c>
       <c r="H16">
-        <v>0.7884649038314819</v>
+        <v>0.8131721615791321</v>
       </c>
       <c r="I16">
-        <v>0.768517792224884</v>
+        <v>0.8097720742225647</v>
       </c>
       <c r="J16">
-        <v>0.8253368735313416</v>
+        <v>0.8347815275192261</v>
       </c>
       <c r="K16">
-        <v>0.8337488770484924</v>
+        <v>0.8524870872497559</v>
       </c>
       <c r="L16">
-        <v>0.8753809332847595</v>
+        <v>0.9034126400947572</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -5910,34 +5407,34 @@
         <v>0.003626747289672494</v>
       </c>
       <c r="C17">
-        <v>0.6970154643058777</v>
+        <v>0.6762875914573669</v>
       </c>
       <c r="D17">
-        <v>0.7620450854301453</v>
+        <v>0.6934139132499695</v>
       </c>
       <c r="E17">
-        <v>0.7691223025321959</v>
+        <v>0.7003148198127747</v>
       </c>
       <c r="F17">
-        <v>0.8179826140403748</v>
+        <v>0.7432313561439514</v>
       </c>
       <c r="G17">
-        <v>0.8129706382751465</v>
+        <v>0.7476891875267029</v>
       </c>
       <c r="H17">
-        <v>0.8131721615791321</v>
+        <v>0.7677874565124512</v>
       </c>
       <c r="I17">
-        <v>0.8097720742225647</v>
+        <v>0.7800780534744263</v>
       </c>
       <c r="J17">
-        <v>0.8347815275192261</v>
+        <v>0.8086135387420654</v>
       </c>
       <c r="K17">
-        <v>0.8524870872497559</v>
+        <v>0.8270242810249329</v>
       </c>
       <c r="L17">
-        <v>0.9034126400947572</v>
+        <v>0.8234479427337646</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -5948,34 +5445,34 @@
         <v>0.003626747289672494</v>
       </c>
       <c r="C18">
-        <v>0.6762875914573669</v>
+        <v>0.7014482021331787</v>
       </c>
       <c r="D18">
-        <v>0.6934139132499695</v>
+        <v>0.7883641719818115</v>
       </c>
       <c r="E18">
-        <v>0.7003148198127747</v>
+        <v>0.7927464842796326</v>
       </c>
       <c r="F18">
-        <v>0.7432313561439514</v>
+        <v>0.8161188960075378</v>
       </c>
       <c r="G18">
-        <v>0.7476891875267029</v>
+        <v>0.8156655430793762</v>
       </c>
       <c r="H18">
-        <v>0.7677874565124512</v>
+        <v>0.8093690872192383</v>
       </c>
       <c r="I18">
-        <v>0.7800780534744263</v>
+        <v>0.8202241659164429</v>
       </c>
       <c r="J18">
-        <v>0.8086135387420654</v>
+        <v>0.8284599184989929</v>
       </c>
       <c r="K18">
-        <v>0.8270242810249329</v>
+        <v>0.8498929738998413</v>
       </c>
       <c r="L18">
-        <v>0.8234479427337646</v>
+        <v>0.8836670517921448</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -5986,34 +5483,34 @@
         <v>0.003626747289672494</v>
       </c>
       <c r="C19">
-        <v>0.7014482021331787</v>
+        <v>0.7069134712219238</v>
       </c>
       <c r="D19">
-        <v>0.7883641719818115</v>
+        <v>0.7831255793571472</v>
       </c>
       <c r="E19">
-        <v>0.7927464842796326</v>
+        <v>0.8062208890914917</v>
       </c>
       <c r="F19">
-        <v>0.8161188960075378</v>
+        <v>0.7948369383811951</v>
       </c>
       <c r="G19">
-        <v>0.8156655430793762</v>
+        <v>0.7979095578193665</v>
       </c>
       <c r="H19">
-        <v>0.8093690872192383</v>
+        <v>0.8163203597068787</v>
       </c>
       <c r="I19">
-        <v>0.8202241659164429</v>
+        <v>0.7986903190612793</v>
       </c>
       <c r="J19">
-        <v>0.8284599184989929</v>
+        <v>0.8354111313819885</v>
       </c>
       <c r="K19">
-        <v>0.8498929738998413</v>
+        <v>0.8476766347885132</v>
       </c>
       <c r="L19">
-        <v>0.8836670517921448</v>
+        <v>0.8560634851455688</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -6024,34 +5521,34 @@
         <v>0.003626747289672494</v>
       </c>
       <c r="C20">
-        <v>0.7069134712219238</v>
+        <v>0.7164588570594788</v>
       </c>
       <c r="D20">
-        <v>0.7831255793571472</v>
+        <v>0.7821936607360841</v>
       </c>
       <c r="E20">
-        <v>0.8062208890914917</v>
+        <v>0.7938295006752014</v>
       </c>
       <c r="F20">
-        <v>0.7948369383811951</v>
+        <v>0.8171514868736267</v>
       </c>
       <c r="G20">
-        <v>0.7979095578193665</v>
+        <v>0.8362422585487366</v>
       </c>
       <c r="H20">
-        <v>0.8163203597068787</v>
+        <v>0.8141543865203857</v>
       </c>
       <c r="I20">
-        <v>0.7986903190612793</v>
+        <v>0.8494144082069397</v>
       </c>
       <c r="J20">
-        <v>0.8354111313819885</v>
+        <v>0.8500692844390869</v>
       </c>
       <c r="K20">
-        <v>0.8476766347885132</v>
+        <v>0.8559375405311584</v>
       </c>
       <c r="L20">
-        <v>0.8560634851455688</v>
+        <v>0.8547537922859192</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -6062,34 +5559,34 @@
         <v>0.003626747289672494</v>
       </c>
       <c r="C21">
-        <v>0.7164588570594788</v>
+        <v>0.713260293006897</v>
       </c>
       <c r="D21">
-        <v>0.7821936607360841</v>
+        <v>0.7639591693878174</v>
       </c>
       <c r="E21">
-        <v>0.7938295006752014</v>
+        <v>0.7606598734855652</v>
       </c>
       <c r="F21">
-        <v>0.8171514868736267</v>
+        <v>0.8162196278572083</v>
       </c>
       <c r="G21">
-        <v>0.8362422585487366</v>
+        <v>0.8172018527984619</v>
       </c>
       <c r="H21">
-        <v>0.8141543865203857</v>
+        <v>0.8201485872268677</v>
       </c>
       <c r="I21">
-        <v>0.8494144082069397</v>
+        <v>0.8194685578346252</v>
       </c>
       <c r="J21">
-        <v>0.8500692844390869</v>
+        <v>0.8447299003601074</v>
       </c>
       <c r="K21">
-        <v>0.8559375405311584</v>
+        <v>0.8438735604286194</v>
       </c>
       <c r="L21">
-        <v>0.8547537922859192</v>
+        <v>0.8558368086814879</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -6100,34 +5597,34 @@
         <v>0.003626747289672494</v>
       </c>
       <c r="C22">
-        <v>0.713260293006897</v>
+        <v>0.7124543786048889</v>
       </c>
       <c r="D22">
-        <v>0.7639591693878174</v>
+        <v>0.7656214833259583</v>
       </c>
       <c r="E22">
-        <v>0.7606598734855652</v>
+        <v>0.7839314937591553</v>
       </c>
       <c r="F22">
-        <v>0.8162196278572083</v>
+        <v>0.8060949444770813</v>
       </c>
       <c r="G22">
-        <v>0.8172018527984619</v>
+        <v>0.818612277507782</v>
       </c>
       <c r="H22">
-        <v>0.8201485872268677</v>
+        <v>0.8087142705917358</v>
       </c>
       <c r="I22">
-        <v>0.8194685578346252</v>
+        <v>0.8281828761100769</v>
       </c>
       <c r="J22">
-        <v>0.8447299003601074</v>
+        <v>0.8369978666305542</v>
       </c>
       <c r="K22">
-        <v>0.8438735604286194</v>
+        <v>0.8612265586853027</v>
       </c>
       <c r="L22">
-        <v>0.8558368086814879</v>
+        <v>0.8680015206336975</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -6138,147 +5635,33 @@
         <v>0.003626747289672494</v>
       </c>
       <c r="C23">
-        <v>0.7743861079216003</v>
+        <v>0.8441506028175354</v>
       </c>
       <c r="D23">
-        <v>0.8929857611656189</v>
+        <v>0.9211937785148621</v>
       </c>
       <c r="E23">
-        <v>0.9313688278198242</v>
+        <v>0.9451957941055298</v>
       </c>
       <c r="F23">
-        <v>0.96164208650589</v>
+        <v>0.9673088788986206</v>
       </c>
       <c r="G23">
-        <v>0.983024835586548</v>
+        <v>0.9800025224685668</v>
       </c>
       <c r="H23">
-        <v>0.9907568097114564</v>
+        <v>0.9894471764564514</v>
       </c>
       <c r="I23">
-        <v>0.9960710406303406</v>
+        <v>0.9945850372314452</v>
       </c>
       <c r="J23">
-        <v>0.9973806738853456</v>
+        <v>0.997506618499756</v>
       </c>
       <c r="K23">
-        <v>0.9980858564376832</v>
+        <v>0.998312532901764</v>
       </c>
       <c r="L23">
-        <v>0.9987658858299256</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>0.003626747289672494</v>
-      </c>
-      <c r="C24">
-        <v>0.7124543786048889</v>
-      </c>
-      <c r="D24">
-        <v>0.7656214833259583</v>
-      </c>
-      <c r="E24">
-        <v>0.7839314937591553</v>
-      </c>
-      <c r="F24">
-        <v>0.8060949444770813</v>
-      </c>
-      <c r="G24">
-        <v>0.818612277507782</v>
-      </c>
-      <c r="H24">
-        <v>0.8087142705917358</v>
-      </c>
-      <c r="I24">
-        <v>0.8281828761100769</v>
-      </c>
-      <c r="J24">
-        <v>0.8369978666305542</v>
-      </c>
-      <c r="K24">
-        <v>0.8612265586853027</v>
-      </c>
-      <c r="L24">
-        <v>0.8680015206336975</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>0.003626747289672494</v>
-      </c>
-      <c r="C25">
-        <v>0.7564034461975098</v>
-      </c>
-      <c r="D25">
-        <v>0.9069386720657348</v>
-      </c>
-      <c r="E25">
-        <v>0.9488981366157532</v>
-      </c>
-      <c r="F25">
-        <v>0.9644880890846252</v>
-      </c>
-      <c r="G25">
-        <v>0.9760987162590028</v>
-      </c>
-      <c r="H25">
-        <v>0.9814129471778872</v>
-      </c>
-      <c r="I25">
-        <v>0.9856944680213928</v>
-      </c>
-      <c r="J25">
-        <v>0.9884145855903624</v>
-      </c>
-      <c r="K25">
-        <v>0.9902783036231996</v>
-      </c>
-      <c r="L25">
-        <v>0.9915375709533693</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>0.003626747289672494</v>
-      </c>
-      <c r="C26">
-        <v>0.8441506028175354</v>
-      </c>
-      <c r="D26">
-        <v>0.9211937785148621</v>
-      </c>
-      <c r="E26">
-        <v>0.9451957941055298</v>
-      </c>
-      <c r="F26">
-        <v>0.9673088788986206</v>
-      </c>
-      <c r="G26">
-        <v>0.9800025224685668</v>
-      </c>
-      <c r="H26">
-        <v>0.9894471764564514</v>
-      </c>
-      <c r="I26">
-        <v>0.9945850372314452</v>
-      </c>
-      <c r="J26">
-        <v>0.997506618499756</v>
-      </c>
-      <c r="K26">
-        <v>0.998312532901764</v>
-      </c>
-      <c r="L26">
         <v>0.9986399412155152</v>
       </c>
     </row>
@@ -6289,7 +5672,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6338,34 +5721,34 @@
         <v>0.001057326328009367</v>
       </c>
       <c r="C2">
-        <v>0.7189338207244873</v>
+        <v>0.6675093173980713</v>
       </c>
       <c r="D2">
-        <v>0.7538544535636902</v>
+        <v>0.69427889585495</v>
       </c>
       <c r="E2">
-        <v>0.7820658087730408</v>
+        <v>0.7005459666252136</v>
       </c>
       <c r="F2">
-        <v>0.8003767728805542</v>
+        <v>0.7365719676017761</v>
       </c>
       <c r="G2">
-        <v>0.8127859830856323</v>
+        <v>0.7584201693534851</v>
       </c>
       <c r="H2">
-        <v>0.8260409832000732</v>
+        <v>0.7633703947067261</v>
       </c>
       <c r="I2">
-        <v>0.8363643288612366</v>
+        <v>0.7809796333312988</v>
       </c>
       <c r="J2">
-        <v>0.8477065563201904</v>
+        <v>0.7903321981430054</v>
       </c>
       <c r="K2">
-        <v>0.858279824256897</v>
+        <v>0.7876504063606262</v>
       </c>
       <c r="L2">
-        <v>0.8647679686546326</v>
+        <v>0.8151024580001831</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -6376,34 +5759,34 @@
         <v>0.001057326328009367</v>
       </c>
       <c r="C3">
-        <v>0.6675093173980713</v>
+        <v>0.6745261549949646</v>
       </c>
       <c r="D3">
-        <v>0.69427889585495</v>
+        <v>0.6644430756568909</v>
       </c>
       <c r="E3">
-        <v>0.7005459666252136</v>
+        <v>0.6930485367774963</v>
       </c>
       <c r="F3">
-        <v>0.7365719676017761</v>
+        <v>0.7287477254867554</v>
       </c>
       <c r="G3">
-        <v>0.7584201693534851</v>
+        <v>0.7237302660942078</v>
       </c>
       <c r="H3">
-        <v>0.7633703947067261</v>
+        <v>0.7482506036758423</v>
       </c>
       <c r="I3">
-        <v>0.7809796333312988</v>
+        <v>0.7584105730056763</v>
       </c>
       <c r="J3">
-        <v>0.7903321981430054</v>
+        <v>0.7877658009529114</v>
       </c>
       <c r="K3">
-        <v>0.7876504063606262</v>
+        <v>0.8010303974151611</v>
       </c>
       <c r="L3">
-        <v>0.8151024580001831</v>
+        <v>0.815064013004303</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -6414,34 +5797,34 @@
         <v>0.001057326328009367</v>
       </c>
       <c r="C4">
-        <v>0.6745261549949646</v>
+        <v>0.6794090270996094</v>
       </c>
       <c r="D4">
-        <v>0.6644430756568909</v>
+        <v>0.7060921192169191</v>
       </c>
       <c r="E4">
-        <v>0.6930485367774963</v>
+        <v>0.7149352431297302</v>
       </c>
       <c r="F4">
-        <v>0.7287477254867554</v>
+        <v>0.7376773357391357</v>
       </c>
       <c r="G4">
-        <v>0.7237302660942078</v>
+        <v>0.7425410151481628</v>
       </c>
       <c r="H4">
-        <v>0.7482506036758423</v>
+        <v>0.7624956965446472</v>
       </c>
       <c r="I4">
-        <v>0.7584105730056763</v>
+        <v>0.7696951031684875</v>
       </c>
       <c r="J4">
-        <v>0.7877658009529114</v>
+        <v>0.7839593887329102</v>
       </c>
       <c r="K4">
-        <v>0.8010303974151611</v>
+        <v>0.7945422530174255</v>
       </c>
       <c r="L4">
-        <v>0.815064013004303</v>
+        <v>0.7995693683624268</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -6452,34 +5835,34 @@
         <v>0.001057326328009367</v>
       </c>
       <c r="C5">
-        <v>0.6794090270996094</v>
+        <v>0.6898958086967468</v>
       </c>
       <c r="D5">
-        <v>0.7060921192169191</v>
+        <v>0.6992291212081909</v>
       </c>
       <c r="E5">
-        <v>0.7149352431297302</v>
+        <v>0.7261044383049011</v>
       </c>
       <c r="F5">
-        <v>0.7376773357391357</v>
+        <v>0.7365046739578247</v>
       </c>
       <c r="G5">
-        <v>0.7425410151481628</v>
+        <v>0.7555077075958252</v>
       </c>
       <c r="H5">
-        <v>0.7624956965446472</v>
+        <v>0.7762409448623657</v>
       </c>
       <c r="I5">
-        <v>0.7696951031684875</v>
+        <v>0.7729439735412598</v>
       </c>
       <c r="J5">
-        <v>0.7839593887329102</v>
+        <v>0.7924468517303467</v>
       </c>
       <c r="K5">
-        <v>0.7945422530174255</v>
+        <v>0.8052981495857239</v>
       </c>
       <c r="L5">
-        <v>0.7995693683624268</v>
+        <v>0.8155927062034607</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -6490,34 +5873,34 @@
         <v>0.001057326328009367</v>
       </c>
       <c r="C6">
-        <v>0.6898958086967468</v>
+        <v>0.6844361424446106</v>
       </c>
       <c r="D6">
-        <v>0.6992291212081909</v>
+        <v>0.7062267065048218</v>
       </c>
       <c r="E6">
-        <v>0.7261044383049011</v>
+        <v>0.7158195376396179</v>
       </c>
       <c r="F6">
-        <v>0.7365046739578247</v>
+        <v>0.7278634309768677</v>
       </c>
       <c r="G6">
-        <v>0.7555077075958252</v>
+        <v>0.7381098866462708</v>
       </c>
       <c r="H6">
-        <v>0.7762409448623657</v>
+        <v>0.7568245530128479</v>
       </c>
       <c r="I6">
-        <v>0.7729439735412598</v>
+        <v>0.7786343097686768</v>
       </c>
       <c r="J6">
-        <v>0.7924468517303467</v>
+        <v>0.7853339314460754</v>
       </c>
       <c r="K6">
-        <v>0.8052981495857239</v>
+        <v>0.8020396828651428</v>
       </c>
       <c r="L6">
-        <v>0.8155927062034607</v>
+        <v>0.8075089454650879</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -6528,34 +5911,34 @@
         <v>0.001057326328009367</v>
       </c>
       <c r="C7">
-        <v>0.6844361424446106</v>
+        <v>0.7098023891448975</v>
       </c>
       <c r="D7">
-        <v>0.7062267065048218</v>
+        <v>0.7088219523429871</v>
       </c>
       <c r="E7">
-        <v>0.7158195376396179</v>
+        <v>0.7283921241760254</v>
       </c>
       <c r="F7">
-        <v>0.7278634309768677</v>
+        <v>0.7468568682670593</v>
       </c>
       <c r="G7">
-        <v>0.7381098866462708</v>
+        <v>0.7603906393051147</v>
       </c>
       <c r="H7">
-        <v>0.7568245530128479</v>
+        <v>0.764504611492157</v>
       </c>
       <c r="I7">
-        <v>0.7786343097686768</v>
+        <v>0.7771252393722534</v>
       </c>
       <c r="J7">
-        <v>0.7853339314460754</v>
+        <v>0.8011649847030641</v>
       </c>
       <c r="K7">
-        <v>0.8020396828651428</v>
+        <v>0.8065958023071289</v>
       </c>
       <c r="L7">
-        <v>0.8075089454650879</v>
+        <v>0.8208120465278625</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -6566,34 +5949,34 @@
         <v>0.001057326328009367</v>
       </c>
       <c r="C8">
-        <v>0.7098023891448975</v>
+        <v>0.6751124858856201</v>
       </c>
       <c r="D8">
-        <v>0.7088219523429871</v>
+        <v>0.6993829011917114</v>
       </c>
       <c r="E8">
-        <v>0.7283921241760254</v>
+        <v>0.7191837430000305</v>
       </c>
       <c r="F8">
-        <v>0.7468568682670593</v>
+        <v>0.7260371446609497</v>
       </c>
       <c r="G8">
-        <v>0.7603906393051147</v>
+        <v>0.7544792294502258</v>
       </c>
       <c r="H8">
-        <v>0.764504611492157</v>
+        <v>0.7593813538551331</v>
       </c>
       <c r="I8">
-        <v>0.7771252393722534</v>
+        <v>0.7815083265304565</v>
       </c>
       <c r="J8">
-        <v>0.8011649847030641</v>
+        <v>0.7939943671226501</v>
       </c>
       <c r="K8">
-        <v>0.8065958023071289</v>
+        <v>0.7989445924758911</v>
       </c>
       <c r="L8">
-        <v>0.8208120465278625</v>
+        <v>0.8099215626716614</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -6604,34 +5987,34 @@
         <v>0.001057326328009367</v>
       </c>
       <c r="C9">
-        <v>0.6751124858856201</v>
+        <v>0.7208754420280457</v>
       </c>
       <c r="D9">
-        <v>0.6993829011917114</v>
+        <v>0.7214906215667725</v>
       </c>
       <c r="E9">
-        <v>0.7191837430000305</v>
+        <v>0.7371198534965515</v>
       </c>
       <c r="F9">
-        <v>0.7260371446609497</v>
+        <v>0.7446749210357666</v>
       </c>
       <c r="G9">
-        <v>0.7544792294502258</v>
+        <v>0.7626206278800964</v>
       </c>
       <c r="H9">
-        <v>0.7593813538551331</v>
+        <v>0.7602753043174744</v>
       </c>
       <c r="I9">
-        <v>0.7815083265304565</v>
+        <v>0.7778076529502869</v>
       </c>
       <c r="J9">
-        <v>0.7939943671226501</v>
+        <v>0.7985889315605164</v>
       </c>
       <c r="K9">
-        <v>0.7989445924758911</v>
+        <v>0.8157753348350525</v>
       </c>
       <c r="L9">
-        <v>0.8099215626716614</v>
+        <v>0.8215521574020386</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -6642,34 +6025,34 @@
         <v>0.001057326328009367</v>
       </c>
       <c r="C10">
-        <v>0.7208754420280457</v>
+        <v>0.6765446662902832</v>
       </c>
       <c r="D10">
-        <v>0.7214906215667725</v>
+        <v>0.7092736959457397</v>
       </c>
       <c r="E10">
-        <v>0.7371198534965515</v>
+        <v>0.7118209004402161</v>
       </c>
       <c r="F10">
-        <v>0.7446749210357666</v>
+        <v>0.7247779369354248</v>
       </c>
       <c r="G10">
-        <v>0.7626206278800964</v>
+        <v>0.7528355717658997</v>
       </c>
       <c r="H10">
-        <v>0.7602753043174744</v>
+        <v>0.7549213767051697</v>
       </c>
       <c r="I10">
-        <v>0.7778076529502869</v>
+        <v>0.7689165472984314</v>
       </c>
       <c r="J10">
-        <v>0.7985889315605164</v>
+        <v>0.7803068161010742</v>
       </c>
       <c r="K10">
-        <v>0.8157753348350525</v>
+        <v>0.7930523753166199</v>
       </c>
       <c r="L10">
-        <v>0.8215521574020386</v>
+        <v>0.8138144612312317</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -6680,34 +6063,34 @@
         <v>0.001057326328009367</v>
       </c>
       <c r="C11">
-        <v>0.6765446662902832</v>
+        <v>0.7088027000427246</v>
       </c>
       <c r="D11">
-        <v>0.7092736959457397</v>
+        <v>0.7071878910064697</v>
       </c>
       <c r="E11">
-        <v>0.7118209004402161</v>
+        <v>0.7329481840133667</v>
       </c>
       <c r="F11">
-        <v>0.7247779369354248</v>
+        <v>0.7609769701957703</v>
       </c>
       <c r="G11">
-        <v>0.7528355717658997</v>
+        <v>0.7612460851669312</v>
       </c>
       <c r="H11">
-        <v>0.7549213767051697</v>
+        <v>0.7756353616714478</v>
       </c>
       <c r="I11">
-        <v>0.7689165472984314</v>
+        <v>0.7795955538749695</v>
       </c>
       <c r="J11">
-        <v>0.7803068161010742</v>
+        <v>0.8053846955299377</v>
       </c>
       <c r="K11">
-        <v>0.7930523753166199</v>
+        <v>0.8076146841049194</v>
       </c>
       <c r="L11">
-        <v>0.8138144612312317</v>
+        <v>0.8224653005599976</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -6718,34 +6101,34 @@
         <v>0.001057326328009367</v>
       </c>
       <c r="C12">
-        <v>0.7088027000427246</v>
+        <v>0.6838209629058838</v>
       </c>
       <c r="D12">
-        <v>0.7071878910064697</v>
+        <v>0.7007381916046143</v>
       </c>
       <c r="E12">
-        <v>0.7329481840133667</v>
+        <v>0.7029681801795961</v>
       </c>
       <c r="F12">
-        <v>0.7609769701957703</v>
+        <v>0.7288246154785156</v>
       </c>
       <c r="G12">
-        <v>0.7612460851669312</v>
+        <v>0.746395468711853</v>
       </c>
       <c r="H12">
-        <v>0.7756353616714478</v>
+        <v>0.768724262714386</v>
       </c>
       <c r="I12">
-        <v>0.7795955538749695</v>
+        <v>0.7711945772171021</v>
       </c>
       <c r="J12">
-        <v>0.8053846955299377</v>
+        <v>0.7962628602981567</v>
       </c>
       <c r="K12">
-        <v>0.8076146841049194</v>
+        <v>0.7954362034797668</v>
       </c>
       <c r="L12">
-        <v>0.8224653005599976</v>
+        <v>0.8089891672134399</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -6756,34 +6139,34 @@
         <v>0.001057326328009367</v>
       </c>
       <c r="C13">
-        <v>0.6838209629058838</v>
+        <v>0.7202026247978209</v>
       </c>
       <c r="D13">
-        <v>0.7007381916046143</v>
+        <v>0.7267003655433655</v>
       </c>
       <c r="E13">
-        <v>0.7029681801795961</v>
+        <v>0.7305067181587219</v>
       </c>
       <c r="F13">
-        <v>0.7288246154785156</v>
+        <v>0.7636395096778871</v>
       </c>
       <c r="G13">
-        <v>0.746395468711853</v>
+        <v>0.7620727419853209</v>
       </c>
       <c r="H13">
-        <v>0.768724262714386</v>
+        <v>0.7674074172973633</v>
       </c>
       <c r="I13">
-        <v>0.7711945772171021</v>
+        <v>0.7790861129760742</v>
       </c>
       <c r="J13">
-        <v>0.7962628602981567</v>
+        <v>0.8041831851005554</v>
       </c>
       <c r="K13">
-        <v>0.7954362034797668</v>
+        <v>0.8174862265586853</v>
       </c>
       <c r="L13">
-        <v>0.8089891672134399</v>
+        <v>0.8243973255157471</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -6794,34 +6177,34 @@
         <v>0.001057326328009367</v>
       </c>
       <c r="C14">
-        <v>0.7202026247978209</v>
+        <v>0.6748337149620056</v>
       </c>
       <c r="D14">
-        <v>0.7267003655433655</v>
+        <v>0.7026990652084351</v>
       </c>
       <c r="E14">
-        <v>0.7305067181587219</v>
+        <v>0.7189434170722961</v>
       </c>
       <c r="F14">
-        <v>0.7636395096778871</v>
+        <v>0.7154927253723145</v>
       </c>
       <c r="G14">
-        <v>0.7620727419853209</v>
+        <v>0.7563439607620239</v>
       </c>
       <c r="H14">
-        <v>0.7674074172973633</v>
+        <v>0.7566996216773987</v>
       </c>
       <c r="I14">
-        <v>0.7790861129760742</v>
+        <v>0.7754431366920471</v>
       </c>
       <c r="J14">
-        <v>0.8041831851005554</v>
+        <v>0.7863720059394836</v>
       </c>
       <c r="K14">
-        <v>0.8174862265586853</v>
+        <v>0.7994540333747864</v>
       </c>
       <c r="L14">
-        <v>0.8243973255157471</v>
+        <v>0.8171786665916443</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -6832,34 +6215,34 @@
         <v>0.001057326328009367</v>
       </c>
       <c r="C15">
-        <v>0.6748337149620056</v>
+        <v>0.7148582935333252</v>
       </c>
       <c r="D15">
-        <v>0.7026990652084351</v>
+        <v>0.7171267867088318</v>
       </c>
       <c r="E15">
-        <v>0.7189434170722961</v>
+        <v>0.7357164621353149</v>
       </c>
       <c r="F15">
-        <v>0.7154927253723145</v>
+        <v>0.7401092052459717</v>
       </c>
       <c r="G15">
-        <v>0.7563439607620239</v>
+        <v>0.7571513652801514</v>
       </c>
       <c r="H15">
-        <v>0.7566996216773987</v>
+        <v>0.7711272835731506</v>
       </c>
       <c r="I15">
-        <v>0.7754431366920471</v>
+        <v>0.7742416262626648</v>
       </c>
       <c r="J15">
-        <v>0.7863720059394836</v>
+        <v>0.808287501335144</v>
       </c>
       <c r="K15">
-        <v>0.7994540333747864</v>
+        <v>0.8205044269561768</v>
       </c>
       <c r="L15">
-        <v>0.8171786665916443</v>
+        <v>0.8252912163734436</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -6870,34 +6253,34 @@
         <v>0.001057326328009367</v>
       </c>
       <c r="C16">
-        <v>0.7148582935333252</v>
+        <v>0.6723729968070984</v>
       </c>
       <c r="D16">
-        <v>0.7171267867088318</v>
+        <v>0.7022665143013</v>
       </c>
       <c r="E16">
-        <v>0.7357164621353149</v>
+        <v>0.7146276235580444</v>
       </c>
       <c r="F16">
-        <v>0.7401092052459717</v>
+        <v>0.7315544486045837</v>
       </c>
       <c r="G16">
-        <v>0.7571513652801514</v>
+        <v>0.7540274262428284</v>
       </c>
       <c r="H16">
-        <v>0.7711272835731506</v>
+        <v>0.7576416134834291</v>
       </c>
       <c r="I16">
-        <v>0.7742416262626648</v>
+        <v>0.7728766798973083</v>
       </c>
       <c r="J16">
-        <v>0.808287501335144</v>
+        <v>0.7864777445793152</v>
       </c>
       <c r="K16">
-        <v>0.8205044269561768</v>
+        <v>0.788746178150177</v>
       </c>
       <c r="L16">
-        <v>0.8252912163734436</v>
+        <v>0.8073263168334961</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -6908,34 +6291,34 @@
         <v>0.001057326328009367</v>
       </c>
       <c r="C17">
-        <v>0.6723729968070984</v>
+        <v>0.7091391682624817</v>
       </c>
       <c r="D17">
-        <v>0.7022665143013</v>
+        <v>0.7158195376396179</v>
       </c>
       <c r="E17">
-        <v>0.7146276235580444</v>
+        <v>0.7233457565307617</v>
       </c>
       <c r="F17">
-        <v>0.7315544486045837</v>
+        <v>0.7348706126213074</v>
       </c>
       <c r="G17">
-        <v>0.7540274262428284</v>
+        <v>0.7526432871818542</v>
       </c>
       <c r="H17">
-        <v>0.7576416134834291</v>
+        <v>0.7566323280334473</v>
       </c>
       <c r="I17">
-        <v>0.7728766798973083</v>
+        <v>0.7765869498252869</v>
       </c>
       <c r="J17">
-        <v>0.7864777445793152</v>
+        <v>0.7996559143066406</v>
       </c>
       <c r="K17">
-        <v>0.788746178150177</v>
+        <v>0.819408655166626</v>
       </c>
       <c r="L17">
-        <v>0.8073263168334961</v>
+        <v>0.8225421905517578</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -6946,34 +6329,34 @@
         <v>0.001057326328009367</v>
       </c>
       <c r="C18">
-        <v>0.7091391682624817</v>
+        <v>0.6721519231796265</v>
       </c>
       <c r="D18">
-        <v>0.7158195376396179</v>
+        <v>0.7077357769012451</v>
       </c>
       <c r="E18">
-        <v>0.7233457565307617</v>
+        <v>0.7068995237350464</v>
       </c>
       <c r="F18">
-        <v>0.7348706126213074</v>
+        <v>0.7135991454124451</v>
       </c>
       <c r="G18">
-        <v>0.7526432871818542</v>
+        <v>0.7503845095634459</v>
       </c>
       <c r="H18">
-        <v>0.7566323280334473</v>
+        <v>0.7648890614509583</v>
       </c>
       <c r="I18">
-        <v>0.7765869498252869</v>
+        <v>0.7767695784568787</v>
       </c>
       <c r="J18">
-        <v>0.7996559143066406</v>
+        <v>0.7878426909446716</v>
       </c>
       <c r="K18">
-        <v>0.819408655166626</v>
+        <v>0.7921007871627808</v>
       </c>
       <c r="L18">
-        <v>0.8225421905517578</v>
+        <v>0.8123630285263062</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -6984,34 +6367,34 @@
         <v>0.001057326328009367</v>
       </c>
       <c r="C19">
-        <v>0.6721519231796265</v>
+        <v>0.6724787354469299</v>
       </c>
       <c r="D19">
-        <v>0.7077357769012451</v>
+        <v>0.705611526966095</v>
       </c>
       <c r="E19">
-        <v>0.7068995237350464</v>
+        <v>0.7030739188194275</v>
       </c>
       <c r="F19">
-        <v>0.7135991454124451</v>
+        <v>0.7219231724739075</v>
       </c>
       <c r="G19">
-        <v>0.7503845095634459</v>
+        <v>0.7486158609390259</v>
       </c>
       <c r="H19">
-        <v>0.7648890614509583</v>
+        <v>0.7721173167228699</v>
       </c>
       <c r="I19">
-        <v>0.7767695784568787</v>
+        <v>0.7731074094772339</v>
       </c>
       <c r="J19">
-        <v>0.7878426909446716</v>
+        <v>0.7821907997131348</v>
       </c>
       <c r="K19">
-        <v>0.7921007871627808</v>
+        <v>0.798906147480011</v>
       </c>
       <c r="L19">
-        <v>0.8123630285263062</v>
+        <v>0.8179380297660828</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -7022,34 +6405,34 @@
         <v>0.001057326328009367</v>
       </c>
       <c r="C20">
-        <v>0.6724787354469299</v>
+        <v>0.6724691390991211</v>
       </c>
       <c r="D20">
-        <v>0.705611526966095</v>
+        <v>0.69931560754776</v>
       </c>
       <c r="E20">
-        <v>0.7030739188194275</v>
+        <v>0.7076781392097473</v>
       </c>
       <c r="F20">
-        <v>0.7219231724739075</v>
+        <v>0.7147429585456848</v>
       </c>
       <c r="G20">
-        <v>0.7486158609390259</v>
+        <v>0.7430601119995117</v>
       </c>
       <c r="H20">
-        <v>0.7721173167228699</v>
+        <v>0.7565457820892334</v>
       </c>
       <c r="I20">
-        <v>0.7731074094772339</v>
+        <v>0.7698969841003418</v>
       </c>
       <c r="J20">
-        <v>0.7821907997131348</v>
+        <v>0.7851224541664124</v>
       </c>
       <c r="K20">
-        <v>0.798906147480011</v>
+        <v>0.7898131608963013</v>
       </c>
       <c r="L20">
-        <v>0.8179380297660828</v>
+        <v>0.8053750395774841</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -7060,34 +6443,34 @@
         <v>0.001057326328009367</v>
       </c>
       <c r="C21">
-        <v>0.6724691390991211</v>
+        <v>0.6835518479347229</v>
       </c>
       <c r="D21">
-        <v>0.69931560754776</v>
+        <v>0.6972106099128723</v>
       </c>
       <c r="E21">
-        <v>0.7076781392097473</v>
+        <v>0.7201930284500122</v>
       </c>
       <c r="F21">
-        <v>0.7147429585456848</v>
+        <v>0.7362355589866638</v>
       </c>
       <c r="G21">
-        <v>0.7430601119995117</v>
+        <v>0.7513360977172852</v>
       </c>
       <c r="H21">
-        <v>0.7565457820892334</v>
+        <v>0.7639278769493103</v>
       </c>
       <c r="I21">
-        <v>0.7698969841003418</v>
+        <v>0.7848148941993713</v>
       </c>
       <c r="J21">
-        <v>0.7851224541664124</v>
+        <v>0.7897554636001587</v>
       </c>
       <c r="K21">
-        <v>0.7898131608963013</v>
+        <v>0.8074993491172791</v>
       </c>
       <c r="L21">
-        <v>0.8053750395774841</v>
+        <v>0.8137760162353516</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -7098,34 +6481,34 @@
         <v>0.001057326328009367</v>
       </c>
       <c r="C22">
-        <v>0.6835518479347229</v>
+        <v>0.6994213461875916</v>
       </c>
       <c r="D22">
-        <v>0.6972106099128723</v>
+        <v>0.7002384066581726</v>
       </c>
       <c r="E22">
-        <v>0.7201930284500122</v>
+        <v>0.7100426554679871</v>
       </c>
       <c r="F22">
-        <v>0.7362355589866638</v>
+        <v>0.7482698559761047</v>
       </c>
       <c r="G22">
-        <v>0.7513360977172852</v>
+        <v>0.7425698637962341</v>
       </c>
       <c r="H22">
-        <v>0.7639278769493103</v>
+        <v>0.7754334807395935</v>
       </c>
       <c r="I22">
-        <v>0.7848148941993713</v>
+        <v>0.7727805972099304</v>
       </c>
       <c r="J22">
-        <v>0.7897554636001587</v>
+        <v>0.7928217053413391</v>
       </c>
       <c r="K22">
-        <v>0.8074993491172791</v>
+        <v>0.7994636297225952</v>
       </c>
       <c r="L22">
-        <v>0.8137760162353516</v>
+        <v>0.8074609041213989</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -7136,109 +6519,33 @@
         <v>0.001057326328009367</v>
       </c>
       <c r="C23">
-        <v>0.6905686259269714</v>
+        <v>0.7125706672668457</v>
       </c>
       <c r="D23">
-        <v>0.7406570911407471</v>
+        <v>0.7371678948402405</v>
       </c>
       <c r="E23">
-        <v>0.7851320505142212</v>
+        <v>0.7814506292343141</v>
       </c>
       <c r="F23">
-        <v>0.8115556240081787</v>
+        <v>0.8154869675636292</v>
       </c>
       <c r="G23">
-        <v>0.8347687125205994</v>
+        <v>0.8509650230407715</v>
       </c>
       <c r="H23">
-        <v>0.8501480221748352</v>
+        <v>0.876167893409729</v>
       </c>
       <c r="I23">
-        <v>0.8762735724449158</v>
+        <v>0.8990157246589661</v>
       </c>
       <c r="J23">
-        <v>0.8984678387641907</v>
+        <v>0.9104348421096802</v>
       </c>
       <c r="K23">
-        <v>0.9088873267173768</v>
+        <v>0.9197008609771729</v>
       </c>
       <c r="L23">
-        <v>0.9180283546447754</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>0.001057326328009367</v>
-      </c>
-      <c r="C24">
-        <v>0.6994213461875916</v>
-      </c>
-      <c r="D24">
-        <v>0.7002384066581726</v>
-      </c>
-      <c r="E24">
-        <v>0.7100426554679871</v>
-      </c>
-      <c r="F24">
-        <v>0.7482698559761047</v>
-      </c>
-      <c r="G24">
-        <v>0.7425698637962341</v>
-      </c>
-      <c r="H24">
-        <v>0.7754334807395935</v>
-      </c>
-      <c r="I24">
-        <v>0.7727805972099304</v>
-      </c>
-      <c r="J24">
-        <v>0.7928217053413391</v>
-      </c>
-      <c r="K24">
-        <v>0.7994636297225952</v>
-      </c>
-      <c r="L24">
-        <v>0.8074609041213989</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>0.001057326328009367</v>
-      </c>
-      <c r="C25">
-        <v>0.7125706672668457</v>
-      </c>
-      <c r="D25">
-        <v>0.7371678948402405</v>
-      </c>
-      <c r="E25">
-        <v>0.7814506292343141</v>
-      </c>
-      <c r="F25">
-        <v>0.8154869675636292</v>
-      </c>
-      <c r="G25">
-        <v>0.8509650230407715</v>
-      </c>
-      <c r="H25">
-        <v>0.876167893409729</v>
-      </c>
-      <c r="I25">
-        <v>0.8990157246589661</v>
-      </c>
-      <c r="J25">
-        <v>0.9104348421096802</v>
-      </c>
-      <c r="K25">
-        <v>0.9197008609771729</v>
-      </c>
-      <c r="L25">
         <v>0.9302837252616882</v>
       </c>
     </row>
@@ -7249,7 +6556,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7298,34 +6605,34 @@
         <v>0.000750000006519258</v>
       </c>
       <c r="C2">
-        <v>0.6004999876022339</v>
+        <v>0.5397499799728394</v>
       </c>
       <c r="D2">
-        <v>0.640625</v>
+        <v>0.5619999766349792</v>
       </c>
       <c r="E2">
-        <v>0.6740000247955322</v>
+        <v>0.5747500061988831</v>
       </c>
       <c r="F2">
-        <v>0.7067499756813049</v>
+        <v>0.6158750057220459</v>
       </c>
       <c r="G2">
-        <v>0.7243750095367432</v>
+        <v>0.6432499885559082</v>
       </c>
       <c r="H2">
-        <v>0.7456250190734863</v>
+        <v>0.640749990940094</v>
       </c>
       <c r="I2">
-        <v>0.7741249799728394</v>
+        <v>0.671625018119812</v>
       </c>
       <c r="J2">
-        <v>0.7918750047683716</v>
+        <v>0.7151250243186951</v>
       </c>
       <c r="K2">
-        <v>0.8034999966621399</v>
+        <v>0.7206249833106995</v>
       </c>
       <c r="L2">
-        <v>0.8238750100135803</v>
+        <v>0.7377499938011169</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -7336,34 +6643,34 @@
         <v>0.000750000006519258</v>
       </c>
       <c r="C3">
-        <v>0.5397499799728394</v>
+        <v>0.456499993801117</v>
       </c>
       <c r="D3">
-        <v>0.5619999766349792</v>
+        <v>0.5427500009536743</v>
       </c>
       <c r="E3">
-        <v>0.5747500061988831</v>
+        <v>0.5582500100135803</v>
       </c>
       <c r="F3">
-        <v>0.6158750057220459</v>
+        <v>0.5637500286102295</v>
       </c>
       <c r="G3">
-        <v>0.6432499885559082</v>
+        <v>0.5709999799728394</v>
       </c>
       <c r="H3">
-        <v>0.640749990940094</v>
+        <v>0.6006249785423279</v>
       </c>
       <c r="I3">
-        <v>0.671625018119812</v>
+        <v>0.6431249976158142</v>
       </c>
       <c r="J3">
-        <v>0.7151250243186951</v>
+        <v>0.6642500162124634</v>
       </c>
       <c r="K3">
-        <v>0.7206249833106995</v>
+        <v>0.6866250038146973</v>
       </c>
       <c r="L3">
-        <v>0.7377499938011169</v>
+        <v>0.6941249966621399</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -7374,34 +6681,34 @@
         <v>0.000750000006519258</v>
       </c>
       <c r="C4">
-        <v>0.456499993801117</v>
+        <v>0.5377500057220459</v>
       </c>
       <c r="D4">
-        <v>0.5427500009536743</v>
+        <v>0.5523750185966492</v>
       </c>
       <c r="E4">
-        <v>0.5582500100135803</v>
+        <v>0.575124979019165</v>
       </c>
       <c r="F4">
-        <v>0.5637500286102295</v>
+        <v>0.6268749833106995</v>
       </c>
       <c r="G4">
-        <v>0.5709999799728394</v>
+        <v>0.6359999775886536</v>
       </c>
       <c r="H4">
-        <v>0.6006249785423279</v>
+        <v>0.6391249895095825</v>
       </c>
       <c r="I4">
-        <v>0.6431249976158142</v>
+        <v>0.6586250066757202</v>
       </c>
       <c r="J4">
-        <v>0.6642500162124634</v>
+        <v>0.7108749747276306</v>
       </c>
       <c r="K4">
-        <v>0.6866250038146973</v>
+        <v>0.7748749852180481</v>
       </c>
       <c r="L4">
-        <v>0.6941249966621399</v>
+        <v>0.7436249852180481</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -7412,34 +6719,34 @@
         <v>0.000750000006519258</v>
       </c>
       <c r="C5">
-        <v>0.5377500057220459</v>
+        <v>0.5009999871253967</v>
       </c>
       <c r="D5">
-        <v>0.5523750185966492</v>
+        <v>0.5507500171661377</v>
       </c>
       <c r="E5">
-        <v>0.575124979019165</v>
+        <v>0.5422499775886536</v>
       </c>
       <c r="F5">
-        <v>0.6268749833106995</v>
+        <v>0.5431249737739563</v>
       </c>
       <c r="G5">
-        <v>0.6359999775886536</v>
+        <v>0.6047499775886536</v>
       </c>
       <c r="H5">
-        <v>0.6391249895095825</v>
+        <v>0.6006249785423279</v>
       </c>
       <c r="I5">
-        <v>0.6586250066757202</v>
+        <v>0.6607499718666077</v>
       </c>
       <c r="J5">
-        <v>0.7108749747276306</v>
+        <v>0.6524999737739563</v>
       </c>
       <c r="K5">
-        <v>0.7748749852180481</v>
+        <v>0.6636250019073486</v>
       </c>
       <c r="L5">
-        <v>0.7436249852180481</v>
+        <v>0.672249972820282</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -7450,34 +6757,34 @@
         <v>0.000750000006519258</v>
       </c>
       <c r="C6">
-        <v>0.5009999871253967</v>
+        <v>0.5701249837875366</v>
       </c>
       <c r="D6">
-        <v>0.5507500171661377</v>
+        <v>0.5531250238418579</v>
       </c>
       <c r="E6">
-        <v>0.5422499775886536</v>
+        <v>0.5708749890327454</v>
       </c>
       <c r="F6">
-        <v>0.5431249737739563</v>
+        <v>0.6266250014305115</v>
       </c>
       <c r="G6">
-        <v>0.6047499775886536</v>
+        <v>0.640874981880188</v>
       </c>
       <c r="H6">
-        <v>0.6006249785423279</v>
+        <v>0.6428750157356262</v>
       </c>
       <c r="I6">
-        <v>0.6607499718666077</v>
+        <v>0.6654999852180481</v>
       </c>
       <c r="J6">
-        <v>0.6524999737739563</v>
+        <v>0.703000009059906</v>
       </c>
       <c r="K6">
-        <v>0.6636250019073486</v>
+        <v>0.7301250100135803</v>
       </c>
       <c r="L6">
-        <v>0.672249972820282</v>
+        <v>0.7526249885559082</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -7488,34 +6795,34 @@
         <v>0.000750000006519258</v>
       </c>
       <c r="C7">
-        <v>0.5701249837875366</v>
+        <v>0.492374986410141</v>
       </c>
       <c r="D7">
-        <v>0.5531250238418579</v>
+        <v>0.5422499775886536</v>
       </c>
       <c r="E7">
-        <v>0.5708749890327454</v>
+        <v>0.5496249794960022</v>
       </c>
       <c r="F7">
-        <v>0.6266250014305115</v>
+        <v>0.5607500076293945</v>
       </c>
       <c r="G7">
-        <v>0.640874981880188</v>
+        <v>0.6361250281333923</v>
       </c>
       <c r="H7">
-        <v>0.6428750157356262</v>
+        <v>0.6647499799728394</v>
       </c>
       <c r="I7">
-        <v>0.6654999852180481</v>
+        <v>0.6808750033378601</v>
       </c>
       <c r="J7">
-        <v>0.703000009059906</v>
+        <v>0.6953750252723694</v>
       </c>
       <c r="K7">
-        <v>0.7301250100135803</v>
+        <v>0.7156249880790709</v>
       </c>
       <c r="L7">
-        <v>0.7526249885559082</v>
+        <v>0.7482500076293945</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -7526,34 +6833,34 @@
         <v>0.000750000006519258</v>
       </c>
       <c r="C8">
-        <v>0.492374986410141</v>
+        <v>0.5401250123977661</v>
       </c>
       <c r="D8">
-        <v>0.5422499775886536</v>
+        <v>0.5698750019073486</v>
       </c>
       <c r="E8">
-        <v>0.5496249794960022</v>
+        <v>0.5787500143051147</v>
       </c>
       <c r="F8">
-        <v>0.5607500076293945</v>
+        <v>0.6165000200271606</v>
       </c>
       <c r="G8">
-        <v>0.6361250281333923</v>
+        <v>0.6495000123977661</v>
       </c>
       <c r="H8">
-        <v>0.6647499799728394</v>
+        <v>0.6330000162124634</v>
       </c>
       <c r="I8">
-        <v>0.6808750033378601</v>
+        <v>0.6539999842643738</v>
       </c>
       <c r="J8">
-        <v>0.6953750252723694</v>
+        <v>0.7063750028610229</v>
       </c>
       <c r="K8">
-        <v>0.7156249880790709</v>
+        <v>0.7584999799728394</v>
       </c>
       <c r="L8">
-        <v>0.7482500076293945</v>
+        <v>0.7483749985694885</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -7564,34 +6871,34 @@
         <v>0.000750000006519258</v>
       </c>
       <c r="C9">
-        <v>0.5401250123977661</v>
+        <v>0.4889999926090241</v>
       </c>
       <c r="D9">
-        <v>0.5698750019073486</v>
+        <v>0.5512499809265137</v>
       </c>
       <c r="E9">
-        <v>0.5787500143051147</v>
+        <v>0.5721250176429749</v>
       </c>
       <c r="F9">
-        <v>0.6165000200271606</v>
+        <v>0.581125020980835</v>
       </c>
       <c r="G9">
-        <v>0.6495000123977661</v>
+        <v>0.6326249837875366</v>
       </c>
       <c r="H9">
-        <v>0.6330000162124634</v>
+        <v>0.6952499747276306</v>
       </c>
       <c r="I9">
-        <v>0.6539999842643738</v>
+        <v>0.703374981880188</v>
       </c>
       <c r="J9">
-        <v>0.7063750028610229</v>
+        <v>0.7501249909400941</v>
       </c>
       <c r="K9">
-        <v>0.7584999799728394</v>
+        <v>0.7258750200271606</v>
       </c>
       <c r="L9">
-        <v>0.7483749985694885</v>
+        <v>0.7707499861717224</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -7602,34 +6909,34 @@
         <v>0.000750000006519258</v>
       </c>
       <c r="C10">
-        <v>0.4889999926090241</v>
+        <v>0.5525000095367432</v>
       </c>
       <c r="D10">
-        <v>0.5512499809265137</v>
+        <v>0.5516250133514404</v>
       </c>
       <c r="E10">
-        <v>0.5721250176429749</v>
+        <v>0.5756250023841858</v>
       </c>
       <c r="F10">
-        <v>0.581125020980835</v>
+        <v>0.6222500205039978</v>
       </c>
       <c r="G10">
-        <v>0.6326249837875366</v>
+        <v>0.6198750138282776</v>
       </c>
       <c r="H10">
-        <v>0.6952499747276306</v>
+        <v>0.6311249732971191</v>
       </c>
       <c r="I10">
-        <v>0.703374981880188</v>
+        <v>0.6673750281333923</v>
       </c>
       <c r="J10">
-        <v>0.7501249909400941</v>
+        <v>0.7168750166893005</v>
       </c>
       <c r="K10">
-        <v>0.7258750200271606</v>
+        <v>0.7099999785423279</v>
       </c>
       <c r="L10">
-        <v>0.7707499861717224</v>
+        <v>0.7378749847412109</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -7640,34 +6947,34 @@
         <v>0.000750000006519258</v>
       </c>
       <c r="C11">
-        <v>0.5525000095367432</v>
+        <v>0.495624989271164</v>
       </c>
       <c r="D11">
-        <v>0.5516250133514404</v>
+        <v>0.5509999990463257</v>
       </c>
       <c r="E11">
-        <v>0.5756250023841858</v>
+        <v>0.5534999966621399</v>
       </c>
       <c r="F11">
-        <v>0.6222500205039978</v>
+        <v>0.5772500038146973</v>
       </c>
       <c r="G11">
-        <v>0.6198750138282776</v>
+        <v>0.6221250295639038</v>
       </c>
       <c r="H11">
-        <v>0.6311249732971191</v>
+        <v>0.6617500185966492</v>
       </c>
       <c r="I11">
-        <v>0.6673750281333923</v>
+        <v>0.6816250085830688</v>
       </c>
       <c r="J11">
-        <v>0.7168750166893005</v>
+        <v>0.6793749928474426</v>
       </c>
       <c r="K11">
-        <v>0.7099999785423279</v>
+        <v>0.6977499723434448</v>
       </c>
       <c r="L11">
-        <v>0.7378749847412109</v>
+        <v>0.7273749709129333</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -7678,34 +6985,34 @@
         <v>0.000750000006519258</v>
       </c>
       <c r="C12">
-        <v>0.495624989271164</v>
+        <v>0.5667499899864197</v>
       </c>
       <c r="D12">
-        <v>0.5509999990463257</v>
+        <v>0.5588750243186951</v>
       </c>
       <c r="E12">
-        <v>0.5534999966621399</v>
+        <v>0.5692499876022339</v>
       </c>
       <c r="F12">
-        <v>0.5772500038146973</v>
+        <v>0.6208750009536743</v>
       </c>
       <c r="G12">
-        <v>0.6221250295639038</v>
+        <v>0.6209999918937683</v>
       </c>
       <c r="H12">
-        <v>0.6617500185966492</v>
+        <v>0.6821249723434448</v>
       </c>
       <c r="I12">
-        <v>0.6816250085830688</v>
+        <v>0.6940000057220459</v>
       </c>
       <c r="J12">
-        <v>0.6793749928474426</v>
+        <v>0.7124999761581421</v>
       </c>
       <c r="K12">
-        <v>0.6977499723434448</v>
+        <v>0.7361249923706055</v>
       </c>
       <c r="L12">
-        <v>0.7273749709129333</v>
+        <v>0.7607499957084656</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -7716,34 +7023,34 @@
         <v>0.000750000006519258</v>
       </c>
       <c r="C13">
-        <v>0.5667499899864197</v>
+        <v>0.4903750121593475</v>
       </c>
       <c r="D13">
-        <v>0.5588750243186951</v>
+        <v>0.5442500114440918</v>
       </c>
       <c r="E13">
-        <v>0.5692499876022339</v>
+        <v>0.5450000166893005</v>
       </c>
       <c r="F13">
-        <v>0.6208750009536743</v>
+        <v>0.5773749947547913</v>
       </c>
       <c r="G13">
-        <v>0.6209999918937683</v>
+        <v>0.6486250162124634</v>
       </c>
       <c r="H13">
-        <v>0.6821249723434448</v>
+        <v>0.6773750185966492</v>
       </c>
       <c r="I13">
-        <v>0.6940000057220459</v>
+        <v>0.6822500228881836</v>
       </c>
       <c r="J13">
-        <v>0.7124999761581421</v>
+        <v>0.7208750247955322</v>
       </c>
       <c r="K13">
-        <v>0.7361249923706055</v>
+        <v>0.7327499985694885</v>
       </c>
       <c r="L13">
-        <v>0.7607499957084656</v>
+        <v>0.7488750219345093</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -7754,34 +7061,34 @@
         <v>0.000750000006519258</v>
       </c>
       <c r="C14">
-        <v>0.4903750121593475</v>
+        <v>0.5396249890327454</v>
       </c>
       <c r="D14">
-        <v>0.5442500114440918</v>
+        <v>0.5612499713897705</v>
       </c>
       <c r="E14">
-        <v>0.5450000166893005</v>
+        <v>0.5684999823570251</v>
       </c>
       <c r="F14">
-        <v>0.5773749947547913</v>
+        <v>0.6171249747276306</v>
       </c>
       <c r="G14">
-        <v>0.6486250162124634</v>
+        <v>0.6200000047683716</v>
       </c>
       <c r="H14">
-        <v>0.6773750185966492</v>
+        <v>0.643750011920929</v>
       </c>
       <c r="I14">
-        <v>0.6822500228881836</v>
+        <v>0.6706249713897705</v>
       </c>
       <c r="J14">
-        <v>0.7208750247955322</v>
+        <v>0.7017499804496765</v>
       </c>
       <c r="K14">
-        <v>0.7327499985694885</v>
+        <v>0.7475000023841858</v>
       </c>
       <c r="L14">
-        <v>0.7488750219345093</v>
+        <v>0.7513750195503235</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -7792,34 +7099,34 @@
         <v>0.000750000006519258</v>
       </c>
       <c r="C15">
-        <v>0.5396249890327454</v>
+        <v>0.4883750081062317</v>
       </c>
       <c r="D15">
-        <v>0.5612499713897705</v>
+        <v>0.5509999990463257</v>
       </c>
       <c r="E15">
-        <v>0.5684999823570251</v>
+        <v>0.5584999918937683</v>
       </c>
       <c r="F15">
-        <v>0.6171249747276306</v>
+        <v>0.5801249742507935</v>
       </c>
       <c r="G15">
-        <v>0.6200000047683716</v>
+        <v>0.6430000066757202</v>
       </c>
       <c r="H15">
-        <v>0.643750011920929</v>
+        <v>0.6710000038146973</v>
       </c>
       <c r="I15">
-        <v>0.6706249713897705</v>
+        <v>0.6815000176429749</v>
       </c>
       <c r="J15">
-        <v>0.7017499804496765</v>
+        <v>0.6996250152587891</v>
       </c>
       <c r="K15">
-        <v>0.7475000023841858</v>
+        <v>0.7204999923706055</v>
       </c>
       <c r="L15">
-        <v>0.7513750195503235</v>
+        <v>0.7753750085830688</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -7830,34 +7137,34 @@
         <v>0.000750000006519258</v>
       </c>
       <c r="C16">
-        <v>0.4883750081062317</v>
+        <v>0.5542500019073486</v>
       </c>
       <c r="D16">
-        <v>0.5509999990463257</v>
+        <v>0.5513749718666077</v>
       </c>
       <c r="E16">
-        <v>0.5584999918937683</v>
+        <v>0.5742499828338623</v>
       </c>
       <c r="F16">
-        <v>0.5801249742507935</v>
+        <v>0.6156250238418579</v>
       </c>
       <c r="G16">
-        <v>0.6430000066757202</v>
+        <v>0.628125011920929</v>
       </c>
       <c r="H16">
-        <v>0.6710000038146973</v>
+        <v>0.6290000081062317</v>
       </c>
       <c r="I16">
-        <v>0.6815000176429749</v>
+        <v>0.671999990940094</v>
       </c>
       <c r="J16">
-        <v>0.6996250152587891</v>
+        <v>0.7167500257492065</v>
       </c>
       <c r="K16">
-        <v>0.7204999923706055</v>
+        <v>0.7418749928474426</v>
       </c>
       <c r="L16">
-        <v>0.7753750085830688</v>
+        <v>0.7419999837875366</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -7868,34 +7175,34 @@
         <v>0.000750000006519258</v>
       </c>
       <c r="C17">
-        <v>0.5542500019073486</v>
+        <v>0.4964999854564667</v>
       </c>
       <c r="D17">
-        <v>0.5513749718666077</v>
+        <v>0.5432500243186951</v>
       </c>
       <c r="E17">
-        <v>0.5742499828338623</v>
+        <v>0.5709999799728394</v>
       </c>
       <c r="F17">
-        <v>0.6156250238418579</v>
+        <v>0.5853750109672546</v>
       </c>
       <c r="G17">
-        <v>0.628125011920929</v>
+        <v>0.6353750228881836</v>
       </c>
       <c r="H17">
-        <v>0.6290000081062317</v>
+        <v>0.6603749990463257</v>
       </c>
       <c r="I17">
-        <v>0.671999990940094</v>
+        <v>0.6826249957084656</v>
       </c>
       <c r="J17">
-        <v>0.7167500257492065</v>
+        <v>0.6815000176429749</v>
       </c>
       <c r="K17">
-        <v>0.7418749928474426</v>
+        <v>0.7212499976158142</v>
       </c>
       <c r="L17">
-        <v>0.7419999837875366</v>
+        <v>0.7411249876022339</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -7906,34 +7213,34 @@
         <v>0.000750000006519258</v>
       </c>
       <c r="C18">
-        <v>0.4964999854564667</v>
+        <v>0.5567499995231628</v>
       </c>
       <c r="D18">
-        <v>0.5432500243186951</v>
+        <v>0.5616250038146973</v>
       </c>
       <c r="E18">
-        <v>0.5709999799728394</v>
+        <v>0.5726249814033508</v>
       </c>
       <c r="F18">
-        <v>0.5853750109672546</v>
+        <v>0.6172500252723694</v>
       </c>
       <c r="G18">
-        <v>0.6353750228881836</v>
+        <v>0.6453750133514404</v>
       </c>
       <c r="H18">
-        <v>0.6603749990463257</v>
+        <v>0.6358749866485596</v>
       </c>
       <c r="I18">
-        <v>0.6826249957084656</v>
+        <v>0.671875</v>
       </c>
       <c r="J18">
-        <v>0.6815000176429749</v>
+        <v>0.7206249833106995</v>
       </c>
       <c r="K18">
-        <v>0.7212499976158142</v>
+        <v>0.7361249923706055</v>
       </c>
       <c r="L18">
-        <v>0.7411249876022339</v>
+        <v>0.7916250228881836</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -7944,34 +7251,34 @@
         <v>0.000750000006519258</v>
       </c>
       <c r="C19">
-        <v>0.5567499995231628</v>
+        <v>0.5261250138282776</v>
       </c>
       <c r="D19">
-        <v>0.5616250038146973</v>
+        <v>0.5582500100135803</v>
       </c>
       <c r="E19">
-        <v>0.5726249814033508</v>
+        <v>0.5787500143051147</v>
       </c>
       <c r="F19">
-        <v>0.6172500252723694</v>
+        <v>0.6392499804496765</v>
       </c>
       <c r="G19">
-        <v>0.6453750133514404</v>
+        <v>0.6488749980926514</v>
       </c>
       <c r="H19">
-        <v>0.6358749866485596</v>
+        <v>0.6471250057220459</v>
       </c>
       <c r="I19">
-        <v>0.671875</v>
+        <v>0.6887500286102295</v>
       </c>
       <c r="J19">
-        <v>0.7206249833106995</v>
+        <v>0.7260000109672546</v>
       </c>
       <c r="K19">
-        <v>0.7361249923706055</v>
+        <v>0.7655000090599059</v>
       </c>
       <c r="L19">
-        <v>0.7916250228881836</v>
+        <v>0.8057500123977661</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -7982,34 +7289,34 @@
         <v>0.000750000006519258</v>
       </c>
       <c r="C20">
-        <v>0.5261250138282776</v>
+        <v>0.5331249833106995</v>
       </c>
       <c r="D20">
-        <v>0.5582500100135803</v>
+        <v>0.5686249732971191</v>
       </c>
       <c r="E20">
-        <v>0.5787500143051147</v>
+        <v>0.575124979019165</v>
       </c>
       <c r="F20">
-        <v>0.6392499804496765</v>
+        <v>0.621999979019165</v>
       </c>
       <c r="G20">
-        <v>0.6488749980926514</v>
+        <v>0.6614999771118164</v>
       </c>
       <c r="H20">
-        <v>0.6471250057220459</v>
+        <v>0.6825000047683716</v>
       </c>
       <c r="I20">
-        <v>0.6887500286102295</v>
+        <v>0.7156249880790709</v>
       </c>
       <c r="J20">
-        <v>0.7260000109672546</v>
+        <v>0.7361249923706055</v>
       </c>
       <c r="K20">
-        <v>0.7655000090599059</v>
+        <v>0.7837499976158142</v>
       </c>
       <c r="L20">
-        <v>0.8057500123977661</v>
+        <v>0.7911249995231628</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -8020,147 +7327,71 @@
         <v>0.000750000006519258</v>
       </c>
       <c r="C21">
-        <v>0.5331249833106995</v>
+        <v>0.5263749957084656</v>
       </c>
       <c r="D21">
-        <v>0.5686249732971191</v>
+        <v>0.5641250014305115</v>
       </c>
       <c r="E21">
-        <v>0.575124979019165</v>
+        <v>0.5723749995231628</v>
       </c>
       <c r="F21">
-        <v>0.621999979019165</v>
+        <v>0.6282500028610229</v>
       </c>
       <c r="G21">
-        <v>0.6614999771118164</v>
+        <v>0.659375011920929</v>
       </c>
       <c r="H21">
-        <v>0.6825000047683716</v>
+        <v>0.6823750138282776</v>
       </c>
       <c r="I21">
-        <v>0.7156249880790709</v>
+        <v>0.6884999871253967</v>
       </c>
       <c r="J21">
-        <v>0.7361249923706055</v>
+        <v>0.7362499833106995</v>
       </c>
       <c r="K21">
-        <v>0.7837499976158142</v>
+        <v>0.7368749976158142</v>
       </c>
       <c r="L21">
-        <v>0.7911249995231628</v>
+        <v>0.7369999885559082</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>0.000750000006519258</v>
       </c>
       <c r="C22">
-        <v>0.5263749957084656</v>
+        <v>0.5671250224113464</v>
       </c>
       <c r="D22">
-        <v>0.5641250014305115</v>
+        <v>0.6370000243186951</v>
       </c>
       <c r="E22">
-        <v>0.5723749995231628</v>
+        <v>0.7129999995231628</v>
       </c>
       <c r="F22">
-        <v>0.6282500028610229</v>
+        <v>0.7611250281333923</v>
       </c>
       <c r="G22">
-        <v>0.659375011920929</v>
+        <v>0.8212500214576721</v>
       </c>
       <c r="H22">
-        <v>0.6823750138282776</v>
+        <v>0.8696249723434448</v>
       </c>
       <c r="I22">
-        <v>0.6884999871253967</v>
+        <v>0.9067500233650208</v>
       </c>
       <c r="J22">
-        <v>0.7362499833106995</v>
+        <v>0.92849999666214</v>
       </c>
       <c r="K22">
-        <v>0.7368749976158142</v>
+        <v>0.9547500014305116</v>
       </c>
       <c r="L22">
-        <v>0.7369999885559082</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>0.000750000006519258</v>
-      </c>
-      <c r="C23">
-        <v>0.4930000007152557</v>
-      </c>
-      <c r="D23">
-        <v>0.5711249709129333</v>
-      </c>
-      <c r="E23">
-        <v>0.6542500257492065</v>
-      </c>
-      <c r="F23">
-        <v>0.7258750200271606</v>
-      </c>
-      <c r="G23">
-        <v>0.8062499761581421</v>
-      </c>
-      <c r="H23">
-        <v>0.8500000238418579</v>
-      </c>
-      <c r="I23">
-        <v>0.8924999833106995</v>
-      </c>
-      <c r="J23">
-        <v>0.9291250109672546</v>
-      </c>
-      <c r="K23">
-        <v>0.9573749899864196</v>
-      </c>
-      <c r="L23">
-        <v>0.9733750224113464</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24">
-        <v>0.000750000006519258</v>
-      </c>
-      <c r="C24">
-        <v>0.5671250224113464</v>
-      </c>
-      <c r="D24">
-        <v>0.6370000243186951</v>
-      </c>
-      <c r="E24">
-        <v>0.7129999995231628</v>
-      </c>
-      <c r="F24">
-        <v>0.7611250281333923</v>
-      </c>
-      <c r="G24">
-        <v>0.8212500214576721</v>
-      </c>
-      <c r="H24">
-        <v>0.8696249723434448</v>
-      </c>
-      <c r="I24">
-        <v>0.9067500233650208</v>
-      </c>
-      <c r="J24">
-        <v>0.92849999666214</v>
-      </c>
-      <c r="K24">
-        <v>0.9547500014305116</v>
-      </c>
-      <c r="L24">
         <v>0.968625009059906</v>
       </c>
     </row>
